--- a/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
+++ b/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0485B0C6-DF64-4673-A48A-841E7D40F7F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F5602-E12F-49BE-92CC-2DF6ADA787FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>齋藤　大夢</t>
   </si>
@@ -751,6 +751,69 @@
     </rPh>
     <phoneticPr fontId="22"/>
   </si>
+  <si>
+    <t>冬休</t>
+    <rPh sb="0" eb="2">
+      <t>フユヤス</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>β版までに間に合わなかったタスク</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>バグや細かい部分の修正</t>
+    <rPh sb="3" eb="4">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>以降</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>実装できなかったタスクの実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>シェーダ周りの描画システムの改善</t>
+    <rPh sb="4" eb="5">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
 </sst>
 </file>
 
@@ -759,7 +822,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -975,8 +1038,16 @@
       <color theme="7" tint="0.59999389629810485"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,8 +1198,26 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFA9EF"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFBF8F00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1265,11 +1354,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749961851863155"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FFB7B7B7"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1483,11 +1643,37 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1503,33 +1689,65 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,6 +1755,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCFA9EF"/>
+      <color rgb="FFECACD8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1849,54 +2073,56 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CA285"/>
+  <dimension ref="A1:CB287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S59" sqref="S59"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="78" width="3" customWidth="1"/>
-    <col min="79" max="79" width="3.33203125" customWidth="1"/>
+    <col min="4" max="71" width="3" customWidth="1"/>
+    <col min="72" max="72" width="5.5546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="73" max="79" width="3" customWidth="1"/>
+    <col min="80" max="80" width="5.5546875" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="41.4" customHeight="1">
+    <row r="1" spans="1:80" ht="41.4" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -1951,8 +2177,9 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
-    </row>
-    <row r="2" spans="1:79" ht="21" customHeight="1">
+      <c r="CB1" s="1"/>
+    </row>
+    <row r="2" spans="1:80" ht="21" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2032,247 +2259,254 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-    </row>
-    <row r="3" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CB2" s="1"/>
+    </row>
+    <row r="3" spans="1:80" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="87" t="s">
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="89" t="s">
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="76"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="76"/>
-      <c r="BN3" s="76"/>
-      <c r="BO3" s="76"/>
-      <c r="BP3" s="76"/>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="76"/>
-      <c r="BS3" s="77"/>
-      <c r="BT3" s="90" t="s">
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="96"/>
+      <c r="BO3" s="96"/>
+      <c r="BP3" s="96"/>
+      <c r="BQ3" s="96"/>
+      <c r="BR3" s="96"/>
+      <c r="BS3" s="96"/>
+      <c r="BT3" s="97"/>
+      <c r="BU3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="BU3" s="76"/>
-      <c r="BV3" s="76"/>
-      <c r="BW3" s="76"/>
-      <c r="BX3" s="76"/>
-      <c r="BY3" s="76"/>
-      <c r="BZ3" s="77"/>
-      <c r="CA3" s="9"/>
-    </row>
-    <row r="4" spans="1:79" ht="17.25" customHeight="1">
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="79"/>
+      <c r="CB3" s="108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="91">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="82">
         <v>19</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="91">
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="82">
         <v>20</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="91">
+      <c r="H4" s="79"/>
+      <c r="I4" s="82">
         <v>26</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="91">
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="82">
         <v>27</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="88">
+      <c r="M4" s="79"/>
+      <c r="N4" s="83">
         <v>3</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="88">
+      <c r="O4" s="78"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="83">
         <v>4</v>
       </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="88">
+      <c r="R4" s="79"/>
+      <c r="S4" s="83">
         <v>10</v>
       </c>
-      <c r="T4" s="76"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="88">
+      <c r="T4" s="78"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="83">
         <v>11</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="88">
+      <c r="W4" s="79"/>
+      <c r="X4" s="83">
         <v>17</v>
       </c>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="88">
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="83">
         <v>18</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="88">
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="83">
         <v>24</v>
       </c>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="88">
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="83">
         <v>31</v>
       </c>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="75">
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="87">
         <v>1</v>
       </c>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="75">
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="87">
         <v>7</v>
       </c>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="75">
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="87">
         <v>8</v>
       </c>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="75">
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="87">
         <v>14</v>
       </c>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="75">
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="87">
         <v>15</v>
       </c>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="75">
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="87">
         <v>21</v>
       </c>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="75">
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="87">
         <v>22</v>
       </c>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="75">
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="87">
         <v>28</v>
       </c>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="75">
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="87">
         <v>29</v>
       </c>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="92">
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="77">
         <v>5</v>
       </c>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="92">
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="77">
         <v>6</v>
       </c>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="92">
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="77">
         <v>12</v>
       </c>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="92">
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="77">
         <v>13</v>
       </c>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="92">
+      <c r="BN4" s="79"/>
+      <c r="BO4" s="77">
         <v>19</v>
       </c>
-      <c r="BP4" s="76"/>
-      <c r="BQ4" s="76"/>
-      <c r="BR4" s="92">
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="77">
         <v>20</v>
       </c>
-      <c r="BS4" s="77"/>
-      <c r="BT4" s="93">
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU4" s="84">
         <v>16</v>
       </c>
-      <c r="BU4" s="76"/>
-      <c r="BV4" s="76"/>
-      <c r="BW4" s="93">
+      <c r="BV4" s="78"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="84">
         <v>17</v>
       </c>
-      <c r="BX4" s="77"/>
-      <c r="BY4" s="93">
+      <c r="BY4" s="79"/>
+      <c r="BZ4" s="84">
         <v>24</v>
       </c>
-      <c r="BZ4" s="77"/>
-      <c r="CA4" s="10"/>
-    </row>
-    <row r="5" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA4" s="78"/>
+      <c r="CB4" s="111"/>
+    </row>
+    <row r="5" spans="1:80" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -2474,33 +2708,34 @@
       <c r="BR5" s="13">
         <v>67</v>
       </c>
-      <c r="BS5" s="13">
+      <c r="BS5" s="99">
         <v>68</v>
       </c>
-      <c r="BT5" s="13">
+      <c r="BT5" s="110"/>
+      <c r="BU5" s="105">
         <v>69</v>
       </c>
-      <c r="BU5" s="13">
+      <c r="BV5" s="106">
         <v>70</v>
       </c>
-      <c r="BV5" s="13">
+      <c r="BW5" s="106">
         <v>71</v>
       </c>
-      <c r="BW5" s="13">
+      <c r="BX5" s="106">
         <v>72</v>
       </c>
-      <c r="BX5" s="13">
+      <c r="BY5" s="106">
         <v>73</v>
       </c>
-      <c r="BY5" s="13">
+      <c r="BZ5" s="106">
         <v>74</v>
       </c>
-      <c r="BZ5" s="13">
+      <c r="CA5" s="109">
         <v>75</v>
       </c>
-      <c r="CA5" s="11"/>
-    </row>
-    <row r="6" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="CB5" s="111"/>
+    </row>
+    <row r="6" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
       <c r="B6" s="58" t="s">
         <v>8</v>
@@ -2581,9 +2816,10 @@
       <c r="BX6" s="45"/>
       <c r="BY6" s="45"/>
       <c r="BZ6" s="45"/>
-      <c r="CA6" s="43"/>
-    </row>
-    <row r="7" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA6" s="45"/>
+      <c r="CB6" s="45"/>
+    </row>
+    <row r="7" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A7" s="14"/>
       <c r="B7" s="37" t="s">
         <v>12</v>
@@ -2663,12 +2899,13 @@
       <c r="BU7" s="41"/>
       <c r="BV7" s="41"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="42"/>
-      <c r="BY7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="42"/>
       <c r="BZ7" s="41"/>
-      <c r="CA7" s="14"/>
-    </row>
-    <row r="8" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="41"/>
+    </row>
+    <row r="8" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -2748,12 +2985,13 @@
       <c r="BU8" s="20"/>
       <c r="BV8" s="20"/>
       <c r="BW8" s="20"/>
-      <c r="BX8" s="21"/>
-      <c r="BY8" s="20"/>
+      <c r="BX8" s="20"/>
+      <c r="BY8" s="21"/>
       <c r="BZ8" s="20"/>
-      <c r="CA8" s="14"/>
-    </row>
-    <row r="9" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA8" s="20"/>
+      <c r="CB8" s="20"/>
+    </row>
+    <row r="9" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A9" s="14"/>
       <c r="B9" s="33" t="s">
         <v>14</v>
@@ -2764,8 +3002,8 @@
       <c r="D9" s="32"/>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="30"/>
@@ -2833,12 +3071,13 @@
       <c r="BU9" s="20"/>
       <c r="BV9" s="20"/>
       <c r="BW9" s="20"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="21"/>
       <c r="BZ9" s="20"/>
-      <c r="CA9" s="14"/>
-    </row>
-    <row r="10" spans="1:79" ht="16.8" customHeight="1" outlineLevel="1">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+    </row>
+    <row r="10" spans="1:80" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A10" s="14"/>
       <c r="B10" s="49" t="s">
         <v>13</v>
@@ -2918,12 +3157,13 @@
       <c r="BU10" s="53"/>
       <c r="BV10" s="53"/>
       <c r="BW10" s="53"/>
-      <c r="BX10" s="55"/>
-      <c r="BY10" s="53"/>
+      <c r="BX10" s="53"/>
+      <c r="BY10" s="55"/>
       <c r="BZ10" s="53"/>
-      <c r="CA10" s="14"/>
-    </row>
-    <row r="11" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="CA10" s="53"/>
+      <c r="CB10" s="53"/>
+    </row>
+    <row r="11" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="43"/>
       <c r="B11" s="58" t="s">
         <v>9</v>
@@ -3004,9 +3244,10 @@
       <c r="BX11" s="45"/>
       <c r="BY11" s="45"/>
       <c r="BZ11" s="45"/>
-      <c r="CA11" s="43"/>
-    </row>
-    <row r="12" spans="1:79" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA11" s="45"/>
+      <c r="CB11" s="45"/>
+    </row>
+    <row r="12" spans="1:80" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A12" s="14"/>
       <c r="B12" s="33" t="s">
         <v>81</v>
@@ -3086,12 +3327,13 @@
       <c r="BU12" s="20"/>
       <c r="BV12" s="20"/>
       <c r="BW12" s="20"/>
-      <c r="BX12" s="21"/>
-      <c r="BY12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="21"/>
       <c r="BZ12" s="20"/>
-      <c r="CA12" s="14"/>
-    </row>
-    <row r="13" spans="1:79" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+    </row>
+    <row r="13" spans="1:80" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>80</v>
@@ -3171,12 +3413,13 @@
       <c r="BU13" s="20"/>
       <c r="BV13" s="20"/>
       <c r="BW13" s="20"/>
-      <c r="BX13" s="21"/>
-      <c r="BY13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="21"/>
       <c r="BZ13" s="20"/>
-      <c r="CA13" s="14"/>
-    </row>
-    <row r="14" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+    </row>
+    <row r="14" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="14"/>
       <c r="B14" s="59" t="s">
         <v>18</v>
@@ -3254,12 +3497,13 @@
       <c r="BU14" s="41"/>
       <c r="BV14" s="41"/>
       <c r="BW14" s="41"/>
-      <c r="BX14" s="42"/>
-      <c r="BY14" s="41"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="42"/>
       <c r="BZ14" s="41"/>
-      <c r="CA14" s="14"/>
-    </row>
-    <row r="15" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA14" s="41"/>
+      <c r="CB14" s="41"/>
+    </row>
+    <row r="15" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
         <v>15</v>
@@ -3339,12 +3583,13 @@
       <c r="BU15" s="20"/>
       <c r="BV15" s="20"/>
       <c r="BW15" s="20"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="21"/>
       <c r="BZ15" s="20"/>
-      <c r="CA15" s="14"/>
-    </row>
-    <row r="16" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+    </row>
+    <row r="16" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
@@ -3424,12 +3669,13 @@
       <c r="BU16" s="20"/>
       <c r="BV16" s="20"/>
       <c r="BW16" s="20"/>
-      <c r="BX16" s="21"/>
-      <c r="BY16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="21"/>
       <c r="BZ16" s="20"/>
-      <c r="CA16" s="14"/>
-    </row>
-    <row r="17" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA16" s="20"/>
+      <c r="CB16" s="20"/>
+    </row>
+    <row r="17" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="14"/>
       <c r="B17" s="60" t="s">
         <v>19</v>
@@ -3507,12 +3753,13 @@
       <c r="BU17" s="20"/>
       <c r="BV17" s="20"/>
       <c r="BW17" s="20"/>
-      <c r="BX17" s="21"/>
-      <c r="BY17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="21"/>
       <c r="BZ17" s="20"/>
-      <c r="CA17" s="14"/>
-    </row>
-    <row r="18" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA17" s="20"/>
+      <c r="CB17" s="20"/>
+    </row>
+    <row r="18" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>20</v>
@@ -3592,12 +3839,13 @@
       <c r="BU18" s="20"/>
       <c r="BV18" s="20"/>
       <c r="BW18" s="20"/>
-      <c r="BX18" s="21"/>
-      <c r="BY18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="21"/>
       <c r="BZ18" s="20"/>
-      <c r="CA18" s="14"/>
-    </row>
-    <row r="19" spans="1:79" ht="16.8" customHeight="1" outlineLevel="2">
+      <c r="CA18" s="20"/>
+      <c r="CB18" s="20"/>
+    </row>
+    <row r="19" spans="1:80" ht="16.8" customHeight="1" outlineLevel="2">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>21</v>
@@ -3677,12 +3925,13 @@
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
-      <c r="BX19" s="21"/>
-      <c r="BY19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="21"/>
       <c r="BZ19" s="20"/>
-      <c r="CA19" s="14"/>
-    </row>
-    <row r="20" spans="1:79" ht="16.8" customHeight="1" outlineLevel="2">
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+    </row>
+    <row r="20" spans="1:80" ht="16.8" customHeight="1" outlineLevel="2">
       <c r="A20" s="14"/>
       <c r="B20" s="33" t="s">
         <v>22</v>
@@ -3762,12 +4011,13 @@
       <c r="BU20" s="20"/>
       <c r="BV20" s="20"/>
       <c r="BW20" s="20"/>
-      <c r="BX20" s="21"/>
-      <c r="BY20" s="20"/>
+      <c r="BX20" s="20"/>
+      <c r="BY20" s="21"/>
       <c r="BZ20" s="20"/>
-      <c r="CA20" s="14"/>
-    </row>
-    <row r="21" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA20" s="20"/>
+      <c r="CB20" s="20"/>
+    </row>
+    <row r="21" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="14"/>
       <c r="B21" s="62" t="s">
         <v>23</v>
@@ -3845,12 +4095,13 @@
       <c r="BU21" s="20"/>
       <c r="BV21" s="20"/>
       <c r="BW21" s="20"/>
-      <c r="BX21" s="21"/>
-      <c r="BY21" s="20"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="21"/>
       <c r="BZ21" s="20"/>
-      <c r="CA21" s="14"/>
-    </row>
-    <row r="22" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA21" s="20"/>
+      <c r="CB21" s="20"/>
+    </row>
+    <row r="22" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A22" s="14"/>
       <c r="B22" s="33" t="s">
         <v>24</v>
@@ -3930,12 +4181,13 @@
       <c r="BU22" s="20"/>
       <c r="BV22" s="20"/>
       <c r="BW22" s="20"/>
-      <c r="BX22" s="21"/>
-      <c r="BY22" s="20"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="21"/>
       <c r="BZ22" s="20"/>
-      <c r="CA22" s="14"/>
-    </row>
-    <row r="23" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA22" s="20"/>
+      <c r="CB22" s="20"/>
+    </row>
+    <row r="23" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
         <v>25</v>
@@ -4015,12 +4267,13 @@
       <c r="BU23" s="20"/>
       <c r="BV23" s="20"/>
       <c r="BW23" s="20"/>
-      <c r="BX23" s="21"/>
-      <c r="BY23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="21"/>
       <c r="BZ23" s="20"/>
-      <c r="CA23" s="14"/>
-    </row>
-    <row r="24" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+    </row>
+    <row r="24" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="14"/>
       <c r="B24" s="63" t="s">
         <v>26</v>
@@ -4098,12 +4351,13 @@
       <c r="BU24" s="20"/>
       <c r="BV24" s="20"/>
       <c r="BW24" s="20"/>
-      <c r="BX24" s="21"/>
-      <c r="BY24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="21"/>
       <c r="BZ24" s="20"/>
-      <c r="CA24" s="14"/>
-    </row>
-    <row r="25" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+    </row>
+    <row r="25" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A25" s="9"/>
       <c r="B25" s="25" t="s">
         <v>27</v>
@@ -4183,12 +4437,13 @@
       <c r="BU25" s="25"/>
       <c r="BV25" s="25"/>
       <c r="BW25" s="25"/>
-      <c r="BX25" s="27"/>
-      <c r="BY25" s="25"/>
+      <c r="BX25" s="25"/>
+      <c r="BY25" s="27"/>
       <c r="BZ25" s="25"/>
-      <c r="CA25" s="9"/>
-    </row>
-    <row r="26" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA25" s="25"/>
+      <c r="CB25" s="25"/>
+    </row>
+    <row r="26" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A26" s="9"/>
       <c r="B26" s="64" t="s">
         <v>28</v>
@@ -4268,12 +4523,13 @@
       <c r="BU26" s="25"/>
       <c r="BV26" s="25"/>
       <c r="BW26" s="25"/>
-      <c r="BX26" s="27"/>
-      <c r="BY26" s="25"/>
+      <c r="BX26" s="25"/>
+      <c r="BY26" s="27"/>
       <c r="BZ26" s="25"/>
-      <c r="CA26" s="9"/>
-    </row>
-    <row r="27" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA26" s="25"/>
+      <c r="CB26" s="25"/>
+    </row>
+    <row r="27" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A27" s="9"/>
       <c r="B27" s="64" t="s">
         <v>30</v>
@@ -4353,12 +4609,13 @@
       <c r="BU27" s="25"/>
       <c r="BV27" s="25"/>
       <c r="BW27" s="25"/>
-      <c r="BX27" s="27"/>
-      <c r="BY27" s="25"/>
+      <c r="BX27" s="25"/>
+      <c r="BY27" s="27"/>
       <c r="BZ27" s="25"/>
-      <c r="CA27" s="9"/>
-    </row>
-    <row r="28" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA27" s="25"/>
+      <c r="CB27" s="25"/>
+    </row>
+    <row r="28" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A28" s="9"/>
       <c r="B28" s="25" t="s">
         <v>29</v>
@@ -4438,17 +4695,20 @@
       <c r="BU28" s="25"/>
       <c r="BV28" s="25"/>
       <c r="BW28" s="25"/>
-      <c r="BX28" s="27"/>
-      <c r="BY28" s="25"/>
+      <c r="BX28" s="25"/>
+      <c r="BY28" s="27"/>
       <c r="BZ28" s="25"/>
-      <c r="CA28" s="9"/>
-    </row>
-    <row r="29" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA28" s="25"/>
+      <c r="CB28" s="25"/>
+    </row>
+    <row r="29" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A29" s="9"/>
       <c r="B29" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26">
+        <v>2</v>
+      </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -4510,8 +4770,8 @@
       <c r="BJ29" s="25"/>
       <c r="BK29" s="25"/>
       <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="25"/>
+      <c r="BM29" s="72"/>
+      <c r="BN29" s="72"/>
       <c r="BO29" s="25"/>
       <c r="BP29" s="25"/>
       <c r="BQ29" s="25"/>
@@ -4521,12 +4781,13 @@
       <c r="BU29" s="25"/>
       <c r="BV29" s="25"/>
       <c r="BW29" s="25"/>
-      <c r="BX29" s="27"/>
-      <c r="BY29" s="25"/>
+      <c r="BX29" s="25"/>
+      <c r="BY29" s="27"/>
       <c r="BZ29" s="25"/>
-      <c r="CA29" s="9"/>
-    </row>
-    <row r="30" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA29" s="25"/>
+      <c r="CB29" s="25"/>
+    </row>
+    <row r="30" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="9"/>
       <c r="B30" s="65" t="s">
         <v>32</v>
@@ -4545,7 +4806,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
+      <c r="Q30" s="73"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -4604,12 +4865,13 @@
       <c r="BU30" s="25"/>
       <c r="BV30" s="25"/>
       <c r="BW30" s="25"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="25"/>
+      <c r="BX30" s="25"/>
+      <c r="BY30" s="27"/>
       <c r="BZ30" s="25"/>
-      <c r="CA30" s="9"/>
-    </row>
-    <row r="31" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA30" s="25"/>
+      <c r="CB30" s="25"/>
+    </row>
+    <row r="31" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A31" s="9"/>
       <c r="B31" s="25" t="s">
         <v>33</v>
@@ -4630,7 +4892,7 @@
       <c r="N31" s="72"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
+      <c r="Q31" s="72"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -4689,17 +4951,20 @@
       <c r="BU31" s="25"/>
       <c r="BV31" s="25"/>
       <c r="BW31" s="25"/>
-      <c r="BX31" s="27"/>
-      <c r="BY31" s="25"/>
+      <c r="BX31" s="25"/>
+      <c r="BY31" s="27"/>
       <c r="BZ31" s="25"/>
-      <c r="CA31" s="9"/>
-    </row>
-    <row r="32" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA31" s="25"/>
+      <c r="CB31" s="25"/>
+    </row>
+    <row r="32" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A32" s="9"/>
       <c r="B32" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="26">
+        <v>3</v>
+      </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -4758,9 +5023,9 @@
       <c r="BG32" s="25"/>
       <c r="BH32" s="25"/>
       <c r="BI32" s="25"/>
-      <c r="BJ32" s="25"/>
-      <c r="BK32" s="25"/>
-      <c r="BL32" s="25"/>
+      <c r="BJ32" s="72"/>
+      <c r="BK32" s="72"/>
+      <c r="BL32" s="72"/>
       <c r="BM32" s="25"/>
       <c r="BN32" s="25"/>
       <c r="BO32" s="25"/>
@@ -4772,17 +5037,20 @@
       <c r="BU32" s="25"/>
       <c r="BV32" s="25"/>
       <c r="BW32" s="25"/>
-      <c r="BX32" s="27"/>
-      <c r="BY32" s="25"/>
+      <c r="BX32" s="25"/>
+      <c r="BY32" s="27"/>
       <c r="BZ32" s="25"/>
-      <c r="CA32" s="9"/>
-    </row>
-    <row r="33" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA32" s="25"/>
+      <c r="CB32" s="25"/>
+    </row>
+    <row r="33" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A33" s="9"/>
       <c r="B33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="26">
+        <v>3</v>
+      </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -4841,9 +5109,9 @@
       <c r="BG33" s="25"/>
       <c r="BH33" s="25"/>
       <c r="BI33" s="25"/>
-      <c r="BJ33" s="25"/>
-      <c r="BK33" s="25"/>
-      <c r="BL33" s="25"/>
+      <c r="BJ33" s="72"/>
+      <c r="BK33" s="72"/>
+      <c r="BL33" s="72"/>
       <c r="BM33" s="25"/>
       <c r="BN33" s="25"/>
       <c r="BO33" s="25"/>
@@ -4855,12 +5123,13 @@
       <c r="BU33" s="25"/>
       <c r="BV33" s="25"/>
       <c r="BW33" s="25"/>
-      <c r="BX33" s="27"/>
-      <c r="BY33" s="25"/>
+      <c r="BX33" s="25"/>
+      <c r="BY33" s="27"/>
       <c r="BZ33" s="25"/>
-      <c r="CA33" s="9"/>
-    </row>
-    <row r="34" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA33" s="25"/>
+      <c r="CB33" s="25"/>
+    </row>
+    <row r="34" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="9"/>
       <c r="B34" s="25" t="s">
         <v>17</v>
@@ -4924,8 +5193,8 @@
       <c r="BE34" s="25"/>
       <c r="BF34" s="25"/>
       <c r="BG34" s="25"/>
-      <c r="BH34" s="25"/>
-      <c r="BI34" s="25"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
       <c r="BJ34" s="25"/>
       <c r="BK34" s="25"/>
       <c r="BL34" s="25"/>
@@ -4940,17 +5209,20 @@
       <c r="BU34" s="25"/>
       <c r="BV34" s="25"/>
       <c r="BW34" s="25"/>
-      <c r="BX34" s="27"/>
-      <c r="BY34" s="25"/>
+      <c r="BX34" s="25"/>
+      <c r="BY34" s="27"/>
       <c r="BZ34" s="25"/>
-      <c r="CA34" s="9"/>
-    </row>
-    <row r="35" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA34" s="25"/>
+      <c r="CB34" s="25"/>
+    </row>
+    <row r="35" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="9"/>
       <c r="B35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="26">
+        <v>2</v>
+      </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
@@ -5007,8 +5279,8 @@
       <c r="BE35" s="25"/>
       <c r="BF35" s="25"/>
       <c r="BG35" s="25"/>
-      <c r="BH35" s="25"/>
-      <c r="BI35" s="25"/>
+      <c r="BH35" s="72"/>
+      <c r="BI35" s="72"/>
       <c r="BJ35" s="25"/>
       <c r="BK35" s="25"/>
       <c r="BL35" s="25"/>
@@ -5023,17 +5295,20 @@
       <c r="BU35" s="25"/>
       <c r="BV35" s="25"/>
       <c r="BW35" s="25"/>
-      <c r="BX35" s="27"/>
-      <c r="BY35" s="25"/>
+      <c r="BX35" s="25"/>
+      <c r="BY35" s="27"/>
       <c r="BZ35" s="25"/>
-      <c r="CA35" s="9"/>
-    </row>
-    <row r="36" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA35" s="25"/>
+      <c r="CB35" s="25"/>
+    </row>
+    <row r="36" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A36" s="9"/>
       <c r="B36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="26">
+        <v>1</v>
+      </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
@@ -5103,15 +5378,16 @@
       <c r="BR36" s="25"/>
       <c r="BS36" s="25"/>
       <c r="BT36" s="25"/>
-      <c r="BU36" s="25"/>
+      <c r="BU36" s="72"/>
       <c r="BV36" s="25"/>
       <c r="BW36" s="25"/>
-      <c r="BX36" s="27"/>
-      <c r="BY36" s="25"/>
+      <c r="BX36" s="25"/>
+      <c r="BY36" s="27"/>
       <c r="BZ36" s="25"/>
-      <c r="CA36" s="9"/>
-    </row>
-    <row r="37" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA36" s="25"/>
+      <c r="CB36" s="25"/>
+    </row>
+    <row r="37" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A37" s="9"/>
       <c r="B37" s="25" t="s">
         <v>38</v>
@@ -5191,12 +5467,13 @@
       <c r="BU37" s="25"/>
       <c r="BV37" s="25"/>
       <c r="BW37" s="25"/>
-      <c r="BX37" s="27"/>
-      <c r="BY37" s="25"/>
+      <c r="BX37" s="25"/>
+      <c r="BY37" s="27"/>
       <c r="BZ37" s="25"/>
-      <c r="CA37" s="9"/>
-    </row>
-    <row r="38" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="CA37" s="25"/>
+      <c r="CB37" s="25"/>
+    </row>
+    <row r="38" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="43"/>
       <c r="B38" s="58" t="s">
         <v>39</v>
@@ -5277,9 +5554,10 @@
       <c r="BX38" s="45"/>
       <c r="BY38" s="45"/>
       <c r="BZ38" s="45"/>
-      <c r="CA38" s="43"/>
-    </row>
-    <row r="39" spans="1:79" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA38" s="45"/>
+      <c r="CB38" s="45"/>
+    </row>
+    <row r="39" spans="1:80" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A39" s="9"/>
       <c r="B39" s="64" t="s">
         <v>81</v>
@@ -5359,12 +5637,13 @@
       <c r="BU39" s="25"/>
       <c r="BV39" s="25"/>
       <c r="BW39" s="25"/>
-      <c r="BX39" s="27"/>
-      <c r="BY39" s="25"/>
+      <c r="BX39" s="25"/>
+      <c r="BY39" s="27"/>
       <c r="BZ39" s="25"/>
-      <c r="CA39" s="9"/>
-    </row>
-    <row r="40" spans="1:79" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA39" s="25"/>
+      <c r="CB39" s="25"/>
+    </row>
+    <row r="40" spans="1:80" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A40" s="9"/>
       <c r="B40" s="64" t="s">
         <v>80</v>
@@ -5444,12 +5723,13 @@
       <c r="BU40" s="25"/>
       <c r="BV40" s="25"/>
       <c r="BW40" s="25"/>
-      <c r="BX40" s="27"/>
-      <c r="BY40" s="25"/>
+      <c r="BX40" s="25"/>
+      <c r="BY40" s="27"/>
       <c r="BZ40" s="25"/>
-      <c r="CA40" s="9"/>
-    </row>
-    <row r="41" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA40" s="25"/>
+      <c r="CB40" s="25"/>
+    </row>
+    <row r="41" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A41" s="9"/>
       <c r="B41" s="64" t="s">
         <v>40</v>
@@ -5529,12 +5809,13 @@
       <c r="BU41" s="25"/>
       <c r="BV41" s="25"/>
       <c r="BW41" s="25"/>
-      <c r="BX41" s="27"/>
-      <c r="BY41" s="25"/>
+      <c r="BX41" s="25"/>
+      <c r="BY41" s="27"/>
       <c r="BZ41" s="25"/>
-      <c r="CA41" s="9"/>
-    </row>
-    <row r="42" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA41" s="25"/>
+      <c r="CB41" s="25"/>
+    </row>
+    <row r="42" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A42" s="9"/>
       <c r="B42" s="66" t="s">
         <v>50</v>
@@ -5612,12 +5893,13 @@
       <c r="BU42" s="25"/>
       <c r="BV42" s="25"/>
       <c r="BW42" s="25"/>
-      <c r="BX42" s="27"/>
-      <c r="BY42" s="25"/>
+      <c r="BX42" s="25"/>
+      <c r="BY42" s="27"/>
       <c r="BZ42" s="25"/>
-      <c r="CA42" s="9"/>
-    </row>
-    <row r="43" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA42" s="25"/>
+      <c r="CB42" s="25"/>
+    </row>
+    <row r="43" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A43" s="9"/>
       <c r="B43" s="64" t="s">
         <v>51</v>
@@ -5697,12 +5979,13 @@
       <c r="BU43" s="25"/>
       <c r="BV43" s="25"/>
       <c r="BW43" s="25"/>
-      <c r="BX43" s="27"/>
-      <c r="BY43" s="25"/>
+      <c r="BX43" s="25"/>
+      <c r="BY43" s="27"/>
       <c r="BZ43" s="25"/>
-      <c r="CA43" s="9"/>
-    </row>
-    <row r="44" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA43" s="25"/>
+      <c r="CB43" s="25"/>
+    </row>
+    <row r="44" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A44" s="9"/>
       <c r="B44" s="64" t="s">
         <v>52</v>
@@ -5782,12 +6065,13 @@
       <c r="BU44" s="25"/>
       <c r="BV44" s="25"/>
       <c r="BW44" s="25"/>
-      <c r="BX44" s="27"/>
-      <c r="BY44" s="25"/>
+      <c r="BX44" s="25"/>
+      <c r="BY44" s="27"/>
       <c r="BZ44" s="25"/>
-      <c r="CA44" s="9"/>
-    </row>
-    <row r="45" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA44" s="25"/>
+      <c r="CB44" s="25"/>
+    </row>
+    <row r="45" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="9"/>
       <c r="B45" s="65" t="s">
         <v>19</v>
@@ -5865,12 +6149,13 @@
       <c r="BU45" s="25"/>
       <c r="BV45" s="25"/>
       <c r="BW45" s="25"/>
-      <c r="BX45" s="27"/>
-      <c r="BY45" s="25"/>
+      <c r="BX45" s="25"/>
+      <c r="BY45" s="27"/>
       <c r="BZ45" s="25"/>
-      <c r="CA45" s="9"/>
-    </row>
-    <row r="46" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA45" s="25"/>
+      <c r="CB45" s="25"/>
+    </row>
+    <row r="46" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A46" s="9"/>
       <c r="B46" s="66" t="s">
         <v>41</v>
@@ -5948,12 +6233,13 @@
       <c r="BU46" s="25"/>
       <c r="BV46" s="25"/>
       <c r="BW46" s="25"/>
-      <c r="BX46" s="27"/>
-      <c r="BY46" s="25"/>
+      <c r="BX46" s="25"/>
+      <c r="BY46" s="27"/>
       <c r="BZ46" s="25"/>
-      <c r="CA46" s="9"/>
-    </row>
-    <row r="47" spans="1:79" ht="17.25" customHeight="1" outlineLevel="3">
+      <c r="CA46" s="25"/>
+      <c r="CB46" s="25"/>
+    </row>
+    <row r="47" spans="1:80" ht="17.25" customHeight="1" outlineLevel="3">
       <c r="A47" s="9"/>
       <c r="B47" s="25" t="s">
         <v>42</v>
@@ -6033,12 +6319,13 @@
       <c r="BU47" s="25"/>
       <c r="BV47" s="25"/>
       <c r="BW47" s="25"/>
-      <c r="BX47" s="27"/>
-      <c r="BY47" s="25"/>
+      <c r="BX47" s="25"/>
+      <c r="BY47" s="27"/>
       <c r="BZ47" s="25"/>
-      <c r="CA47" s="9"/>
-    </row>
-    <row r="48" spans="1:79" ht="17.25" customHeight="1" outlineLevel="3">
+      <c r="CA47" s="25"/>
+      <c r="CB47" s="25"/>
+    </row>
+    <row r="48" spans="1:80" ht="17.25" customHeight="1" outlineLevel="3">
       <c r="A48" s="9"/>
       <c r="B48" s="25" t="s">
         <v>43</v>
@@ -6118,12 +6405,13 @@
       <c r="BU48" s="25"/>
       <c r="BV48" s="25"/>
       <c r="BW48" s="25"/>
-      <c r="BX48" s="27"/>
-      <c r="BY48" s="25"/>
+      <c r="BX48" s="25"/>
+      <c r="BY48" s="27"/>
       <c r="BZ48" s="25"/>
-      <c r="CA48" s="9"/>
-    </row>
-    <row r="49" spans="1:79" ht="17.25" customHeight="1" outlineLevel="3">
+      <c r="CA48" s="25"/>
+      <c r="CB48" s="25"/>
+    </row>
+    <row r="49" spans="1:80" ht="17.25" customHeight="1" outlineLevel="3">
       <c r="A49" s="9"/>
       <c r="B49" s="25" t="s">
         <v>44</v>
@@ -6203,12 +6491,13 @@
       <c r="BU49" s="25"/>
       <c r="BV49" s="25"/>
       <c r="BW49" s="25"/>
-      <c r="BX49" s="27"/>
-      <c r="BY49" s="25"/>
+      <c r="BX49" s="25"/>
+      <c r="BY49" s="27"/>
       <c r="BZ49" s="25"/>
-      <c r="CA49" s="9"/>
-    </row>
-    <row r="50" spans="1:79" ht="17.25" customHeight="1" outlineLevel="3">
+      <c r="CA49" s="25"/>
+      <c r="CB49" s="25"/>
+    </row>
+    <row r="50" spans="1:80" ht="17.25" customHeight="1" outlineLevel="3">
       <c r="A50" s="9"/>
       <c r="B50" s="25" t="s">
         <v>45</v>
@@ -6288,12 +6577,13 @@
       <c r="BU50" s="25"/>
       <c r="BV50" s="25"/>
       <c r="BW50" s="25"/>
-      <c r="BX50" s="27"/>
-      <c r="BY50" s="25"/>
+      <c r="BX50" s="25"/>
+      <c r="BY50" s="27"/>
       <c r="BZ50" s="25"/>
-      <c r="CA50" s="9"/>
-    </row>
-    <row r="51" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA50" s="25"/>
+      <c r="CB50" s="25"/>
+    </row>
+    <row r="51" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A51" s="9"/>
       <c r="B51" s="65" t="s">
         <v>46</v>
@@ -6371,12 +6661,13 @@
       <c r="BU51" s="25"/>
       <c r="BV51" s="25"/>
       <c r="BW51" s="25"/>
-      <c r="BX51" s="27"/>
-      <c r="BY51" s="25"/>
+      <c r="BX51" s="25"/>
+      <c r="BY51" s="27"/>
       <c r="BZ51" s="25"/>
-      <c r="CA51" s="9"/>
-    </row>
-    <row r="52" spans="1:79" ht="17.25" customHeight="1" outlineLevel="3">
+      <c r="CA51" s="25"/>
+      <c r="CB51" s="25"/>
+    </row>
+    <row r="52" spans="1:80" ht="17.25" customHeight="1" outlineLevel="3">
       <c r="A52" s="9"/>
       <c r="B52" s="25" t="s">
         <v>47</v>
@@ -6456,12 +6747,13 @@
       <c r="BU52" s="25"/>
       <c r="BV52" s="25"/>
       <c r="BW52" s="25"/>
-      <c r="BX52" s="27"/>
-      <c r="BY52" s="25"/>
+      <c r="BX52" s="25"/>
+      <c r="BY52" s="27"/>
       <c r="BZ52" s="25"/>
-      <c r="CA52" s="9"/>
-    </row>
-    <row r="53" spans="1:79" ht="17.25" customHeight="1" outlineLevel="3">
+      <c r="CA52" s="25"/>
+      <c r="CB52" s="25"/>
+    </row>
+    <row r="53" spans="1:80" ht="17.25" customHeight="1" outlineLevel="3">
       <c r="A53" s="9"/>
       <c r="B53" s="64" t="s">
         <v>48</v>
@@ -6541,12 +6833,13 @@
       <c r="BU53" s="25"/>
       <c r="BV53" s="25"/>
       <c r="BW53" s="25"/>
-      <c r="BX53" s="27"/>
-      <c r="BY53" s="25"/>
+      <c r="BX53" s="25"/>
+      <c r="BY53" s="27"/>
       <c r="BZ53" s="25"/>
-      <c r="CA53" s="9"/>
-    </row>
-    <row r="54" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA53" s="25"/>
+      <c r="CB53" s="25"/>
+    </row>
+    <row r="54" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A54" s="9"/>
       <c r="B54" s="65" t="s">
         <v>49</v>
@@ -6626,12 +6919,13 @@
       <c r="BU54" s="25"/>
       <c r="BV54" s="25"/>
       <c r="BW54" s="25"/>
-      <c r="BX54" s="27"/>
-      <c r="BY54" s="25"/>
+      <c r="BX54" s="25"/>
+      <c r="BY54" s="27"/>
       <c r="BZ54" s="25"/>
-      <c r="CA54" s="9"/>
-    </row>
-    <row r="55" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA54" s="25"/>
+      <c r="CB54" s="25"/>
+    </row>
+    <row r="55" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="9"/>
       <c r="B55" s="25" t="s">
         <v>55</v>
@@ -6711,12 +7005,13 @@
       <c r="BU55" s="25"/>
       <c r="BV55" s="25"/>
       <c r="BW55" s="25"/>
-      <c r="BX55" s="27"/>
-      <c r="BY55" s="25"/>
+      <c r="BX55" s="25"/>
+      <c r="BY55" s="27"/>
       <c r="BZ55" s="25"/>
-      <c r="CA55" s="9"/>
-    </row>
-    <row r="56" spans="1:79" ht="16.8" customHeight="1" outlineLevel="1">
+      <c r="CA55" s="25"/>
+      <c r="CB55" s="25"/>
+    </row>
+    <row r="56" spans="1:80" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A56" s="9"/>
       <c r="B56" s="65" t="s">
         <v>61</v>
@@ -6796,12 +7091,13 @@
       <c r="BU56" s="25"/>
       <c r="BV56" s="25"/>
       <c r="BW56" s="25"/>
-      <c r="BX56" s="27"/>
-      <c r="BY56" s="25"/>
+      <c r="BX56" s="25"/>
+      <c r="BY56" s="27"/>
       <c r="BZ56" s="25"/>
-      <c r="CA56" s="9"/>
-    </row>
-    <row r="57" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA56" s="25"/>
+      <c r="CB56" s="25"/>
+    </row>
+    <row r="57" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A57" s="9"/>
       <c r="B57" s="64" t="s">
         <v>53</v>
@@ -6881,12 +7177,13 @@
       <c r="BU57" s="25"/>
       <c r="BV57" s="25"/>
       <c r="BW57" s="25"/>
-      <c r="BX57" s="27"/>
-      <c r="BY57" s="25"/>
+      <c r="BX57" s="25"/>
+      <c r="BY57" s="27"/>
       <c r="BZ57" s="25"/>
-      <c r="CA57" s="9"/>
-    </row>
-    <row r="58" spans="1:79" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="CA57" s="25"/>
+      <c r="CB57" s="25"/>
+    </row>
+    <row r="58" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A58" s="9"/>
       <c r="B58" s="25" t="s">
         <v>54</v>
@@ -6964,12 +7261,13 @@
       <c r="BU58" s="25"/>
       <c r="BV58" s="25"/>
       <c r="BW58" s="25"/>
-      <c r="BX58" s="27"/>
-      <c r="BY58" s="25"/>
+      <c r="BX58" s="25"/>
+      <c r="BY58" s="27"/>
       <c r="BZ58" s="25"/>
-      <c r="CA58" s="9"/>
-    </row>
-    <row r="59" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA58" s="25"/>
+      <c r="CB58" s="25"/>
+    </row>
+    <row r="59" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A59" s="9"/>
       <c r="B59" s="25" t="s">
         <v>38</v>
@@ -7049,17 +7347,20 @@
       <c r="BU59" s="25"/>
       <c r="BV59" s="25"/>
       <c r="BW59" s="25"/>
-      <c r="BX59" s="27"/>
-      <c r="BY59" s="25"/>
+      <c r="BX59" s="25"/>
+      <c r="BY59" s="27"/>
       <c r="BZ59" s="25"/>
-      <c r="CA59" s="9"/>
-    </row>
-    <row r="60" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA59" s="25"/>
+      <c r="CB59" s="25"/>
+    </row>
+    <row r="60" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A60" s="9"/>
       <c r="B60" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="26">
+        <v>1</v>
+      </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
@@ -7130,14 +7431,15 @@
       <c r="BS60" s="25"/>
       <c r="BT60" s="25"/>
       <c r="BU60" s="25"/>
-      <c r="BV60" s="25"/>
+      <c r="BV60" s="72"/>
       <c r="BW60" s="25"/>
-      <c r="BX60" s="27"/>
-      <c r="BY60" s="25"/>
+      <c r="BX60" s="25"/>
+      <c r="BY60" s="27"/>
       <c r="BZ60" s="25"/>
-      <c r="CA60" s="9"/>
-    </row>
-    <row r="61" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="CA60" s="25"/>
+      <c r="CB60" s="25"/>
+    </row>
+    <row r="61" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A61" s="43"/>
       <c r="B61" s="58" t="s">
         <v>56</v>
@@ -7218,9 +7520,10 @@
       <c r="BX61" s="45"/>
       <c r="BY61" s="45"/>
       <c r="BZ61" s="45"/>
-      <c r="CA61" s="43"/>
-    </row>
-    <row r="62" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA61" s="45"/>
+      <c r="CB61" s="45"/>
+    </row>
+    <row r="62" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A62" s="9"/>
       <c r="B62" s="64" t="s">
         <v>81</v>
@@ -7300,12 +7603,13 @@
       <c r="BU62" s="25"/>
       <c r="BV62" s="25"/>
       <c r="BW62" s="25"/>
-      <c r="BX62" s="27"/>
-      <c r="BY62" s="25"/>
+      <c r="BX62" s="25"/>
+      <c r="BY62" s="27"/>
       <c r="BZ62" s="25"/>
-      <c r="CA62" s="9"/>
-    </row>
-    <row r="63" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1" collapsed="1">
+      <c r="CA62" s="25"/>
+      <c r="CB62" s="25"/>
+    </row>
+    <row r="63" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="43"/>
       <c r="B63" s="58" t="s">
         <v>57</v>
@@ -7386,14 +7690,17 @@
       <c r="BX63" s="45"/>
       <c r="BY63" s="45"/>
       <c r="BZ63" s="45"/>
-      <c r="CA63" s="43"/>
-    </row>
-    <row r="64" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA63" s="45"/>
+      <c r="CB63" s="45"/>
+    </row>
+    <row r="64" spans="1:80" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A64" s="9"/>
-      <c r="B64" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="26"/>
+      <c r="B64" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="26">
+        <v>3</v>
+      </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -7457,26 +7764,29 @@
       <c r="BL64" s="25"/>
       <c r="BM64" s="25"/>
       <c r="BN64" s="25"/>
-      <c r="BO64" s="25"/>
-      <c r="BP64" s="25"/>
-      <c r="BQ64" s="25"/>
+      <c r="BO64" s="72"/>
+      <c r="BP64" s="72"/>
+      <c r="BQ64" s="72"/>
       <c r="BR64" s="25"/>
       <c r="BS64" s="25"/>
       <c r="BT64" s="25"/>
       <c r="BU64" s="25"/>
       <c r="BV64" s="25"/>
       <c r="BW64" s="25"/>
-      <c r="BX64" s="27"/>
-      <c r="BY64" s="25"/>
+      <c r="BX64" s="25"/>
+      <c r="BY64" s="27"/>
       <c r="BZ64" s="25"/>
-      <c r="CA64" s="9"/>
-    </row>
-    <row r="65" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA64" s="25"/>
+      <c r="CB64" s="25"/>
+    </row>
+    <row r="65" spans="1:80" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A65" s="9"/>
-      <c r="B65" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="26"/>
+      <c r="B65" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="26">
+        <v>2</v>
+      </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -7543,21 +7853,22 @@
       <c r="BO65" s="25"/>
       <c r="BP65" s="25"/>
       <c r="BQ65" s="25"/>
-      <c r="BR65" s="25"/>
-      <c r="BS65" s="25"/>
-      <c r="BT65" s="25"/>
+      <c r="BR65" s="72"/>
+      <c r="BS65" s="72"/>
+      <c r="BT65" s="73"/>
       <c r="BU65" s="25"/>
       <c r="BV65" s="25"/>
       <c r="BW65" s="25"/>
-      <c r="BX65" s="27"/>
-      <c r="BY65" s="25"/>
+      <c r="BX65" s="25"/>
+      <c r="BY65" s="27"/>
       <c r="BZ65" s="25"/>
-      <c r="CA65" s="9"/>
-    </row>
-    <row r="66" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA65" s="25"/>
+      <c r="CB65" s="73"/>
+    </row>
+    <row r="66" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A66" s="9"/>
       <c r="B66" s="25" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="25"/>
@@ -7628,19 +7939,20 @@
       <c r="BQ66" s="25"/>
       <c r="BR66" s="25"/>
       <c r="BS66" s="25"/>
-      <c r="BT66" s="25"/>
+      <c r="BT66" s="72"/>
       <c r="BU66" s="25"/>
       <c r="BV66" s="25"/>
       <c r="BW66" s="25"/>
-      <c r="BX66" s="27"/>
-      <c r="BY66" s="25"/>
+      <c r="BX66" s="25"/>
+      <c r="BY66" s="27"/>
       <c r="BZ66" s="25"/>
-      <c r="CA66" s="9"/>
-    </row>
-    <row r="67" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA66" s="25"/>
+      <c r="CB66" s="73"/>
+    </row>
+    <row r="67" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A67" s="9"/>
-      <c r="B67" s="25" t="s">
-        <v>16</v>
+      <c r="B67" s="65" t="s">
+        <v>18</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="25"/>
@@ -7715,15 +8027,16 @@
       <c r="BU67" s="25"/>
       <c r="BV67" s="25"/>
       <c r="BW67" s="25"/>
-      <c r="BX67" s="27"/>
-      <c r="BY67" s="25"/>
+      <c r="BX67" s="25"/>
+      <c r="BY67" s="27"/>
       <c r="BZ67" s="25"/>
-      <c r="CA67" s="9"/>
-    </row>
-    <row r="68" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA67" s="25"/>
+      <c r="CB67" s="73"/>
+    </row>
+    <row r="68" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A68" s="9"/>
-      <c r="B68" s="65" t="s">
-        <v>19</v>
+      <c r="B68" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="25"/>
@@ -7794,19 +8107,20 @@
       <c r="BQ68" s="25"/>
       <c r="BR68" s="25"/>
       <c r="BS68" s="25"/>
-      <c r="BT68" s="25"/>
+      <c r="BT68" s="72"/>
       <c r="BU68" s="25"/>
       <c r="BV68" s="25"/>
       <c r="BW68" s="25"/>
-      <c r="BX68" s="27"/>
-      <c r="BY68" s="25"/>
+      <c r="BX68" s="25"/>
+      <c r="BY68" s="27"/>
       <c r="BZ68" s="25"/>
-      <c r="CA68" s="9"/>
-    </row>
-    <row r="69" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA68" s="25"/>
+      <c r="CB68" s="73"/>
+    </row>
+    <row r="69" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A69" s="9"/>
-      <c r="B69" s="64" t="s">
-        <v>58</v>
+      <c r="B69" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="25"/>
@@ -7877,19 +8191,20 @@
       <c r="BQ69" s="25"/>
       <c r="BR69" s="25"/>
       <c r="BS69" s="25"/>
-      <c r="BT69" s="25"/>
+      <c r="BT69" s="72"/>
       <c r="BU69" s="25"/>
       <c r="BV69" s="25"/>
       <c r="BW69" s="25"/>
-      <c r="BX69" s="27"/>
-      <c r="BY69" s="25"/>
+      <c r="BX69" s="25"/>
+      <c r="BY69" s="27"/>
       <c r="BZ69" s="25"/>
-      <c r="CA69" s="9"/>
-    </row>
-    <row r="70" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA69" s="25"/>
+      <c r="CB69" s="73"/>
+    </row>
+    <row r="70" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A70" s="9"/>
-      <c r="B70" s="25" t="s">
-        <v>59</v>
+      <c r="B70" s="65" t="s">
+        <v>19</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="25"/>
@@ -7964,15 +8279,16 @@
       <c r="BU70" s="25"/>
       <c r="BV70" s="25"/>
       <c r="BW70" s="25"/>
-      <c r="BX70" s="27"/>
-      <c r="BY70" s="25"/>
+      <c r="BX70" s="25"/>
+      <c r="BY70" s="27"/>
       <c r="BZ70" s="25"/>
-      <c r="CA70" s="9"/>
-    </row>
-    <row r="71" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA70" s="25"/>
+      <c r="CB70" s="73"/>
+    </row>
+    <row r="71" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A71" s="9"/>
       <c r="B71" s="64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="25"/>
@@ -8043,19 +8359,20 @@
       <c r="BQ71" s="25"/>
       <c r="BR71" s="25"/>
       <c r="BS71" s="25"/>
-      <c r="BT71" s="25"/>
+      <c r="BT71" s="72"/>
       <c r="BU71" s="25"/>
       <c r="BV71" s="25"/>
       <c r="BW71" s="25"/>
-      <c r="BX71" s="27"/>
-      <c r="BY71" s="25"/>
+      <c r="BX71" s="25"/>
+      <c r="BY71" s="27"/>
       <c r="BZ71" s="25"/>
-      <c r="CA71" s="9"/>
-    </row>
-    <row r="72" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA71" s="25"/>
+      <c r="CB71" s="73"/>
+    </row>
+    <row r="72" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A72" s="9"/>
       <c r="B72" s="25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="25"/>
@@ -8126,19 +8443,20 @@
       <c r="BQ72" s="25"/>
       <c r="BR72" s="25"/>
       <c r="BS72" s="25"/>
-      <c r="BT72" s="25"/>
+      <c r="BT72" s="72"/>
       <c r="BU72" s="25"/>
       <c r="BV72" s="25"/>
       <c r="BW72" s="25"/>
-      <c r="BX72" s="27"/>
-      <c r="BY72" s="25"/>
+      <c r="BX72" s="25"/>
+      <c r="BY72" s="27"/>
       <c r="BZ72" s="25"/>
-      <c r="CA72" s="9"/>
-    </row>
-    <row r="73" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA72" s="25"/>
+      <c r="CB72" s="73"/>
+    </row>
+    <row r="73" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A73" s="9"/>
-      <c r="B73" s="65" t="s">
-        <v>61</v>
+      <c r="B73" s="64" t="s">
+        <v>60</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="25"/>
@@ -8209,19 +8527,20 @@
       <c r="BQ73" s="25"/>
       <c r="BR73" s="25"/>
       <c r="BS73" s="25"/>
-      <c r="BT73" s="25"/>
+      <c r="BT73" s="72"/>
       <c r="BU73" s="25"/>
       <c r="BV73" s="25"/>
       <c r="BW73" s="25"/>
-      <c r="BX73" s="27"/>
-      <c r="BY73" s="25"/>
+      <c r="BX73" s="25"/>
+      <c r="BY73" s="27"/>
       <c r="BZ73" s="25"/>
-      <c r="CA73" s="9"/>
-    </row>
-    <row r="74" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA73" s="25"/>
+      <c r="CB73" s="73"/>
+    </row>
+    <row r="74" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A74" s="9"/>
       <c r="B74" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="25"/>
@@ -8292,19 +8611,20 @@
       <c r="BQ74" s="25"/>
       <c r="BR74" s="25"/>
       <c r="BS74" s="25"/>
-      <c r="BT74" s="25"/>
+      <c r="BT74" s="72"/>
       <c r="BU74" s="25"/>
       <c r="BV74" s="25"/>
       <c r="BW74" s="25"/>
-      <c r="BX74" s="27"/>
-      <c r="BY74" s="25"/>
+      <c r="BX74" s="25"/>
+      <c r="BY74" s="27"/>
       <c r="BZ74" s="25"/>
-      <c r="CA74" s="9"/>
-    </row>
-    <row r="75" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="CA74" s="25"/>
+      <c r="CB74" s="73"/>
+    </row>
+    <row r="75" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A75" s="9"/>
-      <c r="B75" s="25" t="s">
-        <v>54</v>
+      <c r="B75" s="65" t="s">
+        <v>61</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="25"/>
@@ -8379,15 +8699,16 @@
       <c r="BU75" s="25"/>
       <c r="BV75" s="25"/>
       <c r="BW75" s="25"/>
-      <c r="BX75" s="27"/>
-      <c r="BY75" s="25"/>
+      <c r="BX75" s="25"/>
+      <c r="BY75" s="27"/>
       <c r="BZ75" s="25"/>
-      <c r="CA75" s="9"/>
-    </row>
-    <row r="76" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA75" s="25"/>
+      <c r="CB75" s="73"/>
+    </row>
+    <row r="76" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A76" s="9"/>
       <c r="B76" s="25" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="25"/>
@@ -8458,19 +8779,20 @@
       <c r="BQ76" s="25"/>
       <c r="BR76" s="25"/>
       <c r="BS76" s="25"/>
-      <c r="BT76" s="25"/>
+      <c r="BT76" s="72"/>
       <c r="BU76" s="25"/>
       <c r="BV76" s="25"/>
       <c r="BW76" s="25"/>
-      <c r="BX76" s="27"/>
-      <c r="BY76" s="25"/>
+      <c r="BX76" s="25"/>
+      <c r="BY76" s="27"/>
       <c r="BZ76" s="25"/>
-      <c r="CA76" s="9"/>
-    </row>
-    <row r="77" spans="1:79" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="CA76" s="25"/>
+      <c r="CB76" s="73"/>
+    </row>
+    <row r="77" spans="1:80" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A77" s="9"/>
       <c r="B77" s="25" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="25"/>
@@ -8541,104 +8863,108 @@
       <c r="BQ77" s="25"/>
       <c r="BR77" s="25"/>
       <c r="BS77" s="25"/>
-      <c r="BT77" s="25"/>
+      <c r="BT77" s="72"/>
       <c r="BU77" s="25"/>
       <c r="BV77" s="25"/>
       <c r="BW77" s="25"/>
-      <c r="BX77" s="27"/>
-      <c r="BY77" s="25"/>
+      <c r="BX77" s="25"/>
+      <c r="BY77" s="27"/>
       <c r="BZ77" s="25"/>
-      <c r="CA77" s="9"/>
-    </row>
-    <row r="78" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="45"/>
-      <c r="V78" s="45"/>
-      <c r="W78" s="45"/>
-      <c r="X78" s="45"/>
-      <c r="Y78" s="45"/>
-      <c r="Z78" s="45"/>
-      <c r="AA78" s="45"/>
-      <c r="AB78" s="45"/>
-      <c r="AC78" s="45"/>
-      <c r="AD78" s="45"/>
-      <c r="AE78" s="45"/>
-      <c r="AF78" s="45"/>
-      <c r="AG78" s="45"/>
-      <c r="AH78" s="45"/>
-      <c r="AI78" s="45"/>
-      <c r="AJ78" s="45"/>
-      <c r="AK78" s="45"/>
-      <c r="AL78" s="45"/>
-      <c r="AM78" s="45"/>
-      <c r="AN78" s="45"/>
-      <c r="AO78" s="45"/>
-      <c r="AP78" s="45"/>
-      <c r="AQ78" s="45"/>
-      <c r="AR78" s="45"/>
-      <c r="AS78" s="45"/>
-      <c r="AT78" s="45"/>
-      <c r="AU78" s="45"/>
-      <c r="AV78" s="45"/>
-      <c r="AW78" s="45"/>
-      <c r="AX78" s="45"/>
-      <c r="AY78" s="45"/>
-      <c r="AZ78" s="45"/>
-      <c r="BA78" s="45"/>
-      <c r="BB78" s="45"/>
-      <c r="BC78" s="45"/>
-      <c r="BD78" s="45"/>
-      <c r="BE78" s="45"/>
-      <c r="BF78" s="45"/>
-      <c r="BG78" s="45"/>
-      <c r="BH78" s="45"/>
-      <c r="BI78" s="45"/>
-      <c r="BJ78" s="45"/>
-      <c r="BK78" s="45"/>
-      <c r="BL78" s="45"/>
-      <c r="BM78" s="45"/>
-      <c r="BN78" s="45"/>
-      <c r="BO78" s="45"/>
-      <c r="BP78" s="45"/>
-      <c r="BQ78" s="45"/>
-      <c r="BR78" s="45"/>
-      <c r="BS78" s="45"/>
-      <c r="BT78" s="45"/>
-      <c r="BU78" s="45"/>
-      <c r="BV78" s="45"/>
-      <c r="BW78" s="45"/>
-      <c r="BX78" s="45"/>
-      <c r="BY78" s="45"/>
-      <c r="BZ78" s="45"/>
-      <c r="CA78" s="43"/>
-    </row>
-    <row r="79" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA77" s="25"/>
+      <c r="CB77" s="73"/>
+    </row>
+    <row r="78" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A78" s="9"/>
+      <c r="B78" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="25"/>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="25"/>
+      <c r="AI78" s="25"/>
+      <c r="AJ78" s="25"/>
+      <c r="AK78" s="25"/>
+      <c r="AL78" s="25"/>
+      <c r="AM78" s="25"/>
+      <c r="AN78" s="25"/>
+      <c r="AO78" s="25"/>
+      <c r="AP78" s="25"/>
+      <c r="AQ78" s="25"/>
+      <c r="AR78" s="25"/>
+      <c r="AS78" s="25"/>
+      <c r="AT78" s="25"/>
+      <c r="AU78" s="25"/>
+      <c r="AV78" s="25"/>
+      <c r="AW78" s="25"/>
+      <c r="AX78" s="25"/>
+      <c r="AY78" s="25"/>
+      <c r="AZ78" s="25"/>
+      <c r="BA78" s="25"/>
+      <c r="BB78" s="25"/>
+      <c r="BC78" s="25"/>
+      <c r="BD78" s="25"/>
+      <c r="BE78" s="25"/>
+      <c r="BF78" s="25"/>
+      <c r="BG78" s="25"/>
+      <c r="BH78" s="25"/>
+      <c r="BI78" s="25"/>
+      <c r="BJ78" s="25"/>
+      <c r="BK78" s="25"/>
+      <c r="BL78" s="25"/>
+      <c r="BM78" s="25"/>
+      <c r="BN78" s="25"/>
+      <c r="BO78" s="25"/>
+      <c r="BP78" s="25"/>
+      <c r="BQ78" s="25"/>
+      <c r="BR78" s="25"/>
+      <c r="BS78" s="25"/>
+      <c r="BT78" s="72"/>
+      <c r="BU78" s="25"/>
+      <c r="BV78" s="25"/>
+      <c r="BW78" s="25"/>
+      <c r="BX78" s="25"/>
+      <c r="BY78" s="27"/>
+      <c r="BZ78" s="25"/>
+      <c r="CA78" s="25"/>
+      <c r="CB78" s="73"/>
+    </row>
+    <row r="79" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A79" s="9"/>
       <c r="B79" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="C79" s="26">
+        <v>1</v>
+      </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -8707,188 +9033,193 @@
       <c r="BQ79" s="25"/>
       <c r="BR79" s="25"/>
       <c r="BS79" s="25"/>
-      <c r="BT79" s="25"/>
+      <c r="BT79" s="73"/>
       <c r="BU79" s="25"/>
       <c r="BV79" s="25"/>
-      <c r="BW79" s="25"/>
-      <c r="BX79" s="27"/>
-      <c r="BY79" s="25"/>
+      <c r="BW79" s="72"/>
+      <c r="BX79" s="25"/>
+      <c r="BY79" s="27"/>
       <c r="BZ79" s="25"/>
-      <c r="CA79" s="9"/>
-    </row>
-    <row r="80" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="25"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="25"/>
-      <c r="U80" s="25"/>
-      <c r="V80" s="25"/>
-      <c r="W80" s="25"/>
-      <c r="X80" s="25"/>
-      <c r="Y80" s="25"/>
-      <c r="Z80" s="25"/>
-      <c r="AA80" s="25"/>
-      <c r="AB80" s="25"/>
-      <c r="AC80" s="25"/>
-      <c r="AD80" s="25"/>
-      <c r="AE80" s="25"/>
-      <c r="AF80" s="25"/>
-      <c r="AG80" s="25"/>
-      <c r="AH80" s="25"/>
-      <c r="AI80" s="25"/>
-      <c r="AJ80" s="25"/>
-      <c r="AK80" s="25"/>
-      <c r="AL80" s="25"/>
-      <c r="AM80" s="25"/>
-      <c r="AN80" s="25"/>
-      <c r="AO80" s="25"/>
-      <c r="AP80" s="25"/>
-      <c r="AQ80" s="25"/>
-      <c r="AR80" s="25"/>
-      <c r="AS80" s="25"/>
-      <c r="AT80" s="25"/>
-      <c r="AU80" s="25"/>
-      <c r="AV80" s="25"/>
-      <c r="AW80" s="25"/>
-      <c r="AX80" s="25"/>
-      <c r="AY80" s="25"/>
-      <c r="AZ80" s="25"/>
-      <c r="BA80" s="25"/>
-      <c r="BB80" s="25"/>
-      <c r="BC80" s="25"/>
-      <c r="BD80" s="25"/>
-      <c r="BE80" s="25"/>
-      <c r="BF80" s="25"/>
-      <c r="BG80" s="25"/>
-      <c r="BH80" s="25"/>
-      <c r="BI80" s="25"/>
-      <c r="BJ80" s="25"/>
-      <c r="BK80" s="25"/>
-      <c r="BL80" s="25"/>
-      <c r="BM80" s="25"/>
-      <c r="BN80" s="25"/>
-      <c r="BO80" s="25"/>
-      <c r="BP80" s="25"/>
-      <c r="BQ80" s="25"/>
-      <c r="BR80" s="25"/>
-      <c r="BS80" s="25"/>
-      <c r="BT80" s="25"/>
-      <c r="BU80" s="25"/>
-      <c r="BV80" s="25"/>
-      <c r="BW80" s="25"/>
-      <c r="BX80" s="27"/>
-      <c r="BY80" s="25"/>
-      <c r="BZ80" s="25"/>
-      <c r="CA80" s="9"/>
-    </row>
-    <row r="81" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="45"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="45"/>
-      <c r="W81" s="45"/>
-      <c r="X81" s="45"/>
-      <c r="Y81" s="45"/>
-      <c r="Z81" s="45"/>
-      <c r="AA81" s="45"/>
-      <c r="AB81" s="45"/>
-      <c r="AC81" s="45"/>
-      <c r="AD81" s="45"/>
-      <c r="AE81" s="45"/>
-      <c r="AF81" s="45"/>
-      <c r="AG81" s="45"/>
-      <c r="AH81" s="45"/>
-      <c r="AI81" s="45"/>
-      <c r="AJ81" s="45"/>
-      <c r="AK81" s="45"/>
-      <c r="AL81" s="45"/>
-      <c r="AM81" s="45"/>
-      <c r="AN81" s="45"/>
-      <c r="AO81" s="45"/>
-      <c r="AP81" s="45"/>
-      <c r="AQ81" s="45"/>
-      <c r="AR81" s="45"/>
-      <c r="AS81" s="45"/>
-      <c r="AT81" s="45"/>
-      <c r="AU81" s="45"/>
-      <c r="AV81" s="45"/>
-      <c r="AW81" s="45"/>
-      <c r="AX81" s="45"/>
-      <c r="AY81" s="45"/>
-      <c r="AZ81" s="45"/>
-      <c r="BA81" s="45"/>
-      <c r="BB81" s="45"/>
-      <c r="BC81" s="45"/>
-      <c r="BD81" s="45"/>
-      <c r="BE81" s="45"/>
-      <c r="BF81" s="45"/>
-      <c r="BG81" s="45"/>
-      <c r="BH81" s="45"/>
-      <c r="BI81" s="45"/>
-      <c r="BJ81" s="45"/>
-      <c r="BK81" s="45"/>
-      <c r="BL81" s="45"/>
-      <c r="BM81" s="45"/>
-      <c r="BN81" s="45"/>
-      <c r="BO81" s="45"/>
-      <c r="BP81" s="45"/>
-      <c r="BQ81" s="45"/>
-      <c r="BR81" s="45"/>
-      <c r="BS81" s="45"/>
-      <c r="BT81" s="45"/>
-      <c r="BU81" s="45"/>
-      <c r="BV81" s="45"/>
-      <c r="BW81" s="45"/>
-      <c r="BX81" s="45"/>
-      <c r="BY81" s="45"/>
-      <c r="BZ81" s="45"/>
-      <c r="CA81" s="43"/>
-    </row>
-    <row r="82" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA79" s="25"/>
+      <c r="CB79" s="73"/>
+    </row>
+    <row r="80" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="A80" s="43"/>
+      <c r="B80" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45"/>
+      <c r="AA80" s="45"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="45"/>
+      <c r="AF80" s="45"/>
+      <c r="AG80" s="45"/>
+      <c r="AH80" s="45"/>
+      <c r="AI80" s="45"/>
+      <c r="AJ80" s="45"/>
+      <c r="AK80" s="45"/>
+      <c r="AL80" s="45"/>
+      <c r="AM80" s="45"/>
+      <c r="AN80" s="45"/>
+      <c r="AO80" s="45"/>
+      <c r="AP80" s="45"/>
+      <c r="AQ80" s="45"/>
+      <c r="AR80" s="45"/>
+      <c r="AS80" s="45"/>
+      <c r="AT80" s="45"/>
+      <c r="AU80" s="45"/>
+      <c r="AV80" s="45"/>
+      <c r="AW80" s="45"/>
+      <c r="AX80" s="45"/>
+      <c r="AY80" s="45"/>
+      <c r="AZ80" s="45"/>
+      <c r="BA80" s="45"/>
+      <c r="BB80" s="45"/>
+      <c r="BC80" s="45"/>
+      <c r="BD80" s="45"/>
+      <c r="BE80" s="45"/>
+      <c r="BF80" s="45"/>
+      <c r="BG80" s="45"/>
+      <c r="BH80" s="45"/>
+      <c r="BI80" s="45"/>
+      <c r="BJ80" s="45"/>
+      <c r="BK80" s="45"/>
+      <c r="BL80" s="45"/>
+      <c r="BM80" s="45"/>
+      <c r="BN80" s="45"/>
+      <c r="BO80" s="45"/>
+      <c r="BP80" s="45"/>
+      <c r="BQ80" s="45"/>
+      <c r="BR80" s="45"/>
+      <c r="BS80" s="45"/>
+      <c r="BT80" s="45"/>
+      <c r="BU80" s="45"/>
+      <c r="BV80" s="45"/>
+      <c r="BW80" s="45"/>
+      <c r="BX80" s="45"/>
+      <c r="BY80" s="45"/>
+      <c r="BZ80" s="45"/>
+      <c r="CA80" s="45"/>
+      <c r="CB80" s="45"/>
+    </row>
+    <row r="81" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="25"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
+      <c r="AA81" s="25"/>
+      <c r="AB81" s="25"/>
+      <c r="AC81" s="25"/>
+      <c r="AD81" s="25"/>
+      <c r="AE81" s="25"/>
+      <c r="AF81" s="25"/>
+      <c r="AG81" s="25"/>
+      <c r="AH81" s="25"/>
+      <c r="AI81" s="25"/>
+      <c r="AJ81" s="25"/>
+      <c r="AK81" s="25"/>
+      <c r="AL81" s="25"/>
+      <c r="AM81" s="25"/>
+      <c r="AN81" s="25"/>
+      <c r="AO81" s="25"/>
+      <c r="AP81" s="25"/>
+      <c r="AQ81" s="25"/>
+      <c r="AR81" s="25"/>
+      <c r="AS81" s="25"/>
+      <c r="AT81" s="25"/>
+      <c r="AU81" s="25"/>
+      <c r="AV81" s="25"/>
+      <c r="AW81" s="25"/>
+      <c r="AX81" s="25"/>
+      <c r="AY81" s="25"/>
+      <c r="AZ81" s="25"/>
+      <c r="BA81" s="25"/>
+      <c r="BB81" s="25"/>
+      <c r="BC81" s="25"/>
+      <c r="BD81" s="25"/>
+      <c r="BE81" s="72"/>
+      <c r="BF81" s="72"/>
+      <c r="BG81" s="25"/>
+      <c r="BH81" s="25"/>
+      <c r="BI81" s="25"/>
+      <c r="BJ81" s="25"/>
+      <c r="BK81" s="25"/>
+      <c r="BL81" s="25"/>
+      <c r="BM81" s="25"/>
+      <c r="BN81" s="25"/>
+      <c r="BO81" s="25"/>
+      <c r="BP81" s="25"/>
+      <c r="BQ81" s="25"/>
+      <c r="BR81" s="25"/>
+      <c r="BS81" s="25"/>
+      <c r="BT81" s="25"/>
+      <c r="BU81" s="25"/>
+      <c r="BV81" s="25"/>
+      <c r="BW81" s="25"/>
+      <c r="BX81" s="25"/>
+      <c r="BY81" s="27"/>
+      <c r="BZ81" s="25"/>
+      <c r="CA81" s="25"/>
+      <c r="CB81" s="25"/>
+    </row>
+    <row r="82" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A82" s="9"/>
       <c r="B82" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C82" s="26">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
@@ -8928,12 +9259,12 @@
       <c r="AM82" s="25"/>
       <c r="AN82" s="25"/>
       <c r="AO82" s="25"/>
-      <c r="AP82" s="72"/>
-      <c r="AQ82" s="72"/>
-      <c r="AR82" s="72"/>
-      <c r="AS82" s="72"/>
-      <c r="AT82" s="72"/>
-      <c r="AU82" s="73"/>
+      <c r="AP82" s="25"/>
+      <c r="AQ82" s="25"/>
+      <c r="AR82" s="25"/>
+      <c r="AS82" s="25"/>
+      <c r="AT82" s="25"/>
+      <c r="AU82" s="25"/>
       <c r="AV82" s="25"/>
       <c r="AW82" s="25"/>
       <c r="AX82" s="25"/>
@@ -8944,8 +9275,8 @@
       <c r="BC82" s="25"/>
       <c r="BD82" s="25"/>
       <c r="BE82" s="25"/>
-      <c r="BF82" s="25"/>
-      <c r="BG82" s="25"/>
+      <c r="BF82" s="72"/>
+      <c r="BG82" s="72"/>
       <c r="BH82" s="25"/>
       <c r="BI82" s="25"/>
       <c r="BJ82" s="25"/>
@@ -8962,186 +9293,189 @@
       <c r="BU82" s="25"/>
       <c r="BV82" s="25"/>
       <c r="BW82" s="25"/>
-      <c r="BX82" s="27"/>
-      <c r="BY82" s="25"/>
+      <c r="BX82" s="25"/>
+      <c r="BY82" s="27"/>
       <c r="BZ82" s="25"/>
-      <c r="CA82" s="9"/>
-    </row>
-    <row r="83" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A83" s="9"/>
-      <c r="B83" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="26">
+      <c r="CA82" s="25"/>
+      <c r="CB82" s="25"/>
+    </row>
+    <row r="83" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="A83" s="43"/>
+      <c r="B83" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="45"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="45"/>
+      <c r="W83" s="45"/>
+      <c r="X83" s="45"/>
+      <c r="Y83" s="45"/>
+      <c r="Z83" s="45"/>
+      <c r="AA83" s="45"/>
+      <c r="AB83" s="45"/>
+      <c r="AC83" s="45"/>
+      <c r="AD83" s="45"/>
+      <c r="AE83" s="45"/>
+      <c r="AF83" s="45"/>
+      <c r="AG83" s="45"/>
+      <c r="AH83" s="45"/>
+      <c r="AI83" s="45"/>
+      <c r="AJ83" s="45"/>
+      <c r="AK83" s="45"/>
+      <c r="AL83" s="45"/>
+      <c r="AM83" s="45"/>
+      <c r="AN83" s="45"/>
+      <c r="AO83" s="45"/>
+      <c r="AP83" s="45"/>
+      <c r="AQ83" s="45"/>
+      <c r="AR83" s="45"/>
+      <c r="AS83" s="45"/>
+      <c r="AT83" s="45"/>
+      <c r="AU83" s="45"/>
+      <c r="AV83" s="45"/>
+      <c r="AW83" s="45"/>
+      <c r="AX83" s="45"/>
+      <c r="AY83" s="45"/>
+      <c r="AZ83" s="45"/>
+      <c r="BA83" s="45"/>
+      <c r="BB83" s="45"/>
+      <c r="BC83" s="45"/>
+      <c r="BD83" s="45"/>
+      <c r="BE83" s="45"/>
+      <c r="BF83" s="45"/>
+      <c r="BG83" s="45"/>
+      <c r="BH83" s="45"/>
+      <c r="BI83" s="45"/>
+      <c r="BJ83" s="45"/>
+      <c r="BK83" s="45"/>
+      <c r="BL83" s="45"/>
+      <c r="BM83" s="45"/>
+      <c r="BN83" s="45"/>
+      <c r="BO83" s="45"/>
+      <c r="BP83" s="45"/>
+      <c r="BQ83" s="45"/>
+      <c r="BR83" s="45"/>
+      <c r="BS83" s="45"/>
+      <c r="BT83" s="45"/>
+      <c r="BU83" s="45"/>
+      <c r="BV83" s="45"/>
+      <c r="BW83" s="45"/>
+      <c r="BX83" s="45"/>
+      <c r="BY83" s="45"/>
+      <c r="BZ83" s="45"/>
+      <c r="CA83" s="45"/>
+      <c r="CB83" s="45"/>
+    </row>
+    <row r="84" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A84" s="9"/>
+      <c r="B84" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="26">
         <v>5</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="25"/>
-      <c r="U83" s="25"/>
-      <c r="V83" s="25"/>
-      <c r="W83" s="25"/>
-      <c r="X83" s="25"/>
-      <c r="Y83" s="25"/>
-      <c r="Z83" s="25"/>
-      <c r="AA83" s="25"/>
-      <c r="AB83" s="25"/>
-      <c r="AC83" s="25"/>
-      <c r="AD83" s="25"/>
-      <c r="AE83" s="25"/>
-      <c r="AF83" s="25"/>
-      <c r="AG83" s="25"/>
-      <c r="AH83" s="25"/>
-      <c r="AI83" s="25"/>
-      <c r="AJ83" s="25"/>
-      <c r="AK83" s="25"/>
-      <c r="AL83" s="25"/>
-      <c r="AM83" s="25"/>
-      <c r="AN83" s="25"/>
-      <c r="AO83" s="25"/>
-      <c r="AP83" s="72"/>
-      <c r="AQ83" s="72"/>
-      <c r="AR83" s="72"/>
-      <c r="AS83" s="72"/>
-      <c r="AT83" s="72"/>
-      <c r="AU83" s="73"/>
-      <c r="AV83" s="25"/>
-      <c r="AW83" s="25"/>
-      <c r="AX83" s="25"/>
-      <c r="AY83" s="25"/>
-      <c r="AZ83" s="25"/>
-      <c r="BA83" s="25"/>
-      <c r="BB83" s="25"/>
-      <c r="BC83" s="25"/>
-      <c r="BD83" s="25"/>
-      <c r="BE83" s="25"/>
-      <c r="BF83" s="25"/>
-      <c r="BG83" s="25"/>
-      <c r="BH83" s="25"/>
-      <c r="BI83" s="25"/>
-      <c r="BJ83" s="25"/>
-      <c r="BK83" s="25"/>
-      <c r="BL83" s="25"/>
-      <c r="BM83" s="25"/>
-      <c r="BN83" s="25"/>
-      <c r="BO83" s="25"/>
-      <c r="BP83" s="25"/>
-      <c r="BQ83" s="25"/>
-      <c r="BR83" s="25"/>
-      <c r="BS83" s="25"/>
-      <c r="BT83" s="25"/>
-      <c r="BU83" s="25"/>
-      <c r="BV83" s="25"/>
-      <c r="BW83" s="25"/>
-      <c r="BX83" s="27"/>
-      <c r="BY83" s="25"/>
-      <c r="BZ83" s="25"/>
-      <c r="CA83" s="9"/>
-    </row>
-    <row r="84" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
-      <c r="Q84" s="45"/>
-      <c r="R84" s="45"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="45"/>
-      <c r="U84" s="45"/>
-      <c r="V84" s="45"/>
-      <c r="W84" s="45"/>
-      <c r="X84" s="45"/>
-      <c r="Y84" s="45"/>
-      <c r="Z84" s="45"/>
-      <c r="AA84" s="45"/>
-      <c r="AB84" s="45"/>
-      <c r="AC84" s="45"/>
-      <c r="AD84" s="45"/>
-      <c r="AE84" s="45"/>
-      <c r="AF84" s="45"/>
-      <c r="AG84" s="45"/>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="45"/>
-      <c r="AJ84" s="45"/>
-      <c r="AK84" s="45"/>
-      <c r="AL84" s="45"/>
-      <c r="AM84" s="45"/>
-      <c r="AN84" s="45"/>
-      <c r="AO84" s="45"/>
-      <c r="AP84" s="45"/>
-      <c r="AQ84" s="45"/>
-      <c r="AR84" s="45"/>
-      <c r="AS84" s="45"/>
-      <c r="AT84" s="45"/>
-      <c r="AU84" s="45"/>
-      <c r="AV84" s="45"/>
-      <c r="AW84" s="45"/>
-      <c r="AX84" s="45"/>
-      <c r="AY84" s="45"/>
-      <c r="AZ84" s="45"/>
-      <c r="BA84" s="45"/>
-      <c r="BB84" s="45"/>
-      <c r="BC84" s="45"/>
-      <c r="BD84" s="45"/>
-      <c r="BE84" s="45"/>
-      <c r="BF84" s="45"/>
-      <c r="BG84" s="45"/>
-      <c r="BH84" s="45"/>
-      <c r="BI84" s="45"/>
-      <c r="BJ84" s="45"/>
-      <c r="BK84" s="45"/>
-      <c r="BL84" s="45"/>
-      <c r="BM84" s="45"/>
-      <c r="BN84" s="45"/>
-      <c r="BO84" s="45"/>
-      <c r="BP84" s="45"/>
-      <c r="BQ84" s="45"/>
-      <c r="BR84" s="45"/>
-      <c r="BS84" s="45"/>
-      <c r="BT84" s="45"/>
-      <c r="BU84" s="45"/>
-      <c r="BV84" s="45"/>
-      <c r="BW84" s="45"/>
-      <c r="BX84" s="45"/>
-      <c r="BY84" s="45"/>
-      <c r="BZ84" s="45"/>
-      <c r="CA84" s="43"/>
-    </row>
-    <row r="85" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25"/>
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="25"/>
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25"/>
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="25"/>
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="72"/>
+      <c r="AQ84" s="72"/>
+      <c r="AR84" s="72"/>
+      <c r="AS84" s="72"/>
+      <c r="AT84" s="72"/>
+      <c r="AU84" s="73"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="25"/>
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="25"/>
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="25"/>
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="25"/>
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="25"/>
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="25"/>
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="25"/>
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="27"/>
+      <c r="BZ84" s="25"/>
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+    </row>
+    <row r="85" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A85" s="9"/>
       <c r="B85" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C85" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -9176,17 +9510,17 @@
       <c r="AH85" s="25"/>
       <c r="AI85" s="25"/>
       <c r="AJ85" s="25"/>
-      <c r="AK85" s="72"/>
-      <c r="AL85" s="73"/>
-      <c r="AM85" s="73"/>
+      <c r="AK85" s="25"/>
+      <c r="AL85" s="25"/>
+      <c r="AM85" s="25"/>
       <c r="AN85" s="25"/>
       <c r="AO85" s="25"/>
-      <c r="AP85" s="25"/>
-      <c r="AQ85" s="25"/>
-      <c r="AR85" s="25"/>
-      <c r="AS85" s="25"/>
-      <c r="AT85" s="25"/>
-      <c r="AU85" s="25"/>
+      <c r="AP85" s="72"/>
+      <c r="AQ85" s="72"/>
+      <c r="AR85" s="72"/>
+      <c r="AS85" s="72"/>
+      <c r="AT85" s="72"/>
+      <c r="AU85" s="73"/>
       <c r="AV85" s="25"/>
       <c r="AW85" s="25"/>
       <c r="AX85" s="25"/>
@@ -9215,103 +9549,103 @@
       <c r="BU85" s="25"/>
       <c r="BV85" s="25"/>
       <c r="BW85" s="25"/>
-      <c r="BX85" s="27"/>
-      <c r="BY85" s="25"/>
+      <c r="BX85" s="25"/>
+      <c r="BY85" s="27"/>
       <c r="BZ85" s="25"/>
-      <c r="CA85" s="9"/>
-    </row>
-    <row r="86" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A86" s="9"/>
-      <c r="B86" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-      <c r="U86" s="25"/>
-      <c r="V86" s="25"/>
-      <c r="W86" s="25"/>
-      <c r="X86" s="25"/>
-      <c r="Y86" s="25"/>
-      <c r="Z86" s="25"/>
-      <c r="AA86" s="25"/>
-      <c r="AB86" s="25"/>
-      <c r="AC86" s="25"/>
-      <c r="AD86" s="25"/>
-      <c r="AE86" s="25"/>
-      <c r="AF86" s="25"/>
-      <c r="AG86" s="25"/>
-      <c r="AH86" s="25"/>
-      <c r="AI86" s="25"/>
-      <c r="AJ86" s="25"/>
-      <c r="AK86" s="73"/>
-      <c r="AL86" s="72"/>
-      <c r="AM86" s="73"/>
-      <c r="AN86" s="25"/>
-      <c r="AO86" s="25"/>
-      <c r="AP86" s="25"/>
-      <c r="AQ86" s="25"/>
-      <c r="AR86" s="25"/>
-      <c r="AS86" s="25"/>
-      <c r="AT86" s="25"/>
-      <c r="AU86" s="25"/>
-      <c r="AV86" s="25"/>
-      <c r="AW86" s="25"/>
-      <c r="AX86" s="25"/>
-      <c r="AY86" s="25"/>
-      <c r="AZ86" s="25"/>
-      <c r="BA86" s="25"/>
-      <c r="BB86" s="25"/>
-      <c r="BC86" s="25"/>
-      <c r="BD86" s="25"/>
-      <c r="BE86" s="25"/>
-      <c r="BF86" s="25"/>
-      <c r="BG86" s="25"/>
-      <c r="BH86" s="25"/>
-      <c r="BI86" s="25"/>
-      <c r="BJ86" s="25"/>
-      <c r="BK86" s="25"/>
-      <c r="BL86" s="25"/>
-      <c r="BM86" s="25"/>
-      <c r="BN86" s="25"/>
-      <c r="BO86" s="25"/>
-      <c r="BP86" s="25"/>
-      <c r="BQ86" s="25"/>
-      <c r="BR86" s="25"/>
-      <c r="BS86" s="25"/>
-      <c r="BT86" s="25"/>
-      <c r="BU86" s="25"/>
-      <c r="BV86" s="25"/>
-      <c r="BW86" s="25"/>
-      <c r="BX86" s="27"/>
-      <c r="BY86" s="25"/>
-      <c r="BZ86" s="25"/>
-      <c r="CA86" s="9"/>
-    </row>
-    <row r="87" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA85" s="25"/>
+      <c r="CB85" s="25"/>
+    </row>
+    <row r="86" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="A86" s="43"/>
+      <c r="B86" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="44"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" s="45"/>
+      <c r="AA86" s="45"/>
+      <c r="AB86" s="45"/>
+      <c r="AC86" s="45"/>
+      <c r="AD86" s="45"/>
+      <c r="AE86" s="45"/>
+      <c r="AF86" s="45"/>
+      <c r="AG86" s="45"/>
+      <c r="AH86" s="45"/>
+      <c r="AI86" s="45"/>
+      <c r="AJ86" s="45"/>
+      <c r="AK86" s="45"/>
+      <c r="AL86" s="45"/>
+      <c r="AM86" s="45"/>
+      <c r="AN86" s="45"/>
+      <c r="AO86" s="45"/>
+      <c r="AP86" s="45"/>
+      <c r="AQ86" s="45"/>
+      <c r="AR86" s="45"/>
+      <c r="AS86" s="45"/>
+      <c r="AT86" s="45"/>
+      <c r="AU86" s="45"/>
+      <c r="AV86" s="45"/>
+      <c r="AW86" s="45"/>
+      <c r="AX86" s="45"/>
+      <c r="AY86" s="45"/>
+      <c r="AZ86" s="45"/>
+      <c r="BA86" s="45"/>
+      <c r="BB86" s="45"/>
+      <c r="BC86" s="45"/>
+      <c r="BD86" s="45"/>
+      <c r="BE86" s="45"/>
+      <c r="BF86" s="45"/>
+      <c r="BG86" s="45"/>
+      <c r="BH86" s="45"/>
+      <c r="BI86" s="45"/>
+      <c r="BJ86" s="45"/>
+      <c r="BK86" s="45"/>
+      <c r="BL86" s="45"/>
+      <c r="BM86" s="45"/>
+      <c r="BN86" s="45"/>
+      <c r="BO86" s="45"/>
+      <c r="BP86" s="45"/>
+      <c r="BQ86" s="45"/>
+      <c r="BR86" s="45"/>
+      <c r="BS86" s="45"/>
+      <c r="BT86" s="45"/>
+      <c r="BU86" s="45"/>
+      <c r="BV86" s="45"/>
+      <c r="BW86" s="45"/>
+      <c r="BX86" s="45"/>
+      <c r="BY86" s="45"/>
+      <c r="BZ86" s="45"/>
+      <c r="CA86" s="45"/>
+      <c r="CB86" s="45"/>
+    </row>
+    <row r="87" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A87" s="9"/>
       <c r="B87" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C87" s="26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
@@ -9346,9 +9680,9 @@
       <c r="AH87" s="25"/>
       <c r="AI87" s="25"/>
       <c r="AJ87" s="25"/>
-      <c r="AK87" s="73"/>
-      <c r="AL87" s="72"/>
-      <c r="AM87" s="72"/>
+      <c r="AK87" s="72"/>
+      <c r="AL87" s="73"/>
+      <c r="AM87" s="73"/>
       <c r="AN87" s="25"/>
       <c r="AO87" s="25"/>
       <c r="AP87" s="25"/>
@@ -9385,17 +9719,20 @@
       <c r="BU87" s="25"/>
       <c r="BV87" s="25"/>
       <c r="BW87" s="25"/>
-      <c r="BX87" s="27"/>
-      <c r="BY87" s="25"/>
+      <c r="BX87" s="25"/>
+      <c r="BY87" s="27"/>
       <c r="BZ87" s="25"/>
-      <c r="CA87" s="9"/>
-    </row>
-    <row r="88" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA87" s="25"/>
+      <c r="CB87" s="25"/>
+    </row>
+    <row r="88" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A88" s="9"/>
       <c r="B88" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="26"/>
+        <v>70</v>
+      </c>
+      <c r="C88" s="26">
+        <v>0.5</v>
+      </c>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
@@ -9429,9 +9766,9 @@
       <c r="AH88" s="25"/>
       <c r="AI88" s="25"/>
       <c r="AJ88" s="25"/>
-      <c r="AK88" s="25"/>
-      <c r="AL88" s="25"/>
-      <c r="AM88" s="25"/>
+      <c r="AK88" s="73"/>
+      <c r="AL88" s="72"/>
+      <c r="AM88" s="73"/>
       <c r="AN88" s="25"/>
       <c r="AO88" s="25"/>
       <c r="AP88" s="25"/>
@@ -9468,18 +9805,19 @@
       <c r="BU88" s="25"/>
       <c r="BV88" s="25"/>
       <c r="BW88" s="25"/>
-      <c r="BX88" s="27"/>
-      <c r="BY88" s="25"/>
+      <c r="BX88" s="25"/>
+      <c r="BY88" s="27"/>
       <c r="BZ88" s="25"/>
-      <c r="CA88" s="9"/>
-    </row>
-    <row r="89" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA88" s="25"/>
+      <c r="CB88" s="25"/>
+    </row>
+    <row r="89" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A89" s="9"/>
-      <c r="B89" s="64" t="s">
-        <v>73</v>
+      <c r="B89" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C89" s="26">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -9514,11 +9852,11 @@
       <c r="AH89" s="25"/>
       <c r="AI89" s="25"/>
       <c r="AJ89" s="25"/>
-      <c r="AK89" s="25"/>
-      <c r="AL89" s="25"/>
+      <c r="AK89" s="73"/>
+      <c r="AL89" s="72"/>
       <c r="AM89" s="72"/>
-      <c r="AN89" s="72"/>
-      <c r="AO89" s="72"/>
+      <c r="AN89" s="25"/>
+      <c r="AO89" s="25"/>
       <c r="AP89" s="25"/>
       <c r="AQ89" s="25"/>
       <c r="AR89" s="25"/>
@@ -9553,101 +9891,103 @@
       <c r="BU89" s="25"/>
       <c r="BV89" s="25"/>
       <c r="BW89" s="25"/>
-      <c r="BX89" s="27"/>
-      <c r="BY89" s="25"/>
+      <c r="BX89" s="25"/>
+      <c r="BY89" s="27"/>
       <c r="BZ89" s="25"/>
-      <c r="CA89" s="9"/>
-    </row>
-    <row r="90" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
-      <c r="A90" s="43"/>
-      <c r="B90" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="44"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="45"/>
-      <c r="S90" s="45"/>
-      <c r="T90" s="45"/>
-      <c r="U90" s="45"/>
-      <c r="V90" s="45"/>
-      <c r="W90" s="45"/>
-      <c r="X90" s="45"/>
-      <c r="Y90" s="45"/>
-      <c r="Z90" s="45"/>
-      <c r="AA90" s="45"/>
-      <c r="AB90" s="45"/>
-      <c r="AC90" s="45"/>
-      <c r="AD90" s="45"/>
-      <c r="AE90" s="45"/>
-      <c r="AF90" s="45"/>
-      <c r="AG90" s="45"/>
-      <c r="AH90" s="45"/>
-      <c r="AI90" s="45"/>
-      <c r="AJ90" s="45"/>
-      <c r="AK90" s="45"/>
-      <c r="AL90" s="45"/>
-      <c r="AM90" s="45"/>
-      <c r="AN90" s="45"/>
-      <c r="AO90" s="45"/>
-      <c r="AP90" s="45"/>
-      <c r="AQ90" s="45"/>
-      <c r="AR90" s="45"/>
-      <c r="AS90" s="45"/>
-      <c r="AT90" s="45"/>
-      <c r="AU90" s="45"/>
-      <c r="AV90" s="45"/>
-      <c r="AW90" s="45"/>
-      <c r="AX90" s="45"/>
-      <c r="AY90" s="45"/>
-      <c r="AZ90" s="45"/>
-      <c r="BA90" s="45"/>
-      <c r="BB90" s="45"/>
-      <c r="BC90" s="45"/>
-      <c r="BD90" s="45"/>
-      <c r="BE90" s="45"/>
-      <c r="BF90" s="45"/>
-      <c r="BG90" s="45"/>
-      <c r="BH90" s="45"/>
-      <c r="BI90" s="45"/>
-      <c r="BJ90" s="45"/>
-      <c r="BK90" s="45"/>
-      <c r="BL90" s="45"/>
-      <c r="BM90" s="45"/>
-      <c r="BN90" s="45"/>
-      <c r="BO90" s="45"/>
-      <c r="BP90" s="45"/>
-      <c r="BQ90" s="45"/>
-      <c r="BR90" s="45"/>
-      <c r="BS90" s="45"/>
-      <c r="BT90" s="45"/>
-      <c r="BU90" s="45"/>
-      <c r="BV90" s="45"/>
-      <c r="BW90" s="45"/>
-      <c r="BX90" s="45"/>
-      <c r="BY90" s="45"/>
-      <c r="BZ90" s="45"/>
-      <c r="CA90" s="43"/>
-    </row>
-    <row r="91" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA89" s="25"/>
+      <c r="CB89" s="25"/>
+    </row>
+    <row r="90" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A90" s="9"/>
+      <c r="B90" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="25"/>
+      <c r="W90" s="25"/>
+      <c r="X90" s="25"/>
+      <c r="Y90" s="25"/>
+      <c r="Z90" s="25"/>
+      <c r="AA90" s="25"/>
+      <c r="AB90" s="25"/>
+      <c r="AC90" s="25"/>
+      <c r="AD90" s="25"/>
+      <c r="AE90" s="25"/>
+      <c r="AF90" s="25"/>
+      <c r="AG90" s="25"/>
+      <c r="AH90" s="25"/>
+      <c r="AI90" s="25"/>
+      <c r="AJ90" s="25"/>
+      <c r="AK90" s="25"/>
+      <c r="AL90" s="25"/>
+      <c r="AM90" s="25"/>
+      <c r="AN90" s="25"/>
+      <c r="AO90" s="25"/>
+      <c r="AP90" s="25"/>
+      <c r="AQ90" s="25"/>
+      <c r="AR90" s="25"/>
+      <c r="AS90" s="25"/>
+      <c r="AT90" s="25"/>
+      <c r="AU90" s="25"/>
+      <c r="AV90" s="25"/>
+      <c r="AW90" s="25"/>
+      <c r="AX90" s="25"/>
+      <c r="AY90" s="25"/>
+      <c r="AZ90" s="25"/>
+      <c r="BA90" s="25"/>
+      <c r="BB90" s="25"/>
+      <c r="BC90" s="25"/>
+      <c r="BD90" s="25"/>
+      <c r="BE90" s="25"/>
+      <c r="BF90" s="25"/>
+      <c r="BG90" s="25"/>
+      <c r="BH90" s="25"/>
+      <c r="BI90" s="25"/>
+      <c r="BJ90" s="25"/>
+      <c r="BK90" s="25"/>
+      <c r="BL90" s="25"/>
+      <c r="BM90" s="25"/>
+      <c r="BN90" s="25"/>
+      <c r="BO90" s="25"/>
+      <c r="BP90" s="25"/>
+      <c r="BQ90" s="25"/>
+      <c r="BR90" s="25"/>
+      <c r="BS90" s="25"/>
+      <c r="BT90" s="72"/>
+      <c r="BU90" s="25"/>
+      <c r="BV90" s="25"/>
+      <c r="BW90" s="25"/>
+      <c r="BX90" s="25"/>
+      <c r="BY90" s="27"/>
+      <c r="BZ90" s="25"/>
+      <c r="CA90" s="25"/>
+      <c r="CB90" s="73"/>
+    </row>
+    <row r="91" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A91" s="9"/>
-      <c r="B91" s="25" t="s">
-        <v>75</v>
+      <c r="B91" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="C91" s="26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
@@ -9684,23 +10024,23 @@
       <c r="AJ91" s="25"/>
       <c r="AK91" s="25"/>
       <c r="AL91" s="25"/>
-      <c r="AM91" s="25"/>
-      <c r="AN91" s="25"/>
-      <c r="AO91" s="25"/>
+      <c r="AM91" s="72"/>
+      <c r="AN91" s="72"/>
+      <c r="AO91" s="72"/>
       <c r="AP91" s="25"/>
       <c r="AQ91" s="25"/>
       <c r="AR91" s="25"/>
       <c r="AS91" s="25"/>
       <c r="AT91" s="25"/>
-      <c r="AU91" s="72"/>
-      <c r="AV91" s="72"/>
-      <c r="AW91" s="72"/>
-      <c r="AX91" s="73"/>
-      <c r="AY91" s="73"/>
-      <c r="AZ91" s="73"/>
-      <c r="BA91" s="73"/>
-      <c r="BB91" s="73"/>
-      <c r="BC91" s="73"/>
+      <c r="AU91" s="25"/>
+      <c r="AV91" s="25"/>
+      <c r="AW91" s="25"/>
+      <c r="AX91" s="25"/>
+      <c r="AY91" s="25"/>
+      <c r="AZ91" s="25"/>
+      <c r="BA91" s="25"/>
+      <c r="BB91" s="25"/>
+      <c r="BC91" s="25"/>
       <c r="BD91" s="25"/>
       <c r="BE91" s="25"/>
       <c r="BF91" s="25"/>
@@ -9721,102 +10061,104 @@
       <c r="BU91" s="25"/>
       <c r="BV91" s="25"/>
       <c r="BW91" s="25"/>
-      <c r="BX91" s="27"/>
-      <c r="BY91" s="25"/>
+      <c r="BX91" s="25"/>
+      <c r="BY91" s="27"/>
       <c r="BZ91" s="25"/>
-      <c r="CA91" s="9"/>
-    </row>
-    <row r="92" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="26">
+      <c r="CA91" s="25"/>
+      <c r="CB91" s="25"/>
+    </row>
+    <row r="92" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="A92" s="43"/>
+      <c r="B92" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="44"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="45"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="45"/>
+      <c r="AE92" s="45"/>
+      <c r="AF92" s="45"/>
+      <c r="AG92" s="45"/>
+      <c r="AH92" s="45"/>
+      <c r="AI92" s="45"/>
+      <c r="AJ92" s="45"/>
+      <c r="AK92" s="45"/>
+      <c r="AL92" s="45"/>
+      <c r="AM92" s="45"/>
+      <c r="AN92" s="45"/>
+      <c r="AO92" s="45"/>
+      <c r="AP92" s="45"/>
+      <c r="AQ92" s="45"/>
+      <c r="AR92" s="45"/>
+      <c r="AS92" s="45"/>
+      <c r="AT92" s="45"/>
+      <c r="AU92" s="45"/>
+      <c r="AV92" s="45"/>
+      <c r="AW92" s="45"/>
+      <c r="AX92" s="45"/>
+      <c r="AY92" s="45"/>
+      <c r="AZ92" s="45"/>
+      <c r="BA92" s="45"/>
+      <c r="BB92" s="45"/>
+      <c r="BC92" s="45"/>
+      <c r="BD92" s="45"/>
+      <c r="BE92" s="45"/>
+      <c r="BF92" s="45"/>
+      <c r="BG92" s="45"/>
+      <c r="BH92" s="45"/>
+      <c r="BI92" s="45"/>
+      <c r="BJ92" s="45"/>
+      <c r="BK92" s="45"/>
+      <c r="BL92" s="45"/>
+      <c r="BM92" s="45"/>
+      <c r="BN92" s="45"/>
+      <c r="BO92" s="45"/>
+      <c r="BP92" s="45"/>
+      <c r="BQ92" s="45"/>
+      <c r="BR92" s="45"/>
+      <c r="BS92" s="45"/>
+      <c r="BT92" s="45"/>
+      <c r="BU92" s="45"/>
+      <c r="BV92" s="45"/>
+      <c r="BW92" s="45"/>
+      <c r="BX92" s="45"/>
+      <c r="BY92" s="45"/>
+      <c r="BZ92" s="45"/>
+      <c r="CA92" s="45"/>
+      <c r="CB92" s="45"/>
+    </row>
+    <row r="93" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A93" s="9"/>
+      <c r="B93" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="26">
         <v>3</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
-      <c r="U92" s="25"/>
-      <c r="V92" s="25"/>
-      <c r="W92" s="25"/>
-      <c r="X92" s="25"/>
-      <c r="Y92" s="25"/>
-      <c r="Z92" s="25"/>
-      <c r="AA92" s="25"/>
-      <c r="AB92" s="25"/>
-      <c r="AC92" s="25"/>
-      <c r="AD92" s="25"/>
-      <c r="AE92" s="25"/>
-      <c r="AF92" s="25"/>
-      <c r="AG92" s="25"/>
-      <c r="AH92" s="25"/>
-      <c r="AI92" s="25"/>
-      <c r="AJ92" s="25"/>
-      <c r="AK92" s="25"/>
-      <c r="AL92" s="25"/>
-      <c r="AM92" s="25"/>
-      <c r="AN92" s="25"/>
-      <c r="AO92" s="25"/>
-      <c r="AP92" s="25"/>
-      <c r="AQ92" s="25"/>
-      <c r="AR92" s="25"/>
-      <c r="AS92" s="25"/>
-      <c r="AT92" s="25"/>
-      <c r="AU92" s="72"/>
-      <c r="AV92" s="72"/>
-      <c r="AW92" s="72"/>
-      <c r="AX92" s="73"/>
-      <c r="AY92" s="73"/>
-      <c r="AZ92" s="73"/>
-      <c r="BA92" s="73"/>
-      <c r="BB92" s="73"/>
-      <c r="BC92" s="73"/>
-      <c r="BD92" s="25"/>
-      <c r="BE92" s="25"/>
-      <c r="BF92" s="25"/>
-      <c r="BG92" s="25"/>
-      <c r="BH92" s="25"/>
-      <c r="BI92" s="25"/>
-      <c r="BJ92" s="25"/>
-      <c r="BK92" s="25"/>
-      <c r="BL92" s="25"/>
-      <c r="BM92" s="25"/>
-      <c r="BN92" s="25"/>
-      <c r="BO92" s="25"/>
-      <c r="BP92" s="25"/>
-      <c r="BQ92" s="25"/>
-      <c r="BR92" s="25"/>
-      <c r="BS92" s="25"/>
-      <c r="BT92" s="25"/>
-      <c r="BU92" s="25"/>
-      <c r="BV92" s="25"/>
-      <c r="BW92" s="25"/>
-      <c r="BX92" s="27"/>
-      <c r="BY92" s="25"/>
-      <c r="BZ92" s="25"/>
-      <c r="CA92" s="9"/>
-    </row>
-    <row r="93" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A93" s="9"/>
-      <c r="B93" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="26"/>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
@@ -9860,9 +10202,9 @@
       <c r="AR93" s="25"/>
       <c r="AS93" s="25"/>
       <c r="AT93" s="25"/>
-      <c r="AU93" s="73"/>
-      <c r="AV93" s="73"/>
-      <c r="AW93" s="73"/>
+      <c r="AU93" s="72"/>
+      <c r="AV93" s="72"/>
+      <c r="AW93" s="72"/>
       <c r="AX93" s="73"/>
       <c r="AY93" s="73"/>
       <c r="AZ93" s="73"/>
@@ -9889,18 +10231,19 @@
       <c r="BU93" s="25"/>
       <c r="BV93" s="25"/>
       <c r="BW93" s="25"/>
-      <c r="BX93" s="27"/>
-      <c r="BY93" s="25"/>
+      <c r="BX93" s="25"/>
+      <c r="BY93" s="27"/>
       <c r="BZ93" s="25"/>
-      <c r="CA93" s="9"/>
-    </row>
-    <row r="94" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA93" s="25"/>
+      <c r="CB93" s="25"/>
+    </row>
+    <row r="94" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A94" s="9"/>
       <c r="B94" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
@@ -9945,11 +10288,11 @@
       <c r="AR94" s="25"/>
       <c r="AS94" s="25"/>
       <c r="AT94" s="25"/>
-      <c r="AU94" s="73"/>
-      <c r="AV94" s="73"/>
-      <c r="AW94" s="73"/>
-      <c r="AX94" s="72"/>
-      <c r="AY94" s="72"/>
+      <c r="AU94" s="72"/>
+      <c r="AV94" s="72"/>
+      <c r="AW94" s="72"/>
+      <c r="AX94" s="73"/>
+      <c r="AY94" s="73"/>
       <c r="AZ94" s="73"/>
       <c r="BA94" s="73"/>
       <c r="BB94" s="73"/>
@@ -9974,19 +10317,18 @@
       <c r="BU94" s="25"/>
       <c r="BV94" s="25"/>
       <c r="BW94" s="25"/>
-      <c r="BX94" s="27"/>
-      <c r="BY94" s="25"/>
+      <c r="BX94" s="25"/>
+      <c r="BY94" s="27"/>
       <c r="BZ94" s="25"/>
-      <c r="CA94" s="9"/>
-    </row>
-    <row r="95" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="CA94" s="25"/>
+      <c r="CB94" s="25"/>
+    </row>
+    <row r="95" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A95" s="9"/>
-      <c r="B95" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="26">
-        <v>5</v>
-      </c>
+      <c r="B95" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="26"/>
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
@@ -10035,11 +10377,11 @@
       <c r="AW95" s="73"/>
       <c r="AX95" s="73"/>
       <c r="AY95" s="73"/>
-      <c r="AZ95" s="72"/>
-      <c r="BA95" s="72"/>
-      <c r="BB95" s="72"/>
-      <c r="BC95" s="72"/>
-      <c r="BD95" s="94"/>
+      <c r="AZ95" s="73"/>
+      <c r="BA95" s="73"/>
+      <c r="BB95" s="73"/>
+      <c r="BC95" s="73"/>
+      <c r="BD95" s="25"/>
       <c r="BE95" s="25"/>
       <c r="BF95" s="25"/>
       <c r="BG95" s="25"/>
@@ -10059,101 +10401,105 @@
       <c r="BU95" s="25"/>
       <c r="BV95" s="25"/>
       <c r="BW95" s="25"/>
-      <c r="BX95" s="27"/>
-      <c r="BY95" s="25"/>
+      <c r="BX95" s="25"/>
+      <c r="BY95" s="27"/>
       <c r="BZ95" s="25"/>
-      <c r="CA95" s="9"/>
-    </row>
-    <row r="96" spans="1:79" s="48" customFormat="1" ht="21" customHeight="1">
-      <c r="A96" s="43"/>
-      <c r="B96" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" s="44"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
-      <c r="S96" s="45"/>
-      <c r="T96" s="45"/>
-      <c r="U96" s="45"/>
-      <c r="V96" s="45"/>
-      <c r="W96" s="45"/>
-      <c r="X96" s="45"/>
-      <c r="Y96" s="45"/>
-      <c r="Z96" s="45"/>
-      <c r="AA96" s="45"/>
-      <c r="AB96" s="45"/>
-      <c r="AC96" s="45"/>
-      <c r="AD96" s="45"/>
-      <c r="AE96" s="45"/>
-      <c r="AF96" s="45"/>
-      <c r="AG96" s="45"/>
-      <c r="AH96" s="45"/>
-      <c r="AI96" s="45"/>
-      <c r="AJ96" s="45"/>
-      <c r="AK96" s="45"/>
-      <c r="AL96" s="45"/>
-      <c r="AM96" s="45"/>
-      <c r="AN96" s="45"/>
-      <c r="AO96" s="45"/>
-      <c r="AP96" s="45"/>
-      <c r="AQ96" s="45"/>
-      <c r="AR96" s="45"/>
-      <c r="AS96" s="45"/>
-      <c r="AT96" s="45"/>
-      <c r="AU96" s="45"/>
-      <c r="AV96" s="45"/>
-      <c r="AW96" s="45"/>
-      <c r="AX96" s="45"/>
-      <c r="AY96" s="45"/>
-      <c r="AZ96" s="45"/>
-      <c r="BA96" s="45"/>
-      <c r="BB96" s="45"/>
-      <c r="BC96" s="45"/>
-      <c r="BD96" s="45"/>
-      <c r="BE96" s="45"/>
-      <c r="BF96" s="45"/>
-      <c r="BG96" s="45"/>
-      <c r="BH96" s="45"/>
-      <c r="BI96" s="45"/>
-      <c r="BJ96" s="45"/>
-      <c r="BK96" s="45"/>
-      <c r="BL96" s="45"/>
-      <c r="BM96" s="45"/>
-      <c r="BN96" s="45"/>
-      <c r="BO96" s="45"/>
-      <c r="BP96" s="45"/>
-      <c r="BQ96" s="45"/>
-      <c r="BR96" s="45"/>
-      <c r="BS96" s="45"/>
-      <c r="BT96" s="45"/>
-      <c r="BU96" s="45"/>
-      <c r="BV96" s="45"/>
-      <c r="BW96" s="45"/>
-      <c r="BX96" s="45"/>
-      <c r="BY96" s="45"/>
-      <c r="BZ96" s="45"/>
-      <c r="CA96" s="43"/>
-    </row>
-    <row r="97" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA95" s="25"/>
+      <c r="CB95" s="72"/>
+    </row>
+    <row r="96" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A96" s="9"/>
+      <c r="B96" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="26">
+        <v>2</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="25"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="25"/>
+      <c r="AC96" s="25"/>
+      <c r="AD96" s="25"/>
+      <c r="AE96" s="25"/>
+      <c r="AF96" s="25"/>
+      <c r="AG96" s="25"/>
+      <c r="AH96" s="25"/>
+      <c r="AI96" s="25"/>
+      <c r="AJ96" s="25"/>
+      <c r="AK96" s="25"/>
+      <c r="AL96" s="25"/>
+      <c r="AM96" s="25"/>
+      <c r="AN96" s="25"/>
+      <c r="AO96" s="25"/>
+      <c r="AP96" s="25"/>
+      <c r="AQ96" s="25"/>
+      <c r="AR96" s="25"/>
+      <c r="AS96" s="25"/>
+      <c r="AT96" s="25"/>
+      <c r="AU96" s="73"/>
+      <c r="AV96" s="73"/>
+      <c r="AW96" s="73"/>
+      <c r="AX96" s="72"/>
+      <c r="AY96" s="72"/>
+      <c r="AZ96" s="73"/>
+      <c r="BA96" s="73"/>
+      <c r="BB96" s="73"/>
+      <c r="BC96" s="73"/>
+      <c r="BD96" s="25"/>
+      <c r="BE96" s="25"/>
+      <c r="BF96" s="25"/>
+      <c r="BG96" s="25"/>
+      <c r="BH96" s="25"/>
+      <c r="BI96" s="25"/>
+      <c r="BJ96" s="25"/>
+      <c r="BK96" s="25"/>
+      <c r="BL96" s="25"/>
+      <c r="BM96" s="25"/>
+      <c r="BN96" s="25"/>
+      <c r="BO96" s="25"/>
+      <c r="BP96" s="25"/>
+      <c r="BQ96" s="25"/>
+      <c r="BR96" s="25"/>
+      <c r="BS96" s="25"/>
+      <c r="BT96" s="25"/>
+      <c r="BU96" s="25"/>
+      <c r="BV96" s="25"/>
+      <c r="BW96" s="25"/>
+      <c r="BX96" s="25"/>
+      <c r="BY96" s="27"/>
+      <c r="BZ96" s="25"/>
+      <c r="CA96" s="25"/>
+      <c r="CB96" s="25"/>
+    </row>
+    <row r="97" spans="1:80" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A97" s="9"/>
       <c r="B97" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
@@ -10170,7 +10516,7 @@
       <c r="P97" s="25"/>
       <c r="Q97" s="25"/>
       <c r="R97" s="25"/>
-      <c r="S97" s="72"/>
+      <c r="S97" s="25"/>
       <c r="T97" s="25"/>
       <c r="U97" s="25"/>
       <c r="V97" s="25"/>
@@ -10198,16 +10544,16 @@
       <c r="AR97" s="25"/>
       <c r="AS97" s="25"/>
       <c r="AT97" s="25"/>
-      <c r="AU97" s="25"/>
-      <c r="AV97" s="25"/>
-      <c r="AW97" s="25"/>
-      <c r="AX97" s="25"/>
-      <c r="AY97" s="25"/>
-      <c r="AZ97" s="25"/>
-      <c r="BA97" s="25"/>
-      <c r="BB97" s="25"/>
-      <c r="BC97" s="25"/>
-      <c r="BD97" s="25"/>
+      <c r="AU97" s="73"/>
+      <c r="AV97" s="73"/>
+      <c r="AW97" s="73"/>
+      <c r="AX97" s="73"/>
+      <c r="AY97" s="73"/>
+      <c r="AZ97" s="72"/>
+      <c r="BA97" s="72"/>
+      <c r="BB97" s="72"/>
+      <c r="BC97" s="72"/>
+      <c r="BD97" s="76"/>
       <c r="BE97" s="25"/>
       <c r="BF97" s="25"/>
       <c r="BG97" s="25"/>
@@ -10227,96 +10573,104 @@
       <c r="BU97" s="25"/>
       <c r="BV97" s="25"/>
       <c r="BW97" s="25"/>
-      <c r="BX97" s="27"/>
-      <c r="BY97" s="25"/>
+      <c r="BX97" s="25"/>
+      <c r="BY97" s="27"/>
       <c r="BZ97" s="25"/>
-      <c r="CA97" s="9"/>
-    </row>
-    <row r="98" spans="1:79" ht="17.25" customHeight="1">
-      <c r="A98" s="9"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="25"/>
-      <c r="Q98" s="25"/>
-      <c r="R98" s="25"/>
-      <c r="S98" s="25"/>
-      <c r="T98" s="25"/>
-      <c r="U98" s="25"/>
-      <c r="V98" s="25"/>
-      <c r="W98" s="25"/>
-      <c r="X98" s="25"/>
-      <c r="Y98" s="25"/>
-      <c r="Z98" s="25"/>
-      <c r="AA98" s="25"/>
-      <c r="AB98" s="25"/>
-      <c r="AC98" s="25"/>
-      <c r="AD98" s="25"/>
-      <c r="AE98" s="25"/>
-      <c r="AF98" s="25"/>
-      <c r="AG98" s="25"/>
-      <c r="AH98" s="25"/>
-      <c r="AI98" s="25"/>
-      <c r="AJ98" s="25"/>
-      <c r="AK98" s="25"/>
-      <c r="AL98" s="25"/>
-      <c r="AM98" s="25"/>
-      <c r="AN98" s="25"/>
-      <c r="AO98" s="25"/>
-      <c r="AP98" s="25"/>
-      <c r="AQ98" s="25"/>
-      <c r="AR98" s="25"/>
-      <c r="AS98" s="25"/>
-      <c r="AT98" s="25"/>
-      <c r="AU98" s="25"/>
-      <c r="AV98" s="25"/>
-      <c r="AW98" s="25"/>
-      <c r="AX98" s="25"/>
-      <c r="AY98" s="25"/>
-      <c r="AZ98" s="25"/>
-      <c r="BA98" s="25"/>
-      <c r="BB98" s="25"/>
-      <c r="BC98" s="25"/>
-      <c r="BD98" s="25"/>
-      <c r="BE98" s="25"/>
-      <c r="BF98" s="25"/>
-      <c r="BG98" s="25"/>
-      <c r="BH98" s="25"/>
-      <c r="BI98" s="25"/>
-      <c r="BJ98" s="25"/>
-      <c r="BK98" s="25"/>
-      <c r="BL98" s="25"/>
-      <c r="BM98" s="25"/>
-      <c r="BN98" s="25"/>
-      <c r="BO98" s="25"/>
-      <c r="BP98" s="25"/>
-      <c r="BQ98" s="25"/>
-      <c r="BR98" s="25"/>
-      <c r="BS98" s="25"/>
-      <c r="BT98" s="25"/>
-      <c r="BU98" s="25"/>
-      <c r="BV98" s="25"/>
-      <c r="BW98" s="25"/>
-      <c r="BX98" s="27"/>
-      <c r="BY98" s="25"/>
-      <c r="BZ98" s="25"/>
-      <c r="CA98" s="9"/>
-    </row>
-    <row r="99" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA97" s="25"/>
+      <c r="CB97" s="25"/>
+    </row>
+    <row r="98" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
+      <c r="A98" s="43"/>
+      <c r="B98" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
+      <c r="P98" s="45"/>
+      <c r="Q98" s="45"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="45"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="45"/>
+      <c r="V98" s="45"/>
+      <c r="W98" s="45"/>
+      <c r="X98" s="45"/>
+      <c r="Y98" s="45"/>
+      <c r="Z98" s="45"/>
+      <c r="AA98" s="45"/>
+      <c r="AB98" s="45"/>
+      <c r="AC98" s="45"/>
+      <c r="AD98" s="45"/>
+      <c r="AE98" s="45"/>
+      <c r="AF98" s="45"/>
+      <c r="AG98" s="45"/>
+      <c r="AH98" s="45"/>
+      <c r="AI98" s="45"/>
+      <c r="AJ98" s="45"/>
+      <c r="AK98" s="45"/>
+      <c r="AL98" s="45"/>
+      <c r="AM98" s="45"/>
+      <c r="AN98" s="45"/>
+      <c r="AO98" s="45"/>
+      <c r="AP98" s="45"/>
+      <c r="AQ98" s="45"/>
+      <c r="AR98" s="45"/>
+      <c r="AS98" s="45"/>
+      <c r="AT98" s="45"/>
+      <c r="AU98" s="45"/>
+      <c r="AV98" s="45"/>
+      <c r="AW98" s="45"/>
+      <c r="AX98" s="45"/>
+      <c r="AY98" s="45"/>
+      <c r="AZ98" s="45"/>
+      <c r="BA98" s="45"/>
+      <c r="BB98" s="45"/>
+      <c r="BC98" s="45"/>
+      <c r="BD98" s="45"/>
+      <c r="BE98" s="45"/>
+      <c r="BF98" s="45"/>
+      <c r="BG98" s="45"/>
+      <c r="BH98" s="45"/>
+      <c r="BI98" s="45"/>
+      <c r="BJ98" s="45"/>
+      <c r="BK98" s="45"/>
+      <c r="BL98" s="45"/>
+      <c r="BM98" s="45"/>
+      <c r="BN98" s="45"/>
+      <c r="BO98" s="45"/>
+      <c r="BP98" s="45"/>
+      <c r="BQ98" s="45"/>
+      <c r="BR98" s="45"/>
+      <c r="BS98" s="45"/>
+      <c r="BT98" s="45"/>
+      <c r="BU98" s="45"/>
+      <c r="BV98" s="45"/>
+      <c r="BW98" s="45"/>
+      <c r="BX98" s="45"/>
+      <c r="BY98" s="45"/>
+      <c r="BZ98" s="45"/>
+      <c r="CA98" s="45"/>
+      <c r="CB98" s="45"/>
+    </row>
+    <row r="99" spans="1:80" ht="17.25" customHeight="1">
       <c r="A99" s="9"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="103">
+        <v>0.5</v>
+      </c>
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
@@ -10332,7 +10686,7 @@
       <c r="P99" s="25"/>
       <c r="Q99" s="25"/>
       <c r="R99" s="25"/>
-      <c r="S99" s="25"/>
+      <c r="S99" s="72"/>
       <c r="T99" s="25"/>
       <c r="U99" s="25"/>
       <c r="V99" s="25"/>
@@ -10389,16 +10743,19 @@
       <c r="BU99" s="25"/>
       <c r="BV99" s="25"/>
       <c r="BW99" s="25"/>
-      <c r="BX99" s="27"/>
-      <c r="BY99" s="25"/>
+      <c r="BX99" s="25"/>
+      <c r="BY99" s="27"/>
       <c r="BZ99" s="25"/>
-      <c r="CA99" s="9"/>
-    </row>
-    <row r="100" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA99" s="25"/>
+      <c r="CB99" s="25"/>
+    </row>
+    <row r="100" spans="1:80" ht="17.25" customHeight="1">
       <c r="A100" s="9"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="25"/>
+      <c r="B100" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="112"/>
+      <c r="D100" s="102"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
@@ -10466,19 +10823,24 @@
       <c r="BQ100" s="25"/>
       <c r="BR100" s="25"/>
       <c r="BS100" s="25"/>
-      <c r="BT100" s="25"/>
+      <c r="BT100" s="72"/>
       <c r="BU100" s="25"/>
       <c r="BV100" s="25"/>
       <c r="BW100" s="25"/>
-      <c r="BX100" s="27"/>
-      <c r="BY100" s="25"/>
+      <c r="BX100" s="25"/>
+      <c r="BY100" s="27"/>
       <c r="BZ100" s="25"/>
-      <c r="CA100" s="9"/>
-    </row>
-    <row r="101" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA100" s="25"/>
+      <c r="CB100" s="73"/>
+    </row>
+    <row r="101" spans="1:80" ht="17.25" customHeight="1">
       <c r="A101" s="9"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="104">
+        <v>4</v>
+      </c>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
@@ -10551,15 +10913,18 @@
       <c r="BU101" s="25"/>
       <c r="BV101" s="25"/>
       <c r="BW101" s="25"/>
-      <c r="BX101" s="27"/>
-      <c r="BY101" s="25"/>
-      <c r="BZ101" s="25"/>
-      <c r="CA101" s="9"/>
-    </row>
-    <row r="102" spans="1:79" ht="17.25" customHeight="1">
+      <c r="BX101" s="72"/>
+      <c r="BY101" s="107"/>
+      <c r="BZ101" s="72"/>
+      <c r="CA101" s="72"/>
+      <c r="CB101" s="25"/>
+    </row>
+    <row r="102" spans="1:80" ht="17.25" customHeight="1">
       <c r="A102" s="9"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
+      <c r="B102" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="113"/>
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
@@ -10632,15 +10997,18 @@
       <c r="BU102" s="25"/>
       <c r="BV102" s="25"/>
       <c r="BW102" s="25"/>
-      <c r="BX102" s="27"/>
-      <c r="BY102" s="25"/>
+      <c r="BX102" s="25"/>
+      <c r="BY102" s="27"/>
       <c r="BZ102" s="25"/>
-      <c r="CA102" s="9"/>
-    </row>
-    <row r="103" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA102" s="25"/>
+      <c r="CB102" s="72"/>
+    </row>
+    <row r="103" spans="1:80" ht="17.25" customHeight="1">
       <c r="A103" s="9"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="26"/>
+      <c r="B103" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="114"/>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
@@ -10713,12 +11081,13 @@
       <c r="BU103" s="25"/>
       <c r="BV103" s="25"/>
       <c r="BW103" s="25"/>
-      <c r="BX103" s="27"/>
-      <c r="BY103" s="25"/>
+      <c r="BX103" s="25"/>
+      <c r="BY103" s="27"/>
       <c r="BZ103" s="25"/>
-      <c r="CA103" s="9"/>
-    </row>
-    <row r="104" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA103" s="25"/>
+      <c r="CB103" s="72"/>
+    </row>
+    <row r="104" spans="1:80" ht="17.25" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
@@ -10794,12 +11163,13 @@
       <c r="BU104" s="25"/>
       <c r="BV104" s="25"/>
       <c r="BW104" s="25"/>
-      <c r="BX104" s="27"/>
-      <c r="BY104" s="25"/>
+      <c r="BX104" s="25"/>
+      <c r="BY104" s="27"/>
       <c r="BZ104" s="25"/>
-      <c r="CA104" s="9"/>
-    </row>
-    <row r="105" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA104" s="25"/>
+      <c r="CB104" s="25"/>
+    </row>
+    <row r="105" spans="1:80" ht="17.25" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
@@ -10875,12 +11245,13 @@
       <c r="BU105" s="25"/>
       <c r="BV105" s="25"/>
       <c r="BW105" s="25"/>
-      <c r="BX105" s="27"/>
-      <c r="BY105" s="25"/>
+      <c r="BX105" s="25"/>
+      <c r="BY105" s="27"/>
       <c r="BZ105" s="25"/>
-      <c r="CA105" s="9"/>
-    </row>
-    <row r="106" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA105" s="25"/>
+      <c r="CB105" s="25"/>
+    </row>
+    <row r="106" spans="1:80" ht="17.25" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
@@ -10956,12 +11327,13 @@
       <c r="BU106" s="25"/>
       <c r="BV106" s="25"/>
       <c r="BW106" s="25"/>
-      <c r="BX106" s="27"/>
-      <c r="BY106" s="25"/>
+      <c r="BX106" s="25"/>
+      <c r="BY106" s="27"/>
       <c r="BZ106" s="25"/>
-      <c r="CA106" s="9"/>
-    </row>
-    <row r="107" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA106" s="25"/>
+      <c r="CB106" s="25"/>
+    </row>
+    <row r="107" spans="1:80" ht="17.25" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
@@ -11037,12 +11409,13 @@
       <c r="BU107" s="25"/>
       <c r="BV107" s="25"/>
       <c r="BW107" s="25"/>
-      <c r="BX107" s="27"/>
-      <c r="BY107" s="25"/>
+      <c r="BX107" s="25"/>
+      <c r="BY107" s="27"/>
       <c r="BZ107" s="25"/>
-      <c r="CA107" s="9"/>
-    </row>
-    <row r="108" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA107" s="25"/>
+      <c r="CB107" s="25"/>
+    </row>
+    <row r="108" spans="1:80" ht="17.25" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
@@ -11118,12 +11491,13 @@
       <c r="BU108" s="25"/>
       <c r="BV108" s="25"/>
       <c r="BW108" s="25"/>
-      <c r="BX108" s="27"/>
-      <c r="BY108" s="25"/>
+      <c r="BX108" s="25"/>
+      <c r="BY108" s="27"/>
       <c r="BZ108" s="25"/>
-      <c r="CA108" s="9"/>
-    </row>
-    <row r="109" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA108" s="25"/>
+      <c r="CB108" s="25"/>
+    </row>
+    <row r="109" spans="1:80" ht="17.25" customHeight="1">
       <c r="A109" s="9"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
@@ -11199,12 +11573,13 @@
       <c r="BU109" s="25"/>
       <c r="BV109" s="25"/>
       <c r="BW109" s="25"/>
-      <c r="BX109" s="27"/>
-      <c r="BY109" s="25"/>
+      <c r="BX109" s="25"/>
+      <c r="BY109" s="27"/>
       <c r="BZ109" s="25"/>
-      <c r="CA109" s="9"/>
-    </row>
-    <row r="110" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA109" s="25"/>
+      <c r="CB109" s="25"/>
+    </row>
+    <row r="110" spans="1:80" ht="17.25" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
@@ -11280,12 +11655,13 @@
       <c r="BU110" s="25"/>
       <c r="BV110" s="25"/>
       <c r="BW110" s="25"/>
-      <c r="BX110" s="27"/>
-      <c r="BY110" s="25"/>
+      <c r="BX110" s="25"/>
+      <c r="BY110" s="27"/>
       <c r="BZ110" s="25"/>
-      <c r="CA110" s="9"/>
-    </row>
-    <row r="111" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA110" s="25"/>
+      <c r="CB110" s="25"/>
+    </row>
+    <row r="111" spans="1:80" ht="17.25" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
@@ -11361,12 +11737,13 @@
       <c r="BU111" s="25"/>
       <c r="BV111" s="25"/>
       <c r="BW111" s="25"/>
-      <c r="BX111" s="27"/>
-      <c r="BY111" s="25"/>
+      <c r="BX111" s="25"/>
+      <c r="BY111" s="27"/>
       <c r="BZ111" s="25"/>
-      <c r="CA111" s="9"/>
-    </row>
-    <row r="112" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA111" s="25"/>
+      <c r="CB111" s="25"/>
+    </row>
+    <row r="112" spans="1:80" ht="17.25" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
@@ -11442,12 +11819,13 @@
       <c r="BU112" s="25"/>
       <c r="BV112" s="25"/>
       <c r="BW112" s="25"/>
-      <c r="BX112" s="27"/>
-      <c r="BY112" s="25"/>
+      <c r="BX112" s="25"/>
+      <c r="BY112" s="27"/>
       <c r="BZ112" s="25"/>
-      <c r="CA112" s="9"/>
-    </row>
-    <row r="113" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA112" s="25"/>
+      <c r="CB112" s="25"/>
+    </row>
+    <row r="113" spans="1:80" ht="17.25" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
@@ -11523,12 +11901,13 @@
       <c r="BU113" s="25"/>
       <c r="BV113" s="25"/>
       <c r="BW113" s="25"/>
-      <c r="BX113" s="27"/>
-      <c r="BY113" s="25"/>
+      <c r="BX113" s="25"/>
+      <c r="BY113" s="27"/>
       <c r="BZ113" s="25"/>
-      <c r="CA113" s="9"/>
-    </row>
-    <row r="114" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA113" s="25"/>
+      <c r="CB113" s="25"/>
+    </row>
+    <row r="114" spans="1:80" ht="17.25" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
@@ -11604,12 +11983,13 @@
       <c r="BU114" s="25"/>
       <c r="BV114" s="25"/>
       <c r="BW114" s="25"/>
-      <c r="BX114" s="27"/>
-      <c r="BY114" s="25"/>
+      <c r="BX114" s="25"/>
+      <c r="BY114" s="27"/>
       <c r="BZ114" s="25"/>
-      <c r="CA114" s="9"/>
-    </row>
-    <row r="115" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA114" s="25"/>
+      <c r="CB114" s="25"/>
+    </row>
+    <row r="115" spans="1:80" ht="17.25" customHeight="1">
       <c r="A115" s="9"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
@@ -11685,12 +12065,13 @@
       <c r="BU115" s="25"/>
       <c r="BV115" s="25"/>
       <c r="BW115" s="25"/>
-      <c r="BX115" s="27"/>
-      <c r="BY115" s="25"/>
+      <c r="BX115" s="25"/>
+      <c r="BY115" s="27"/>
       <c r="BZ115" s="25"/>
-      <c r="CA115" s="9"/>
-    </row>
-    <row r="116" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA115" s="25"/>
+      <c r="CB115" s="25"/>
+    </row>
+    <row r="116" spans="1:80" ht="17.25" customHeight="1">
       <c r="A116" s="9"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
@@ -11766,12 +12147,13 @@
       <c r="BU116" s="25"/>
       <c r="BV116" s="25"/>
       <c r="BW116" s="25"/>
-      <c r="BX116" s="27"/>
-      <c r="BY116" s="25"/>
+      <c r="BX116" s="25"/>
+      <c r="BY116" s="27"/>
       <c r="BZ116" s="25"/>
-      <c r="CA116" s="9"/>
-    </row>
-    <row r="117" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA116" s="25"/>
+      <c r="CB116" s="25"/>
+    </row>
+    <row r="117" spans="1:80" ht="17.25" customHeight="1">
       <c r="A117" s="9"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
@@ -11847,12 +12229,13 @@
       <c r="BU117" s="25"/>
       <c r="BV117" s="25"/>
       <c r="BW117" s="25"/>
-      <c r="BX117" s="27"/>
-      <c r="BY117" s="25"/>
+      <c r="BX117" s="25"/>
+      <c r="BY117" s="27"/>
       <c r="BZ117" s="25"/>
-      <c r="CA117" s="9"/>
-    </row>
-    <row r="118" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA117" s="25"/>
+      <c r="CB117" s="25"/>
+    </row>
+    <row r="118" spans="1:80" ht="17.25" customHeight="1">
       <c r="A118" s="9"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
@@ -11928,12 +12311,13 @@
       <c r="BU118" s="25"/>
       <c r="BV118" s="25"/>
       <c r="BW118" s="25"/>
-      <c r="BX118" s="27"/>
-      <c r="BY118" s="25"/>
+      <c r="BX118" s="25"/>
+      <c r="BY118" s="27"/>
       <c r="BZ118" s="25"/>
-      <c r="CA118" s="9"/>
-    </row>
-    <row r="119" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA118" s="25"/>
+      <c r="CB118" s="25"/>
+    </row>
+    <row r="119" spans="1:80" ht="17.25" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
@@ -12009,12 +12393,13 @@
       <c r="BU119" s="25"/>
       <c r="BV119" s="25"/>
       <c r="BW119" s="25"/>
-      <c r="BX119" s="27"/>
-      <c r="BY119" s="25"/>
+      <c r="BX119" s="25"/>
+      <c r="BY119" s="27"/>
       <c r="BZ119" s="25"/>
-      <c r="CA119" s="9"/>
-    </row>
-    <row r="120" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA119" s="25"/>
+      <c r="CB119" s="25"/>
+    </row>
+    <row r="120" spans="1:80" ht="17.25" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
@@ -12090,12 +12475,13 @@
       <c r="BU120" s="25"/>
       <c r="BV120" s="25"/>
       <c r="BW120" s="25"/>
-      <c r="BX120" s="27"/>
-      <c r="BY120" s="25"/>
+      <c r="BX120" s="25"/>
+      <c r="BY120" s="27"/>
       <c r="BZ120" s="25"/>
-      <c r="CA120" s="9"/>
-    </row>
-    <row r="121" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA120" s="25"/>
+      <c r="CB120" s="25"/>
+    </row>
+    <row r="121" spans="1:80" ht="17.25" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
@@ -12171,12 +12557,13 @@
       <c r="BU121" s="25"/>
       <c r="BV121" s="25"/>
       <c r="BW121" s="25"/>
-      <c r="BX121" s="27"/>
-      <c r="BY121" s="25"/>
+      <c r="BX121" s="25"/>
+      <c r="BY121" s="27"/>
       <c r="BZ121" s="25"/>
-      <c r="CA121" s="9"/>
-    </row>
-    <row r="122" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA121" s="25"/>
+      <c r="CB121" s="25"/>
+    </row>
+    <row r="122" spans="1:80" ht="17.25" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
@@ -12252,12 +12639,13 @@
       <c r="BU122" s="25"/>
       <c r="BV122" s="25"/>
       <c r="BW122" s="25"/>
-      <c r="BX122" s="27"/>
-      <c r="BY122" s="25"/>
+      <c r="BX122" s="25"/>
+      <c r="BY122" s="27"/>
       <c r="BZ122" s="25"/>
-      <c r="CA122" s="9"/>
-    </row>
-    <row r="123" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA122" s="25"/>
+      <c r="CB122" s="25"/>
+    </row>
+    <row r="123" spans="1:80" ht="17.25" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
@@ -12333,12 +12721,13 @@
       <c r="BU123" s="25"/>
       <c r="BV123" s="25"/>
       <c r="BW123" s="25"/>
-      <c r="BX123" s="27"/>
-      <c r="BY123" s="25"/>
+      <c r="BX123" s="25"/>
+      <c r="BY123" s="27"/>
       <c r="BZ123" s="25"/>
-      <c r="CA123" s="9"/>
-    </row>
-    <row r="124" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA123" s="25"/>
+      <c r="CB123" s="25"/>
+    </row>
+    <row r="124" spans="1:80" ht="17.25" customHeight="1">
       <c r="A124" s="9"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
@@ -12414,12 +12803,13 @@
       <c r="BU124" s="25"/>
       <c r="BV124" s="25"/>
       <c r="BW124" s="25"/>
-      <c r="BX124" s="27"/>
-      <c r="BY124" s="25"/>
+      <c r="BX124" s="25"/>
+      <c r="BY124" s="27"/>
       <c r="BZ124" s="25"/>
-      <c r="CA124" s="9"/>
-    </row>
-    <row r="125" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA124" s="25"/>
+      <c r="CB124" s="25"/>
+    </row>
+    <row r="125" spans="1:80" ht="17.25" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
@@ -12495,12 +12885,13 @@
       <c r="BU125" s="25"/>
       <c r="BV125" s="25"/>
       <c r="BW125" s="25"/>
-      <c r="BX125" s="27"/>
-      <c r="BY125" s="25"/>
+      <c r="BX125" s="25"/>
+      <c r="BY125" s="27"/>
       <c r="BZ125" s="25"/>
-      <c r="CA125" s="9"/>
-    </row>
-    <row r="126" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA125" s="25"/>
+      <c r="CB125" s="25"/>
+    </row>
+    <row r="126" spans="1:80" ht="17.25" customHeight="1">
       <c r="A126" s="9"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
@@ -12576,12 +12967,13 @@
       <c r="BU126" s="25"/>
       <c r="BV126" s="25"/>
       <c r="BW126" s="25"/>
-      <c r="BX126" s="27"/>
-      <c r="BY126" s="25"/>
+      <c r="BX126" s="25"/>
+      <c r="BY126" s="27"/>
       <c r="BZ126" s="25"/>
-      <c r="CA126" s="9"/>
-    </row>
-    <row r="127" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA126" s="25"/>
+      <c r="CB126" s="25"/>
+    </row>
+    <row r="127" spans="1:80" ht="17.25" customHeight="1">
       <c r="A127" s="9"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
@@ -12657,12 +13049,13 @@
       <c r="BU127" s="25"/>
       <c r="BV127" s="25"/>
       <c r="BW127" s="25"/>
-      <c r="BX127" s="27"/>
-      <c r="BY127" s="25"/>
+      <c r="BX127" s="25"/>
+      <c r="BY127" s="27"/>
       <c r="BZ127" s="25"/>
-      <c r="CA127" s="9"/>
-    </row>
-    <row r="128" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA127" s="25"/>
+      <c r="CB127" s="25"/>
+    </row>
+    <row r="128" spans="1:80" ht="17.25" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
@@ -12738,12 +13131,13 @@
       <c r="BU128" s="25"/>
       <c r="BV128" s="25"/>
       <c r="BW128" s="25"/>
-      <c r="BX128" s="27"/>
-      <c r="BY128" s="25"/>
+      <c r="BX128" s="25"/>
+      <c r="BY128" s="27"/>
       <c r="BZ128" s="25"/>
-      <c r="CA128" s="9"/>
-    </row>
-    <row r="129" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA128" s="25"/>
+      <c r="CB128" s="25"/>
+    </row>
+    <row r="129" spans="1:80" ht="17.25" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
@@ -12819,12 +13213,13 @@
       <c r="BU129" s="25"/>
       <c r="BV129" s="25"/>
       <c r="BW129" s="25"/>
-      <c r="BX129" s="27"/>
-      <c r="BY129" s="25"/>
+      <c r="BX129" s="25"/>
+      <c r="BY129" s="27"/>
       <c r="BZ129" s="25"/>
-      <c r="CA129" s="9"/>
-    </row>
-    <row r="130" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA129" s="25"/>
+      <c r="CB129" s="25"/>
+    </row>
+    <row r="130" spans="1:80" ht="17.25" customHeight="1">
       <c r="A130" s="9"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
@@ -12900,12 +13295,13 @@
       <c r="BU130" s="25"/>
       <c r="BV130" s="25"/>
       <c r="BW130" s="25"/>
-      <c r="BX130" s="27"/>
-      <c r="BY130" s="25"/>
+      <c r="BX130" s="25"/>
+      <c r="BY130" s="27"/>
       <c r="BZ130" s="25"/>
-      <c r="CA130" s="9"/>
-    </row>
-    <row r="131" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA130" s="25"/>
+      <c r="CB130" s="25"/>
+    </row>
+    <row r="131" spans="1:80" ht="17.25" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
@@ -12981,12 +13377,13 @@
       <c r="BU131" s="25"/>
       <c r="BV131" s="25"/>
       <c r="BW131" s="25"/>
-      <c r="BX131" s="27"/>
-      <c r="BY131" s="25"/>
+      <c r="BX131" s="25"/>
+      <c r="BY131" s="27"/>
       <c r="BZ131" s="25"/>
-      <c r="CA131" s="9"/>
-    </row>
-    <row r="132" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA131" s="25"/>
+      <c r="CB131" s="25"/>
+    </row>
+    <row r="132" spans="1:80" ht="17.25" customHeight="1">
       <c r="A132" s="9"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
@@ -13062,12 +13459,13 @@
       <c r="BU132" s="25"/>
       <c r="BV132" s="25"/>
       <c r="BW132" s="25"/>
-      <c r="BX132" s="27"/>
-      <c r="BY132" s="25"/>
+      <c r="BX132" s="25"/>
+      <c r="BY132" s="27"/>
       <c r="BZ132" s="25"/>
-      <c r="CA132" s="9"/>
-    </row>
-    <row r="133" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA132" s="25"/>
+      <c r="CB132" s="25"/>
+    </row>
+    <row r="133" spans="1:80" ht="17.25" customHeight="1">
       <c r="A133" s="9"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
@@ -13143,12 +13541,13 @@
       <c r="BU133" s="25"/>
       <c r="BV133" s="25"/>
       <c r="BW133" s="25"/>
-      <c r="BX133" s="27"/>
-      <c r="BY133" s="25"/>
+      <c r="BX133" s="25"/>
+      <c r="BY133" s="27"/>
       <c r="BZ133" s="25"/>
-      <c r="CA133" s="9"/>
-    </row>
-    <row r="134" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA133" s="25"/>
+      <c r="CB133" s="25"/>
+    </row>
+    <row r="134" spans="1:80" ht="17.25" customHeight="1">
       <c r="A134" s="9"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
@@ -13224,12 +13623,13 @@
       <c r="BU134" s="25"/>
       <c r="BV134" s="25"/>
       <c r="BW134" s="25"/>
-      <c r="BX134" s="27"/>
-      <c r="BY134" s="25"/>
+      <c r="BX134" s="25"/>
+      <c r="BY134" s="27"/>
       <c r="BZ134" s="25"/>
-      <c r="CA134" s="9"/>
-    </row>
-    <row r="135" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA134" s="25"/>
+      <c r="CB134" s="25"/>
+    </row>
+    <row r="135" spans="1:80" ht="17.25" customHeight="1">
       <c r="A135" s="9"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
@@ -13305,12 +13705,13 @@
       <c r="BU135" s="25"/>
       <c r="BV135" s="25"/>
       <c r="BW135" s="25"/>
-      <c r="BX135" s="27"/>
-      <c r="BY135" s="25"/>
+      <c r="BX135" s="25"/>
+      <c r="BY135" s="27"/>
       <c r="BZ135" s="25"/>
-      <c r="CA135" s="9"/>
-    </row>
-    <row r="136" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA135" s="25"/>
+      <c r="CB135" s="25"/>
+    </row>
+    <row r="136" spans="1:80" ht="17.25" customHeight="1">
       <c r="A136" s="9"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
@@ -13386,12 +13787,13 @@
       <c r="BU136" s="25"/>
       <c r="BV136" s="25"/>
       <c r="BW136" s="25"/>
-      <c r="BX136" s="27"/>
-      <c r="BY136" s="25"/>
+      <c r="BX136" s="25"/>
+      <c r="BY136" s="27"/>
       <c r="BZ136" s="25"/>
-      <c r="CA136" s="9"/>
-    </row>
-    <row r="137" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA136" s="25"/>
+      <c r="CB136" s="25"/>
+    </row>
+    <row r="137" spans="1:80" ht="17.25" customHeight="1">
       <c r="A137" s="9"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
@@ -13467,12 +13869,13 @@
       <c r="BU137" s="25"/>
       <c r="BV137" s="25"/>
       <c r="BW137" s="25"/>
-      <c r="BX137" s="27"/>
-      <c r="BY137" s="25"/>
+      <c r="BX137" s="25"/>
+      <c r="BY137" s="27"/>
       <c r="BZ137" s="25"/>
-      <c r="CA137" s="9"/>
-    </row>
-    <row r="138" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA137" s="25"/>
+      <c r="CB137" s="25"/>
+    </row>
+    <row r="138" spans="1:80" ht="17.25" customHeight="1">
       <c r="A138" s="9"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
@@ -13548,12 +13951,13 @@
       <c r="BU138" s="25"/>
       <c r="BV138" s="25"/>
       <c r="BW138" s="25"/>
-      <c r="BX138" s="27"/>
-      <c r="BY138" s="25"/>
+      <c r="BX138" s="25"/>
+      <c r="BY138" s="27"/>
       <c r="BZ138" s="25"/>
-      <c r="CA138" s="9"/>
-    </row>
-    <row r="139" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA138" s="25"/>
+      <c r="CB138" s="25"/>
+    </row>
+    <row r="139" spans="1:80" ht="17.25" customHeight="1">
       <c r="A139" s="9"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
@@ -13629,12 +14033,13 @@
       <c r="BU139" s="25"/>
       <c r="BV139" s="25"/>
       <c r="BW139" s="25"/>
-      <c r="BX139" s="27"/>
-      <c r="BY139" s="25"/>
+      <c r="BX139" s="25"/>
+      <c r="BY139" s="27"/>
       <c r="BZ139" s="25"/>
-      <c r="CA139" s="9"/>
-    </row>
-    <row r="140" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA139" s="25"/>
+      <c r="CB139" s="25"/>
+    </row>
+    <row r="140" spans="1:80" ht="17.25" customHeight="1">
       <c r="A140" s="9"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
@@ -13710,12 +14115,13 @@
       <c r="BU140" s="25"/>
       <c r="BV140" s="25"/>
       <c r="BW140" s="25"/>
-      <c r="BX140" s="27"/>
-      <c r="BY140" s="25"/>
+      <c r="BX140" s="25"/>
+      <c r="BY140" s="27"/>
       <c r="BZ140" s="25"/>
-      <c r="CA140" s="9"/>
-    </row>
-    <row r="141" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA140" s="25"/>
+      <c r="CB140" s="25"/>
+    </row>
+    <row r="141" spans="1:80" ht="17.25" customHeight="1">
       <c r="A141" s="9"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
@@ -13791,12 +14197,13 @@
       <c r="BU141" s="25"/>
       <c r="BV141" s="25"/>
       <c r="BW141" s="25"/>
-      <c r="BX141" s="27"/>
-      <c r="BY141" s="25"/>
+      <c r="BX141" s="25"/>
+      <c r="BY141" s="27"/>
       <c r="BZ141" s="25"/>
-      <c r="CA141" s="9"/>
-    </row>
-    <row r="142" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA141" s="25"/>
+      <c r="CB141" s="25"/>
+    </row>
+    <row r="142" spans="1:80" ht="17.25" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
@@ -13872,12 +14279,13 @@
       <c r="BU142" s="25"/>
       <c r="BV142" s="25"/>
       <c r="BW142" s="25"/>
-      <c r="BX142" s="27"/>
-      <c r="BY142" s="25"/>
+      <c r="BX142" s="25"/>
+      <c r="BY142" s="27"/>
       <c r="BZ142" s="25"/>
-      <c r="CA142" s="9"/>
-    </row>
-    <row r="143" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA142" s="25"/>
+      <c r="CB142" s="25"/>
+    </row>
+    <row r="143" spans="1:80" ht="17.25" customHeight="1">
       <c r="A143" s="9"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
@@ -13953,12 +14361,13 @@
       <c r="BU143" s="25"/>
       <c r="BV143" s="25"/>
       <c r="BW143" s="25"/>
-      <c r="BX143" s="27"/>
-      <c r="BY143" s="25"/>
+      <c r="BX143" s="25"/>
+      <c r="BY143" s="27"/>
       <c r="BZ143" s="25"/>
-      <c r="CA143" s="9"/>
-    </row>
-    <row r="144" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA143" s="25"/>
+      <c r="CB143" s="25"/>
+    </row>
+    <row r="144" spans="1:80" ht="17.25" customHeight="1">
       <c r="A144" s="9"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
@@ -14034,12 +14443,13 @@
       <c r="BU144" s="25"/>
       <c r="BV144" s="25"/>
       <c r="BW144" s="25"/>
-      <c r="BX144" s="27"/>
-      <c r="BY144" s="25"/>
+      <c r="BX144" s="25"/>
+      <c r="BY144" s="27"/>
       <c r="BZ144" s="25"/>
-      <c r="CA144" s="9"/>
-    </row>
-    <row r="145" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA144" s="25"/>
+      <c r="CB144" s="25"/>
+    </row>
+    <row r="145" spans="1:80" ht="17.25" customHeight="1">
       <c r="A145" s="9"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
@@ -14115,12 +14525,13 @@
       <c r="BU145" s="25"/>
       <c r="BV145" s="25"/>
       <c r="BW145" s="25"/>
-      <c r="BX145" s="27"/>
-      <c r="BY145" s="25"/>
+      <c r="BX145" s="25"/>
+      <c r="BY145" s="27"/>
       <c r="BZ145" s="25"/>
-      <c r="CA145" s="9"/>
-    </row>
-    <row r="146" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA145" s="25"/>
+      <c r="CB145" s="25"/>
+    </row>
+    <row r="146" spans="1:80" ht="17.25" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
@@ -14196,12 +14607,13 @@
       <c r="BU146" s="25"/>
       <c r="BV146" s="25"/>
       <c r="BW146" s="25"/>
-      <c r="BX146" s="27"/>
-      <c r="BY146" s="25"/>
+      <c r="BX146" s="25"/>
+      <c r="BY146" s="27"/>
       <c r="BZ146" s="25"/>
-      <c r="CA146" s="9"/>
-    </row>
-    <row r="147" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA146" s="25"/>
+      <c r="CB146" s="25"/>
+    </row>
+    <row r="147" spans="1:80" ht="17.25" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
@@ -14277,12 +14689,13 @@
       <c r="BU147" s="25"/>
       <c r="BV147" s="25"/>
       <c r="BW147" s="25"/>
-      <c r="BX147" s="27"/>
-      <c r="BY147" s="25"/>
+      <c r="BX147" s="25"/>
+      <c r="BY147" s="27"/>
       <c r="BZ147" s="25"/>
-      <c r="CA147" s="9"/>
-    </row>
-    <row r="148" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA147" s="25"/>
+      <c r="CB147" s="25"/>
+    </row>
+    <row r="148" spans="1:80" ht="17.25" customHeight="1">
       <c r="A148" s="9"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
@@ -14358,12 +14771,13 @@
       <c r="BU148" s="25"/>
       <c r="BV148" s="25"/>
       <c r="BW148" s="25"/>
-      <c r="BX148" s="27"/>
-      <c r="BY148" s="25"/>
+      <c r="BX148" s="25"/>
+      <c r="BY148" s="27"/>
       <c r="BZ148" s="25"/>
-      <c r="CA148" s="9"/>
-    </row>
-    <row r="149" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA148" s="25"/>
+      <c r="CB148" s="25"/>
+    </row>
+    <row r="149" spans="1:80" ht="17.25" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
@@ -14439,12 +14853,13 @@
       <c r="BU149" s="25"/>
       <c r="BV149" s="25"/>
       <c r="BW149" s="25"/>
-      <c r="BX149" s="27"/>
-      <c r="BY149" s="25"/>
+      <c r="BX149" s="25"/>
+      <c r="BY149" s="27"/>
       <c r="BZ149" s="25"/>
-      <c r="CA149" s="9"/>
-    </row>
-    <row r="150" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA149" s="25"/>
+      <c r="CB149" s="25"/>
+    </row>
+    <row r="150" spans="1:80" ht="17.25" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
@@ -14520,12 +14935,13 @@
       <c r="BU150" s="25"/>
       <c r="BV150" s="25"/>
       <c r="BW150" s="25"/>
-      <c r="BX150" s="27"/>
-      <c r="BY150" s="25"/>
+      <c r="BX150" s="25"/>
+      <c r="BY150" s="27"/>
       <c r="BZ150" s="25"/>
-      <c r="CA150" s="9"/>
-    </row>
-    <row r="151" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA150" s="25"/>
+      <c r="CB150" s="25"/>
+    </row>
+    <row r="151" spans="1:80" ht="17.25" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
@@ -14601,12 +15017,13 @@
       <c r="BU151" s="25"/>
       <c r="BV151" s="25"/>
       <c r="BW151" s="25"/>
-      <c r="BX151" s="27"/>
-      <c r="BY151" s="25"/>
+      <c r="BX151" s="25"/>
+      <c r="BY151" s="27"/>
       <c r="BZ151" s="25"/>
-      <c r="CA151" s="9"/>
-    </row>
-    <row r="152" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA151" s="25"/>
+      <c r="CB151" s="25"/>
+    </row>
+    <row r="152" spans="1:80" ht="17.25" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
@@ -14682,12 +15099,13 @@
       <c r="BU152" s="25"/>
       <c r="BV152" s="25"/>
       <c r="BW152" s="25"/>
-      <c r="BX152" s="27"/>
-      <c r="BY152" s="25"/>
+      <c r="BX152" s="25"/>
+      <c r="BY152" s="27"/>
       <c r="BZ152" s="25"/>
-      <c r="CA152" s="9"/>
-    </row>
-    <row r="153" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA152" s="25"/>
+      <c r="CB152" s="25"/>
+    </row>
+    <row r="153" spans="1:80" ht="17.25" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
@@ -14763,12 +15181,13 @@
       <c r="BU153" s="25"/>
       <c r="BV153" s="25"/>
       <c r="BW153" s="25"/>
-      <c r="BX153" s="27"/>
-      <c r="BY153" s="25"/>
+      <c r="BX153" s="25"/>
+      <c r="BY153" s="27"/>
       <c r="BZ153" s="25"/>
-      <c r="CA153" s="9"/>
-    </row>
-    <row r="154" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA153" s="25"/>
+      <c r="CB153" s="25"/>
+    </row>
+    <row r="154" spans="1:80" ht="17.25" customHeight="1">
       <c r="A154" s="9"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
@@ -14844,12 +15263,13 @@
       <c r="BU154" s="25"/>
       <c r="BV154" s="25"/>
       <c r="BW154" s="25"/>
-      <c r="BX154" s="27"/>
-      <c r="BY154" s="25"/>
+      <c r="BX154" s="25"/>
+      <c r="BY154" s="27"/>
       <c r="BZ154" s="25"/>
-      <c r="CA154" s="9"/>
-    </row>
-    <row r="155" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA154" s="25"/>
+      <c r="CB154" s="25"/>
+    </row>
+    <row r="155" spans="1:80" ht="17.25" customHeight="1">
       <c r="A155" s="9"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
@@ -14925,12 +15345,13 @@
       <c r="BU155" s="25"/>
       <c r="BV155" s="25"/>
       <c r="BW155" s="25"/>
-      <c r="BX155" s="27"/>
-      <c r="BY155" s="25"/>
+      <c r="BX155" s="25"/>
+      <c r="BY155" s="27"/>
       <c r="BZ155" s="25"/>
-      <c r="CA155" s="9"/>
-    </row>
-    <row r="156" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA155" s="25"/>
+      <c r="CB155" s="25"/>
+    </row>
+    <row r="156" spans="1:80" ht="17.25" customHeight="1">
       <c r="A156" s="9"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
@@ -15006,12 +15427,13 @@
       <c r="BU156" s="25"/>
       <c r="BV156" s="25"/>
       <c r="BW156" s="25"/>
-      <c r="BX156" s="27"/>
-      <c r="BY156" s="25"/>
+      <c r="BX156" s="25"/>
+      <c r="BY156" s="27"/>
       <c r="BZ156" s="25"/>
-      <c r="CA156" s="9"/>
-    </row>
-    <row r="157" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA156" s="25"/>
+      <c r="CB156" s="25"/>
+    </row>
+    <row r="157" spans="1:80" ht="17.25" customHeight="1">
       <c r="A157" s="9"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
@@ -15087,12 +15509,13 @@
       <c r="BU157" s="25"/>
       <c r="BV157" s="25"/>
       <c r="BW157" s="25"/>
-      <c r="BX157" s="27"/>
-      <c r="BY157" s="25"/>
+      <c r="BX157" s="25"/>
+      <c r="BY157" s="27"/>
       <c r="BZ157" s="25"/>
-      <c r="CA157" s="9"/>
-    </row>
-    <row r="158" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA157" s="25"/>
+      <c r="CB157" s="25"/>
+    </row>
+    <row r="158" spans="1:80" ht="17.25" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
@@ -15168,12 +15591,13 @@
       <c r="BU158" s="25"/>
       <c r="BV158" s="25"/>
       <c r="BW158" s="25"/>
-      <c r="BX158" s="27"/>
-      <c r="BY158" s="25"/>
+      <c r="BX158" s="25"/>
+      <c r="BY158" s="27"/>
       <c r="BZ158" s="25"/>
-      <c r="CA158" s="9"/>
-    </row>
-    <row r="159" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA158" s="25"/>
+      <c r="CB158" s="25"/>
+    </row>
+    <row r="159" spans="1:80" ht="17.25" customHeight="1">
       <c r="A159" s="9"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
@@ -15249,12 +15673,13 @@
       <c r="BU159" s="25"/>
       <c r="BV159" s="25"/>
       <c r="BW159" s="25"/>
-      <c r="BX159" s="27"/>
-      <c r="BY159" s="25"/>
+      <c r="BX159" s="25"/>
+      <c r="BY159" s="27"/>
       <c r="BZ159" s="25"/>
-      <c r="CA159" s="9"/>
-    </row>
-    <row r="160" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA159" s="25"/>
+      <c r="CB159" s="25"/>
+    </row>
+    <row r="160" spans="1:80" ht="17.25" customHeight="1">
       <c r="A160" s="9"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
@@ -15330,12 +15755,13 @@
       <c r="BU160" s="25"/>
       <c r="BV160" s="25"/>
       <c r="BW160" s="25"/>
-      <c r="BX160" s="27"/>
-      <c r="BY160" s="25"/>
+      <c r="BX160" s="25"/>
+      <c r="BY160" s="27"/>
       <c r="BZ160" s="25"/>
-      <c r="CA160" s="9"/>
-    </row>
-    <row r="161" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA160" s="25"/>
+      <c r="CB160" s="25"/>
+    </row>
+    <row r="161" spans="1:80" ht="17.25" customHeight="1">
       <c r="A161" s="9"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
@@ -15411,12 +15837,13 @@
       <c r="BU161" s="25"/>
       <c r="BV161" s="25"/>
       <c r="BW161" s="25"/>
-      <c r="BX161" s="27"/>
-      <c r="BY161" s="25"/>
+      <c r="BX161" s="25"/>
+      <c r="BY161" s="27"/>
       <c r="BZ161" s="25"/>
-      <c r="CA161" s="9"/>
-    </row>
-    <row r="162" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA161" s="25"/>
+      <c r="CB161" s="25"/>
+    </row>
+    <row r="162" spans="1:80" ht="17.25" customHeight="1">
       <c r="A162" s="9"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
@@ -15492,12 +15919,13 @@
       <c r="BU162" s="25"/>
       <c r="BV162" s="25"/>
       <c r="BW162" s="25"/>
-      <c r="BX162" s="27"/>
-      <c r="BY162" s="25"/>
+      <c r="BX162" s="25"/>
+      <c r="BY162" s="27"/>
       <c r="BZ162" s="25"/>
-      <c r="CA162" s="9"/>
-    </row>
-    <row r="163" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA162" s="25"/>
+      <c r="CB162" s="25"/>
+    </row>
+    <row r="163" spans="1:80" ht="17.25" customHeight="1">
       <c r="A163" s="9"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
@@ -15573,12 +16001,13 @@
       <c r="BU163" s="25"/>
       <c r="BV163" s="25"/>
       <c r="BW163" s="25"/>
-      <c r="BX163" s="27"/>
-      <c r="BY163" s="25"/>
+      <c r="BX163" s="25"/>
+      <c r="BY163" s="27"/>
       <c r="BZ163" s="25"/>
-      <c r="CA163" s="9"/>
-    </row>
-    <row r="164" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA163" s="25"/>
+      <c r="CB163" s="25"/>
+    </row>
+    <row r="164" spans="1:80" ht="17.25" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
@@ -15654,12 +16083,13 @@
       <c r="BU164" s="25"/>
       <c r="BV164" s="25"/>
       <c r="BW164" s="25"/>
-      <c r="BX164" s="27"/>
-      <c r="BY164" s="25"/>
+      <c r="BX164" s="25"/>
+      <c r="BY164" s="27"/>
       <c r="BZ164" s="25"/>
-      <c r="CA164" s="9"/>
-    </row>
-    <row r="165" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA164" s="25"/>
+      <c r="CB164" s="25"/>
+    </row>
+    <row r="165" spans="1:80" ht="17.25" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
@@ -15735,12 +16165,13 @@
       <c r="BU165" s="25"/>
       <c r="BV165" s="25"/>
       <c r="BW165" s="25"/>
-      <c r="BX165" s="27"/>
-      <c r="BY165" s="25"/>
+      <c r="BX165" s="25"/>
+      <c r="BY165" s="27"/>
       <c r="BZ165" s="25"/>
-      <c r="CA165" s="9"/>
-    </row>
-    <row r="166" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA165" s="25"/>
+      <c r="CB165" s="25"/>
+    </row>
+    <row r="166" spans="1:80" ht="17.25" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
@@ -15816,12 +16247,13 @@
       <c r="BU166" s="25"/>
       <c r="BV166" s="25"/>
       <c r="BW166" s="25"/>
-      <c r="BX166" s="27"/>
-      <c r="BY166" s="25"/>
+      <c r="BX166" s="25"/>
+      <c r="BY166" s="27"/>
       <c r="BZ166" s="25"/>
-      <c r="CA166" s="9"/>
-    </row>
-    <row r="167" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA166" s="25"/>
+      <c r="CB166" s="25"/>
+    </row>
+    <row r="167" spans="1:80" ht="17.25" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
@@ -15897,12 +16329,13 @@
       <c r="BU167" s="25"/>
       <c r="BV167" s="25"/>
       <c r="BW167" s="25"/>
-      <c r="BX167" s="27"/>
-      <c r="BY167" s="25"/>
+      <c r="BX167" s="25"/>
+      <c r="BY167" s="27"/>
       <c r="BZ167" s="25"/>
-      <c r="CA167" s="9"/>
-    </row>
-    <row r="168" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA167" s="25"/>
+      <c r="CB167" s="25"/>
+    </row>
+    <row r="168" spans="1:80" ht="17.25" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
@@ -15978,12 +16411,13 @@
       <c r="BU168" s="25"/>
       <c r="BV168" s="25"/>
       <c r="BW168" s="25"/>
-      <c r="BX168" s="27"/>
-      <c r="BY168" s="25"/>
+      <c r="BX168" s="25"/>
+      <c r="BY168" s="27"/>
       <c r="BZ168" s="25"/>
-      <c r="CA168" s="9"/>
-    </row>
-    <row r="169" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA168" s="25"/>
+      <c r="CB168" s="25"/>
+    </row>
+    <row r="169" spans="1:80" ht="17.25" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
@@ -16059,12 +16493,13 @@
       <c r="BU169" s="25"/>
       <c r="BV169" s="25"/>
       <c r="BW169" s="25"/>
-      <c r="BX169" s="27"/>
-      <c r="BY169" s="25"/>
+      <c r="BX169" s="25"/>
+      <c r="BY169" s="27"/>
       <c r="BZ169" s="25"/>
-      <c r="CA169" s="9"/>
-    </row>
-    <row r="170" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA169" s="25"/>
+      <c r="CB169" s="25"/>
+    </row>
+    <row r="170" spans="1:80" ht="17.25" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
@@ -16140,12 +16575,13 @@
       <c r="BU170" s="25"/>
       <c r="BV170" s="25"/>
       <c r="BW170" s="25"/>
-      <c r="BX170" s="27"/>
-      <c r="BY170" s="25"/>
+      <c r="BX170" s="25"/>
+      <c r="BY170" s="27"/>
       <c r="BZ170" s="25"/>
-      <c r="CA170" s="9"/>
-    </row>
-    <row r="171" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA170" s="25"/>
+      <c r="CB170" s="25"/>
+    </row>
+    <row r="171" spans="1:80" ht="17.25" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
@@ -16221,12 +16657,13 @@
       <c r="BU171" s="25"/>
       <c r="BV171" s="25"/>
       <c r="BW171" s="25"/>
-      <c r="BX171" s="27"/>
-      <c r="BY171" s="25"/>
+      <c r="BX171" s="25"/>
+      <c r="BY171" s="27"/>
       <c r="BZ171" s="25"/>
-      <c r="CA171" s="9"/>
-    </row>
-    <row r="172" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA171" s="25"/>
+      <c r="CB171" s="25"/>
+    </row>
+    <row r="172" spans="1:80" ht="17.25" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
@@ -16302,12 +16739,13 @@
       <c r="BU172" s="25"/>
       <c r="BV172" s="25"/>
       <c r="BW172" s="25"/>
-      <c r="BX172" s="27"/>
-      <c r="BY172" s="25"/>
+      <c r="BX172" s="25"/>
+      <c r="BY172" s="27"/>
       <c r="BZ172" s="25"/>
-      <c r="CA172" s="9"/>
-    </row>
-    <row r="173" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA172" s="25"/>
+      <c r="CB172" s="25"/>
+    </row>
+    <row r="173" spans="1:80" ht="17.25" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
@@ -16383,12 +16821,13 @@
       <c r="BU173" s="25"/>
       <c r="BV173" s="25"/>
       <c r="BW173" s="25"/>
-      <c r="BX173" s="27"/>
-      <c r="BY173" s="25"/>
+      <c r="BX173" s="25"/>
+      <c r="BY173" s="27"/>
       <c r="BZ173" s="25"/>
-      <c r="CA173" s="9"/>
-    </row>
-    <row r="174" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA173" s="25"/>
+      <c r="CB173" s="25"/>
+    </row>
+    <row r="174" spans="1:80" ht="17.25" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
@@ -16464,12 +16903,13 @@
       <c r="BU174" s="25"/>
       <c r="BV174" s="25"/>
       <c r="BW174" s="25"/>
-      <c r="BX174" s="27"/>
-      <c r="BY174" s="25"/>
+      <c r="BX174" s="25"/>
+      <c r="BY174" s="27"/>
       <c r="BZ174" s="25"/>
-      <c r="CA174" s="9"/>
-    </row>
-    <row r="175" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA174" s="25"/>
+      <c r="CB174" s="25"/>
+    </row>
+    <row r="175" spans="1:80" ht="17.25" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
@@ -16545,12 +16985,13 @@
       <c r="BU175" s="25"/>
       <c r="BV175" s="25"/>
       <c r="BW175" s="25"/>
-      <c r="BX175" s="27"/>
-      <c r="BY175" s="25"/>
+      <c r="BX175" s="25"/>
+      <c r="BY175" s="27"/>
       <c r="BZ175" s="25"/>
-      <c r="CA175" s="9"/>
-    </row>
-    <row r="176" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA175" s="25"/>
+      <c r="CB175" s="25"/>
+    </row>
+    <row r="176" spans="1:80" ht="17.25" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
@@ -16626,12 +17067,13 @@
       <c r="BU176" s="25"/>
       <c r="BV176" s="25"/>
       <c r="BW176" s="25"/>
-      <c r="BX176" s="27"/>
-      <c r="BY176" s="25"/>
+      <c r="BX176" s="25"/>
+      <c r="BY176" s="27"/>
       <c r="BZ176" s="25"/>
-      <c r="CA176" s="9"/>
-    </row>
-    <row r="177" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA176" s="25"/>
+      <c r="CB176" s="25"/>
+    </row>
+    <row r="177" spans="1:80" ht="17.25" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
@@ -16707,12 +17149,13 @@
       <c r="BU177" s="25"/>
       <c r="BV177" s="25"/>
       <c r="BW177" s="25"/>
-      <c r="BX177" s="27"/>
-      <c r="BY177" s="25"/>
+      <c r="BX177" s="25"/>
+      <c r="BY177" s="27"/>
       <c r="BZ177" s="25"/>
-      <c r="CA177" s="9"/>
-    </row>
-    <row r="178" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA177" s="25"/>
+      <c r="CB177" s="25"/>
+    </row>
+    <row r="178" spans="1:80" ht="17.25" customHeight="1">
       <c r="A178" s="9"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
@@ -16788,12 +17231,13 @@
       <c r="BU178" s="25"/>
       <c r="BV178" s="25"/>
       <c r="BW178" s="25"/>
-      <c r="BX178" s="27"/>
-      <c r="BY178" s="25"/>
+      <c r="BX178" s="25"/>
+      <c r="BY178" s="27"/>
       <c r="BZ178" s="25"/>
-      <c r="CA178" s="9"/>
-    </row>
-    <row r="179" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA178" s="25"/>
+      <c r="CB178" s="25"/>
+    </row>
+    <row r="179" spans="1:80" ht="17.25" customHeight="1">
       <c r="A179" s="9"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
@@ -16869,12 +17313,13 @@
       <c r="BU179" s="25"/>
       <c r="BV179" s="25"/>
       <c r="BW179" s="25"/>
-      <c r="BX179" s="27"/>
-      <c r="BY179" s="25"/>
+      <c r="BX179" s="25"/>
+      <c r="BY179" s="27"/>
       <c r="BZ179" s="25"/>
-      <c r="CA179" s="9"/>
-    </row>
-    <row r="180" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA179" s="25"/>
+      <c r="CB179" s="25"/>
+    </row>
+    <row r="180" spans="1:80" ht="17.25" customHeight="1">
       <c r="A180" s="9"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
@@ -16950,12 +17395,13 @@
       <c r="BU180" s="25"/>
       <c r="BV180" s="25"/>
       <c r="BW180" s="25"/>
-      <c r="BX180" s="27"/>
-      <c r="BY180" s="25"/>
+      <c r="BX180" s="25"/>
+      <c r="BY180" s="27"/>
       <c r="BZ180" s="25"/>
-      <c r="CA180" s="9"/>
-    </row>
-    <row r="181" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA180" s="25"/>
+      <c r="CB180" s="25"/>
+    </row>
+    <row r="181" spans="1:80" ht="17.25" customHeight="1">
       <c r="A181" s="9"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
@@ -17031,12 +17477,13 @@
       <c r="BU181" s="25"/>
       <c r="BV181" s="25"/>
       <c r="BW181" s="25"/>
-      <c r="BX181" s="27"/>
-      <c r="BY181" s="25"/>
+      <c r="BX181" s="25"/>
+      <c r="BY181" s="27"/>
       <c r="BZ181" s="25"/>
-      <c r="CA181" s="9"/>
-    </row>
-    <row r="182" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA181" s="25"/>
+      <c r="CB181" s="25"/>
+    </row>
+    <row r="182" spans="1:80" ht="17.25" customHeight="1">
       <c r="A182" s="9"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
@@ -17112,12 +17559,13 @@
       <c r="BU182" s="25"/>
       <c r="BV182" s="25"/>
       <c r="BW182" s="25"/>
-      <c r="BX182" s="27"/>
-      <c r="BY182" s="25"/>
+      <c r="BX182" s="25"/>
+      <c r="BY182" s="27"/>
       <c r="BZ182" s="25"/>
-      <c r="CA182" s="9"/>
-    </row>
-    <row r="183" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA182" s="25"/>
+      <c r="CB182" s="25"/>
+    </row>
+    <row r="183" spans="1:80" ht="17.25" customHeight="1">
       <c r="A183" s="9"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
@@ -17193,12 +17641,13 @@
       <c r="BU183" s="25"/>
       <c r="BV183" s="25"/>
       <c r="BW183" s="25"/>
-      <c r="BX183" s="27"/>
-      <c r="BY183" s="25"/>
+      <c r="BX183" s="25"/>
+      <c r="BY183" s="27"/>
       <c r="BZ183" s="25"/>
-      <c r="CA183" s="9"/>
-    </row>
-    <row r="184" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA183" s="25"/>
+      <c r="CB183" s="25"/>
+    </row>
+    <row r="184" spans="1:80" ht="17.25" customHeight="1">
       <c r="A184" s="9"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
@@ -17274,12 +17723,13 @@
       <c r="BU184" s="25"/>
       <c r="BV184" s="25"/>
       <c r="BW184" s="25"/>
-      <c r="BX184" s="27"/>
-      <c r="BY184" s="25"/>
+      <c r="BX184" s="25"/>
+      <c r="BY184" s="27"/>
       <c r="BZ184" s="25"/>
-      <c r="CA184" s="9"/>
-    </row>
-    <row r="185" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA184" s="25"/>
+      <c r="CB184" s="25"/>
+    </row>
+    <row r="185" spans="1:80" ht="17.25" customHeight="1">
       <c r="A185" s="9"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
@@ -17355,12 +17805,13 @@
       <c r="BU185" s="25"/>
       <c r="BV185" s="25"/>
       <c r="BW185" s="25"/>
-      <c r="BX185" s="27"/>
-      <c r="BY185" s="25"/>
+      <c r="BX185" s="25"/>
+      <c r="BY185" s="27"/>
       <c r="BZ185" s="25"/>
-      <c r="CA185" s="9"/>
-    </row>
-    <row r="186" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA185" s="25"/>
+      <c r="CB185" s="25"/>
+    </row>
+    <row r="186" spans="1:80" ht="17.25" customHeight="1">
       <c r="A186" s="9"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
@@ -17436,12 +17887,13 @@
       <c r="BU186" s="25"/>
       <c r="BV186" s="25"/>
       <c r="BW186" s="25"/>
-      <c r="BX186" s="27"/>
-      <c r="BY186" s="25"/>
+      <c r="BX186" s="25"/>
+      <c r="BY186" s="27"/>
       <c r="BZ186" s="25"/>
-      <c r="CA186" s="9"/>
-    </row>
-    <row r="187" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA186" s="25"/>
+      <c r="CB186" s="25"/>
+    </row>
+    <row r="187" spans="1:80" ht="17.25" customHeight="1">
       <c r="A187" s="9"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
@@ -17517,12 +17969,13 @@
       <c r="BU187" s="25"/>
       <c r="BV187" s="25"/>
       <c r="BW187" s="25"/>
-      <c r="BX187" s="27"/>
-      <c r="BY187" s="25"/>
+      <c r="BX187" s="25"/>
+      <c r="BY187" s="27"/>
       <c r="BZ187" s="25"/>
-      <c r="CA187" s="9"/>
-    </row>
-    <row r="188" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA187" s="25"/>
+      <c r="CB187" s="25"/>
+    </row>
+    <row r="188" spans="1:80" ht="17.25" customHeight="1">
       <c r="A188" s="9"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
@@ -17598,12 +18051,13 @@
       <c r="BU188" s="25"/>
       <c r="BV188" s="25"/>
       <c r="BW188" s="25"/>
-      <c r="BX188" s="27"/>
-      <c r="BY188" s="25"/>
+      <c r="BX188" s="25"/>
+      <c r="BY188" s="27"/>
       <c r="BZ188" s="25"/>
-      <c r="CA188" s="9"/>
-    </row>
-    <row r="189" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA188" s="25"/>
+      <c r="CB188" s="25"/>
+    </row>
+    <row r="189" spans="1:80" ht="17.25" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
@@ -17679,12 +18133,13 @@
       <c r="BU189" s="25"/>
       <c r="BV189" s="25"/>
       <c r="BW189" s="25"/>
-      <c r="BX189" s="27"/>
-      <c r="BY189" s="25"/>
+      <c r="BX189" s="25"/>
+      <c r="BY189" s="27"/>
       <c r="BZ189" s="25"/>
-      <c r="CA189" s="9"/>
-    </row>
-    <row r="190" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA189" s="25"/>
+      <c r="CB189" s="25"/>
+    </row>
+    <row r="190" spans="1:80" ht="17.25" customHeight="1">
       <c r="A190" s="9"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
@@ -17760,12 +18215,13 @@
       <c r="BU190" s="25"/>
       <c r="BV190" s="25"/>
       <c r="BW190" s="25"/>
-      <c r="BX190" s="27"/>
-      <c r="BY190" s="25"/>
+      <c r="BX190" s="25"/>
+      <c r="BY190" s="27"/>
       <c r="BZ190" s="25"/>
-      <c r="CA190" s="9"/>
-    </row>
-    <row r="191" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA190" s="25"/>
+      <c r="CB190" s="25"/>
+    </row>
+    <row r="191" spans="1:80" ht="17.25" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
@@ -17841,12 +18297,13 @@
       <c r="BU191" s="25"/>
       <c r="BV191" s="25"/>
       <c r="BW191" s="25"/>
-      <c r="BX191" s="27"/>
-      <c r="BY191" s="25"/>
+      <c r="BX191" s="25"/>
+      <c r="BY191" s="27"/>
       <c r="BZ191" s="25"/>
-      <c r="CA191" s="9"/>
-    </row>
-    <row r="192" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA191" s="25"/>
+      <c r="CB191" s="25"/>
+    </row>
+    <row r="192" spans="1:80" ht="17.25" customHeight="1">
       <c r="A192" s="9"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
@@ -17922,12 +18379,13 @@
       <c r="BU192" s="25"/>
       <c r="BV192" s="25"/>
       <c r="BW192" s="25"/>
-      <c r="BX192" s="27"/>
-      <c r="BY192" s="25"/>
+      <c r="BX192" s="25"/>
+      <c r="BY192" s="27"/>
       <c r="BZ192" s="25"/>
-      <c r="CA192" s="9"/>
-    </row>
-    <row r="193" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA192" s="25"/>
+      <c r="CB192" s="25"/>
+    </row>
+    <row r="193" spans="1:80" ht="17.25" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
@@ -18003,12 +18461,13 @@
       <c r="BU193" s="25"/>
       <c r="BV193" s="25"/>
       <c r="BW193" s="25"/>
-      <c r="BX193" s="27"/>
-      <c r="BY193" s="25"/>
+      <c r="BX193" s="25"/>
+      <c r="BY193" s="27"/>
       <c r="BZ193" s="25"/>
-      <c r="CA193" s="9"/>
-    </row>
-    <row r="194" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA193" s="25"/>
+      <c r="CB193" s="25"/>
+    </row>
+    <row r="194" spans="1:80" ht="17.25" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
@@ -18084,12 +18543,13 @@
       <c r="BU194" s="25"/>
       <c r="BV194" s="25"/>
       <c r="BW194" s="25"/>
-      <c r="BX194" s="27"/>
-      <c r="BY194" s="25"/>
+      <c r="BX194" s="25"/>
+      <c r="BY194" s="27"/>
       <c r="BZ194" s="25"/>
-      <c r="CA194" s="9"/>
-    </row>
-    <row r="195" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA194" s="25"/>
+      <c r="CB194" s="25"/>
+    </row>
+    <row r="195" spans="1:80" ht="17.25" customHeight="1">
       <c r="A195" s="9"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
@@ -18165,12 +18625,13 @@
       <c r="BU195" s="25"/>
       <c r="BV195" s="25"/>
       <c r="BW195" s="25"/>
-      <c r="BX195" s="27"/>
-      <c r="BY195" s="25"/>
+      <c r="BX195" s="25"/>
+      <c r="BY195" s="27"/>
       <c r="BZ195" s="25"/>
-      <c r="CA195" s="9"/>
-    </row>
-    <row r="196" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA195" s="25"/>
+      <c r="CB195" s="25"/>
+    </row>
+    <row r="196" spans="1:80" ht="17.25" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
@@ -18246,12 +18707,13 @@
       <c r="BU196" s="25"/>
       <c r="BV196" s="25"/>
       <c r="BW196" s="25"/>
-      <c r="BX196" s="27"/>
-      <c r="BY196" s="25"/>
+      <c r="BX196" s="25"/>
+      <c r="BY196" s="27"/>
       <c r="BZ196" s="25"/>
-      <c r="CA196" s="9"/>
-    </row>
-    <row r="197" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA196" s="25"/>
+      <c r="CB196" s="25"/>
+    </row>
+    <row r="197" spans="1:80" ht="17.25" customHeight="1">
       <c r="A197" s="9"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
@@ -18327,12 +18789,13 @@
       <c r="BU197" s="25"/>
       <c r="BV197" s="25"/>
       <c r="BW197" s="25"/>
-      <c r="BX197" s="27"/>
-      <c r="BY197" s="25"/>
+      <c r="BX197" s="25"/>
+      <c r="BY197" s="27"/>
       <c r="BZ197" s="25"/>
-      <c r="CA197" s="9"/>
-    </row>
-    <row r="198" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA197" s="25"/>
+      <c r="CB197" s="25"/>
+    </row>
+    <row r="198" spans="1:80" ht="17.25" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
@@ -18408,12 +18871,13 @@
       <c r="BU198" s="25"/>
       <c r="BV198" s="25"/>
       <c r="BW198" s="25"/>
-      <c r="BX198" s="27"/>
-      <c r="BY198" s="25"/>
+      <c r="BX198" s="25"/>
+      <c r="BY198" s="27"/>
       <c r="BZ198" s="25"/>
-      <c r="CA198" s="9"/>
-    </row>
-    <row r="199" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA198" s="25"/>
+      <c r="CB198" s="25"/>
+    </row>
+    <row r="199" spans="1:80" ht="17.25" customHeight="1">
       <c r="A199" s="9"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
@@ -18489,12 +18953,13 @@
       <c r="BU199" s="25"/>
       <c r="BV199" s="25"/>
       <c r="BW199" s="25"/>
-      <c r="BX199" s="27"/>
-      <c r="BY199" s="25"/>
+      <c r="BX199" s="25"/>
+      <c r="BY199" s="27"/>
       <c r="BZ199" s="25"/>
-      <c r="CA199" s="9"/>
-    </row>
-    <row r="200" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA199" s="25"/>
+      <c r="CB199" s="25"/>
+    </row>
+    <row r="200" spans="1:80" ht="17.25" customHeight="1">
       <c r="A200" s="9"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
@@ -18570,12 +19035,13 @@
       <c r="BU200" s="25"/>
       <c r="BV200" s="25"/>
       <c r="BW200" s="25"/>
-      <c r="BX200" s="27"/>
-      <c r="BY200" s="25"/>
+      <c r="BX200" s="25"/>
+      <c r="BY200" s="27"/>
       <c r="BZ200" s="25"/>
-      <c r="CA200" s="9"/>
-    </row>
-    <row r="201" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA200" s="25"/>
+      <c r="CB200" s="25"/>
+    </row>
+    <row r="201" spans="1:80" ht="17.25" customHeight="1">
       <c r="A201" s="9"/>
       <c r="B201" s="25"/>
       <c r="C201" s="26"/>
@@ -18651,12 +19117,13 @@
       <c r="BU201" s="25"/>
       <c r="BV201" s="25"/>
       <c r="BW201" s="25"/>
-      <c r="BX201" s="27"/>
-      <c r="BY201" s="25"/>
+      <c r="BX201" s="25"/>
+      <c r="BY201" s="27"/>
       <c r="BZ201" s="25"/>
-      <c r="CA201" s="9"/>
-    </row>
-    <row r="202" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA201" s="25"/>
+      <c r="CB201" s="25"/>
+    </row>
+    <row r="202" spans="1:80" ht="17.25" customHeight="1">
       <c r="A202" s="9"/>
       <c r="B202" s="25"/>
       <c r="C202" s="26"/>
@@ -18732,12 +19199,13 @@
       <c r="BU202" s="25"/>
       <c r="BV202" s="25"/>
       <c r="BW202" s="25"/>
-      <c r="BX202" s="27"/>
-      <c r="BY202" s="25"/>
+      <c r="BX202" s="25"/>
+      <c r="BY202" s="27"/>
       <c r="BZ202" s="25"/>
-      <c r="CA202" s="9"/>
-    </row>
-    <row r="203" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA202" s="25"/>
+      <c r="CB202" s="25"/>
+    </row>
+    <row r="203" spans="1:80" ht="17.25" customHeight="1">
       <c r="A203" s="9"/>
       <c r="B203" s="25"/>
       <c r="C203" s="26"/>
@@ -18813,12 +19281,13 @@
       <c r="BU203" s="25"/>
       <c r="BV203" s="25"/>
       <c r="BW203" s="25"/>
-      <c r="BX203" s="27"/>
-      <c r="BY203" s="25"/>
+      <c r="BX203" s="25"/>
+      <c r="BY203" s="27"/>
       <c r="BZ203" s="25"/>
-      <c r="CA203" s="9"/>
-    </row>
-    <row r="204" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA203" s="25"/>
+      <c r="CB203" s="25"/>
+    </row>
+    <row r="204" spans="1:80" ht="17.25" customHeight="1">
       <c r="A204" s="9"/>
       <c r="B204" s="25"/>
       <c r="C204" s="26"/>
@@ -18894,12 +19363,13 @@
       <c r="BU204" s="25"/>
       <c r="BV204" s="25"/>
       <c r="BW204" s="25"/>
-      <c r="BX204" s="27"/>
-      <c r="BY204" s="25"/>
+      <c r="BX204" s="25"/>
+      <c r="BY204" s="27"/>
       <c r="BZ204" s="25"/>
-      <c r="CA204" s="9"/>
-    </row>
-    <row r="205" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA204" s="25"/>
+      <c r="CB204" s="25"/>
+    </row>
+    <row r="205" spans="1:80" ht="17.25" customHeight="1">
       <c r="A205" s="9"/>
       <c r="B205" s="25"/>
       <c r="C205" s="26"/>
@@ -18975,12 +19445,13 @@
       <c r="BU205" s="25"/>
       <c r="BV205" s="25"/>
       <c r="BW205" s="25"/>
-      <c r="BX205" s="27"/>
-      <c r="BY205" s="25"/>
+      <c r="BX205" s="25"/>
+      <c r="BY205" s="27"/>
       <c r="BZ205" s="25"/>
-      <c r="CA205" s="9"/>
-    </row>
-    <row r="206" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA205" s="25"/>
+      <c r="CB205" s="25"/>
+    </row>
+    <row r="206" spans="1:80" ht="17.25" customHeight="1">
       <c r="A206" s="9"/>
       <c r="B206" s="25"/>
       <c r="C206" s="26"/>
@@ -19056,12 +19527,13 @@
       <c r="BU206" s="25"/>
       <c r="BV206" s="25"/>
       <c r="BW206" s="25"/>
-      <c r="BX206" s="27"/>
-      <c r="BY206" s="25"/>
+      <c r="BX206" s="25"/>
+      <c r="BY206" s="27"/>
       <c r="BZ206" s="25"/>
-      <c r="CA206" s="9"/>
-    </row>
-    <row r="207" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA206" s="25"/>
+      <c r="CB206" s="25"/>
+    </row>
+    <row r="207" spans="1:80" ht="17.25" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="25"/>
       <c r="C207" s="26"/>
@@ -19137,12 +19609,13 @@
       <c r="BU207" s="25"/>
       <c r="BV207" s="25"/>
       <c r="BW207" s="25"/>
-      <c r="BX207" s="27"/>
-      <c r="BY207" s="25"/>
+      <c r="BX207" s="25"/>
+      <c r="BY207" s="27"/>
       <c r="BZ207" s="25"/>
-      <c r="CA207" s="9"/>
-    </row>
-    <row r="208" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA207" s="25"/>
+      <c r="CB207" s="25"/>
+    </row>
+    <row r="208" spans="1:80" ht="17.25" customHeight="1">
       <c r="A208" s="9"/>
       <c r="B208" s="25"/>
       <c r="C208" s="26"/>
@@ -19218,12 +19691,13 @@
       <c r="BU208" s="25"/>
       <c r="BV208" s="25"/>
       <c r="BW208" s="25"/>
-      <c r="BX208" s="27"/>
-      <c r="BY208" s="25"/>
+      <c r="BX208" s="25"/>
+      <c r="BY208" s="27"/>
       <c r="BZ208" s="25"/>
-      <c r="CA208" s="9"/>
-    </row>
-    <row r="209" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA208" s="25"/>
+      <c r="CB208" s="25"/>
+    </row>
+    <row r="209" spans="1:80" ht="17.25" customHeight="1">
       <c r="A209" s="9"/>
       <c r="B209" s="25"/>
       <c r="C209" s="26"/>
@@ -19299,12 +19773,13 @@
       <c r="BU209" s="25"/>
       <c r="BV209" s="25"/>
       <c r="BW209" s="25"/>
-      <c r="BX209" s="27"/>
-      <c r="BY209" s="25"/>
+      <c r="BX209" s="25"/>
+      <c r="BY209" s="27"/>
       <c r="BZ209" s="25"/>
-      <c r="CA209" s="9"/>
-    </row>
-    <row r="210" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA209" s="25"/>
+      <c r="CB209" s="25"/>
+    </row>
+    <row r="210" spans="1:80" ht="17.25" customHeight="1">
       <c r="A210" s="9"/>
       <c r="B210" s="25"/>
       <c r="C210" s="26"/>
@@ -19380,12 +19855,13 @@
       <c r="BU210" s="25"/>
       <c r="BV210" s="25"/>
       <c r="BW210" s="25"/>
-      <c r="BX210" s="27"/>
-      <c r="BY210" s="25"/>
+      <c r="BX210" s="25"/>
+      <c r="BY210" s="27"/>
       <c r="BZ210" s="25"/>
-      <c r="CA210" s="9"/>
-    </row>
-    <row r="211" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA210" s="25"/>
+      <c r="CB210" s="25"/>
+    </row>
+    <row r="211" spans="1:80" ht="17.25" customHeight="1">
       <c r="A211" s="9"/>
       <c r="B211" s="25"/>
       <c r="C211" s="26"/>
@@ -19461,12 +19937,13 @@
       <c r="BU211" s="25"/>
       <c r="BV211" s="25"/>
       <c r="BW211" s="25"/>
-      <c r="BX211" s="27"/>
-      <c r="BY211" s="25"/>
+      <c r="BX211" s="25"/>
+      <c r="BY211" s="27"/>
       <c r="BZ211" s="25"/>
-      <c r="CA211" s="9"/>
-    </row>
-    <row r="212" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA211" s="25"/>
+      <c r="CB211" s="25"/>
+    </row>
+    <row r="212" spans="1:80" ht="17.25" customHeight="1">
       <c r="A212" s="9"/>
       <c r="B212" s="25"/>
       <c r="C212" s="26"/>
@@ -19542,12 +20019,13 @@
       <c r="BU212" s="25"/>
       <c r="BV212" s="25"/>
       <c r="BW212" s="25"/>
-      <c r="BX212" s="27"/>
-      <c r="BY212" s="25"/>
+      <c r="BX212" s="25"/>
+      <c r="BY212" s="27"/>
       <c r="BZ212" s="25"/>
-      <c r="CA212" s="9"/>
-    </row>
-    <row r="213" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA212" s="25"/>
+      <c r="CB212" s="25"/>
+    </row>
+    <row r="213" spans="1:80" ht="17.25" customHeight="1">
       <c r="A213" s="9"/>
       <c r="B213" s="25"/>
       <c r="C213" s="26"/>
@@ -19623,12 +20101,13 @@
       <c r="BU213" s="25"/>
       <c r="BV213" s="25"/>
       <c r="BW213" s="25"/>
-      <c r="BX213" s="27"/>
-      <c r="BY213" s="25"/>
+      <c r="BX213" s="25"/>
+      <c r="BY213" s="27"/>
       <c r="BZ213" s="25"/>
-      <c r="CA213" s="9"/>
-    </row>
-    <row r="214" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA213" s="25"/>
+      <c r="CB213" s="25"/>
+    </row>
+    <row r="214" spans="1:80" ht="17.25" customHeight="1">
       <c r="A214" s="9"/>
       <c r="B214" s="25"/>
       <c r="C214" s="26"/>
@@ -19704,12 +20183,13 @@
       <c r="BU214" s="25"/>
       <c r="BV214" s="25"/>
       <c r="BW214" s="25"/>
-      <c r="BX214" s="27"/>
-      <c r="BY214" s="25"/>
+      <c r="BX214" s="25"/>
+      <c r="BY214" s="27"/>
       <c r="BZ214" s="25"/>
-      <c r="CA214" s="9"/>
-    </row>
-    <row r="215" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA214" s="25"/>
+      <c r="CB214" s="25"/>
+    </row>
+    <row r="215" spans="1:80" ht="17.25" customHeight="1">
       <c r="A215" s="9"/>
       <c r="B215" s="25"/>
       <c r="C215" s="26"/>
@@ -19785,12 +20265,13 @@
       <c r="BU215" s="25"/>
       <c r="BV215" s="25"/>
       <c r="BW215" s="25"/>
-      <c r="BX215" s="27"/>
-      <c r="BY215" s="25"/>
+      <c r="BX215" s="25"/>
+      <c r="BY215" s="27"/>
       <c r="BZ215" s="25"/>
-      <c r="CA215" s="9"/>
-    </row>
-    <row r="216" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA215" s="25"/>
+      <c r="CB215" s="25"/>
+    </row>
+    <row r="216" spans="1:80" ht="17.25" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="25"/>
       <c r="C216" s="26"/>
@@ -19866,12 +20347,13 @@
       <c r="BU216" s="25"/>
       <c r="BV216" s="25"/>
       <c r="BW216" s="25"/>
-      <c r="BX216" s="27"/>
-      <c r="BY216" s="25"/>
+      <c r="BX216" s="25"/>
+      <c r="BY216" s="27"/>
       <c r="BZ216" s="25"/>
-      <c r="CA216" s="9"/>
-    </row>
-    <row r="217" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA216" s="25"/>
+      <c r="CB216" s="25"/>
+    </row>
+    <row r="217" spans="1:80" ht="17.25" customHeight="1">
       <c r="A217" s="9"/>
       <c r="B217" s="25"/>
       <c r="C217" s="26"/>
@@ -19947,12 +20429,13 @@
       <c r="BU217" s="25"/>
       <c r="BV217" s="25"/>
       <c r="BW217" s="25"/>
-      <c r="BX217" s="27"/>
-      <c r="BY217" s="25"/>
+      <c r="BX217" s="25"/>
+      <c r="BY217" s="27"/>
       <c r="BZ217" s="25"/>
-      <c r="CA217" s="9"/>
-    </row>
-    <row r="218" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA217" s="25"/>
+      <c r="CB217" s="25"/>
+    </row>
+    <row r="218" spans="1:80" ht="17.25" customHeight="1">
       <c r="A218" s="9"/>
       <c r="B218" s="25"/>
       <c r="C218" s="26"/>
@@ -20028,12 +20511,13 @@
       <c r="BU218" s="25"/>
       <c r="BV218" s="25"/>
       <c r="BW218" s="25"/>
-      <c r="BX218" s="27"/>
-      <c r="BY218" s="25"/>
+      <c r="BX218" s="25"/>
+      <c r="BY218" s="27"/>
       <c r="BZ218" s="25"/>
-      <c r="CA218" s="9"/>
-    </row>
-    <row r="219" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA218" s="25"/>
+      <c r="CB218" s="25"/>
+    </row>
+    <row r="219" spans="1:80" ht="17.25" customHeight="1">
       <c r="A219" s="9"/>
       <c r="B219" s="25"/>
       <c r="C219" s="26"/>
@@ -20109,12 +20593,13 @@
       <c r="BU219" s="25"/>
       <c r="BV219" s="25"/>
       <c r="BW219" s="25"/>
-      <c r="BX219" s="27"/>
-      <c r="BY219" s="25"/>
+      <c r="BX219" s="25"/>
+      <c r="BY219" s="27"/>
       <c r="BZ219" s="25"/>
-      <c r="CA219" s="9"/>
-    </row>
-    <row r="220" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA219" s="25"/>
+      <c r="CB219" s="25"/>
+    </row>
+    <row r="220" spans="1:80" ht="17.25" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="25"/>
       <c r="C220" s="26"/>
@@ -20190,12 +20675,13 @@
       <c r="BU220" s="25"/>
       <c r="BV220" s="25"/>
       <c r="BW220" s="25"/>
-      <c r="BX220" s="27"/>
-      <c r="BY220" s="25"/>
+      <c r="BX220" s="25"/>
+      <c r="BY220" s="27"/>
       <c r="BZ220" s="25"/>
-      <c r="CA220" s="9"/>
-    </row>
-    <row r="221" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA220" s="25"/>
+      <c r="CB220" s="25"/>
+    </row>
+    <row r="221" spans="1:80" ht="17.25" customHeight="1">
       <c r="A221" s="9"/>
       <c r="B221" s="25"/>
       <c r="C221" s="26"/>
@@ -20271,12 +20757,13 @@
       <c r="BU221" s="25"/>
       <c r="BV221" s="25"/>
       <c r="BW221" s="25"/>
-      <c r="BX221" s="27"/>
-      <c r="BY221" s="25"/>
+      <c r="BX221" s="25"/>
+      <c r="BY221" s="27"/>
       <c r="BZ221" s="25"/>
-      <c r="CA221" s="9"/>
-    </row>
-    <row r="222" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA221" s="25"/>
+      <c r="CB221" s="25"/>
+    </row>
+    <row r="222" spans="1:80" ht="17.25" customHeight="1">
       <c r="A222" s="9"/>
       <c r="B222" s="25"/>
       <c r="C222" s="26"/>
@@ -20352,12 +20839,13 @@
       <c r="BU222" s="25"/>
       <c r="BV222" s="25"/>
       <c r="BW222" s="25"/>
-      <c r="BX222" s="27"/>
-      <c r="BY222" s="25"/>
+      <c r="BX222" s="25"/>
+      <c r="BY222" s="27"/>
       <c r="BZ222" s="25"/>
-      <c r="CA222" s="9"/>
-    </row>
-    <row r="223" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA222" s="25"/>
+      <c r="CB222" s="25"/>
+    </row>
+    <row r="223" spans="1:80" ht="17.25" customHeight="1">
       <c r="A223" s="9"/>
       <c r="B223" s="25"/>
       <c r="C223" s="26"/>
@@ -20433,12 +20921,13 @@
       <c r="BU223" s="25"/>
       <c r="BV223" s="25"/>
       <c r="BW223" s="25"/>
-      <c r="BX223" s="27"/>
-      <c r="BY223" s="25"/>
+      <c r="BX223" s="25"/>
+      <c r="BY223" s="27"/>
       <c r="BZ223" s="25"/>
-      <c r="CA223" s="9"/>
-    </row>
-    <row r="224" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA223" s="25"/>
+      <c r="CB223" s="25"/>
+    </row>
+    <row r="224" spans="1:80" ht="17.25" customHeight="1">
       <c r="A224" s="9"/>
       <c r="B224" s="25"/>
       <c r="C224" s="26"/>
@@ -20514,12 +21003,13 @@
       <c r="BU224" s="25"/>
       <c r="BV224" s="25"/>
       <c r="BW224" s="25"/>
-      <c r="BX224" s="27"/>
-      <c r="BY224" s="25"/>
+      <c r="BX224" s="25"/>
+      <c r="BY224" s="27"/>
       <c r="BZ224" s="25"/>
-      <c r="CA224" s="9"/>
-    </row>
-    <row r="225" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA224" s="25"/>
+      <c r="CB224" s="25"/>
+    </row>
+    <row r="225" spans="1:80" ht="17.25" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="25"/>
       <c r="C225" s="26"/>
@@ -20595,12 +21085,13 @@
       <c r="BU225" s="25"/>
       <c r="BV225" s="25"/>
       <c r="BW225" s="25"/>
-      <c r="BX225" s="27"/>
-      <c r="BY225" s="25"/>
+      <c r="BX225" s="25"/>
+      <c r="BY225" s="27"/>
       <c r="BZ225" s="25"/>
-      <c r="CA225" s="9"/>
-    </row>
-    <row r="226" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA225" s="25"/>
+      <c r="CB225" s="25"/>
+    </row>
+    <row r="226" spans="1:80" ht="17.25" customHeight="1">
       <c r="A226" s="9"/>
       <c r="B226" s="25"/>
       <c r="C226" s="26"/>
@@ -20676,12 +21167,13 @@
       <c r="BU226" s="25"/>
       <c r="BV226" s="25"/>
       <c r="BW226" s="25"/>
-      <c r="BX226" s="27"/>
-      <c r="BY226" s="25"/>
+      <c r="BX226" s="25"/>
+      <c r="BY226" s="27"/>
       <c r="BZ226" s="25"/>
-      <c r="CA226" s="9"/>
-    </row>
-    <row r="227" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA226" s="25"/>
+      <c r="CB226" s="25"/>
+    </row>
+    <row r="227" spans="1:80" ht="17.25" customHeight="1">
       <c r="A227" s="9"/>
       <c r="B227" s="25"/>
       <c r="C227" s="26"/>
@@ -20757,12 +21249,13 @@
       <c r="BU227" s="25"/>
       <c r="BV227" s="25"/>
       <c r="BW227" s="25"/>
-      <c r="BX227" s="27"/>
-      <c r="BY227" s="25"/>
+      <c r="BX227" s="25"/>
+      <c r="BY227" s="27"/>
       <c r="BZ227" s="25"/>
-      <c r="CA227" s="9"/>
-    </row>
-    <row r="228" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA227" s="25"/>
+      <c r="CB227" s="25"/>
+    </row>
+    <row r="228" spans="1:80" ht="17.25" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="25"/>
       <c r="C228" s="26"/>
@@ -20838,12 +21331,13 @@
       <c r="BU228" s="25"/>
       <c r="BV228" s="25"/>
       <c r="BW228" s="25"/>
-      <c r="BX228" s="27"/>
-      <c r="BY228" s="25"/>
+      <c r="BX228" s="25"/>
+      <c r="BY228" s="27"/>
       <c r="BZ228" s="25"/>
-      <c r="CA228" s="9"/>
-    </row>
-    <row r="229" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA228" s="25"/>
+      <c r="CB228" s="25"/>
+    </row>
+    <row r="229" spans="1:80" ht="17.25" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="25"/>
       <c r="C229" s="26"/>
@@ -20919,12 +21413,13 @@
       <c r="BU229" s="25"/>
       <c r="BV229" s="25"/>
       <c r="BW229" s="25"/>
-      <c r="BX229" s="27"/>
-      <c r="BY229" s="25"/>
+      <c r="BX229" s="25"/>
+      <c r="BY229" s="27"/>
       <c r="BZ229" s="25"/>
-      <c r="CA229" s="9"/>
-    </row>
-    <row r="230" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA229" s="25"/>
+      <c r="CB229" s="25"/>
+    </row>
+    <row r="230" spans="1:80" ht="17.25" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="25"/>
       <c r="C230" s="26"/>
@@ -21000,12 +21495,13 @@
       <c r="BU230" s="25"/>
       <c r="BV230" s="25"/>
       <c r="BW230" s="25"/>
-      <c r="BX230" s="27"/>
-      <c r="BY230" s="25"/>
+      <c r="BX230" s="25"/>
+      <c r="BY230" s="27"/>
       <c r="BZ230" s="25"/>
-      <c r="CA230" s="9"/>
-    </row>
-    <row r="231" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA230" s="25"/>
+      <c r="CB230" s="25"/>
+    </row>
+    <row r="231" spans="1:80" ht="17.25" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="25"/>
       <c r="C231" s="26"/>
@@ -21081,12 +21577,13 @@
       <c r="BU231" s="25"/>
       <c r="BV231" s="25"/>
       <c r="BW231" s="25"/>
-      <c r="BX231" s="27"/>
-      <c r="BY231" s="25"/>
+      <c r="BX231" s="25"/>
+      <c r="BY231" s="27"/>
       <c r="BZ231" s="25"/>
-      <c r="CA231" s="9"/>
-    </row>
-    <row r="232" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA231" s="25"/>
+      <c r="CB231" s="25"/>
+    </row>
+    <row r="232" spans="1:80" ht="17.25" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="25"/>
       <c r="C232" s="26"/>
@@ -21162,12 +21659,13 @@
       <c r="BU232" s="25"/>
       <c r="BV232" s="25"/>
       <c r="BW232" s="25"/>
-      <c r="BX232" s="27"/>
-      <c r="BY232" s="25"/>
+      <c r="BX232" s="25"/>
+      <c r="BY232" s="27"/>
       <c r="BZ232" s="25"/>
-      <c r="CA232" s="9"/>
-    </row>
-    <row r="233" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA232" s="25"/>
+      <c r="CB232" s="25"/>
+    </row>
+    <row r="233" spans="1:80" ht="17.25" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="25"/>
       <c r="C233" s="26"/>
@@ -21243,12 +21741,13 @@
       <c r="BU233" s="25"/>
       <c r="BV233" s="25"/>
       <c r="BW233" s="25"/>
-      <c r="BX233" s="27"/>
-      <c r="BY233" s="25"/>
+      <c r="BX233" s="25"/>
+      <c r="BY233" s="27"/>
       <c r="BZ233" s="25"/>
-      <c r="CA233" s="9"/>
-    </row>
-    <row r="234" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA233" s="25"/>
+      <c r="CB233" s="25"/>
+    </row>
+    <row r="234" spans="1:80" ht="17.25" customHeight="1">
       <c r="A234" s="9"/>
       <c r="B234" s="25"/>
       <c r="C234" s="26"/>
@@ -21324,12 +21823,13 @@
       <c r="BU234" s="25"/>
       <c r="BV234" s="25"/>
       <c r="BW234" s="25"/>
-      <c r="BX234" s="27"/>
-      <c r="BY234" s="25"/>
+      <c r="BX234" s="25"/>
+      <c r="BY234" s="27"/>
       <c r="BZ234" s="25"/>
-      <c r="CA234" s="9"/>
-    </row>
-    <row r="235" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA234" s="25"/>
+      <c r="CB234" s="25"/>
+    </row>
+    <row r="235" spans="1:80" ht="17.25" customHeight="1">
       <c r="A235" s="9"/>
       <c r="B235" s="25"/>
       <c r="C235" s="26"/>
@@ -21405,12 +21905,13 @@
       <c r="BU235" s="25"/>
       <c r="BV235" s="25"/>
       <c r="BW235" s="25"/>
-      <c r="BX235" s="27"/>
-      <c r="BY235" s="25"/>
+      <c r="BX235" s="25"/>
+      <c r="BY235" s="27"/>
       <c r="BZ235" s="25"/>
-      <c r="CA235" s="9"/>
-    </row>
-    <row r="236" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA235" s="25"/>
+      <c r="CB235" s="25"/>
+    </row>
+    <row r="236" spans="1:80" ht="17.25" customHeight="1">
       <c r="A236" s="9"/>
       <c r="B236" s="25"/>
       <c r="C236" s="26"/>
@@ -21486,12 +21987,13 @@
       <c r="BU236" s="25"/>
       <c r="BV236" s="25"/>
       <c r="BW236" s="25"/>
-      <c r="BX236" s="27"/>
-      <c r="BY236" s="25"/>
+      <c r="BX236" s="25"/>
+      <c r="BY236" s="27"/>
       <c r="BZ236" s="25"/>
-      <c r="CA236" s="9"/>
-    </row>
-    <row r="237" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA236" s="25"/>
+      <c r="CB236" s="25"/>
+    </row>
+    <row r="237" spans="1:80" ht="17.25" customHeight="1">
       <c r="A237" s="9"/>
       <c r="B237" s="25"/>
       <c r="C237" s="26"/>
@@ -21567,12 +22069,13 @@
       <c r="BU237" s="25"/>
       <c r="BV237" s="25"/>
       <c r="BW237" s="25"/>
-      <c r="BX237" s="27"/>
-      <c r="BY237" s="25"/>
+      <c r="BX237" s="25"/>
+      <c r="BY237" s="27"/>
       <c r="BZ237" s="25"/>
-      <c r="CA237" s="9"/>
-    </row>
-    <row r="238" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA237" s="25"/>
+      <c r="CB237" s="25"/>
+    </row>
+    <row r="238" spans="1:80" ht="17.25" customHeight="1">
       <c r="A238" s="9"/>
       <c r="B238" s="25"/>
       <c r="C238" s="26"/>
@@ -21648,12 +22151,13 @@
       <c r="BU238" s="25"/>
       <c r="BV238" s="25"/>
       <c r="BW238" s="25"/>
-      <c r="BX238" s="27"/>
-      <c r="BY238" s="25"/>
+      <c r="BX238" s="25"/>
+      <c r="BY238" s="27"/>
       <c r="BZ238" s="25"/>
-      <c r="CA238" s="9"/>
-    </row>
-    <row r="239" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA238" s="25"/>
+      <c r="CB238" s="25"/>
+    </row>
+    <row r="239" spans="1:80" ht="17.25" customHeight="1">
       <c r="A239" s="9"/>
       <c r="B239" s="25"/>
       <c r="C239" s="26"/>
@@ -21729,12 +22233,13 @@
       <c r="BU239" s="25"/>
       <c r="BV239" s="25"/>
       <c r="BW239" s="25"/>
-      <c r="BX239" s="27"/>
-      <c r="BY239" s="25"/>
+      <c r="BX239" s="25"/>
+      <c r="BY239" s="27"/>
       <c r="BZ239" s="25"/>
-      <c r="CA239" s="9"/>
-    </row>
-    <row r="240" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA239" s="25"/>
+      <c r="CB239" s="25"/>
+    </row>
+    <row r="240" spans="1:80" ht="17.25" customHeight="1">
       <c r="A240" s="9"/>
       <c r="B240" s="25"/>
       <c r="C240" s="26"/>
@@ -21810,12 +22315,13 @@
       <c r="BU240" s="25"/>
       <c r="BV240" s="25"/>
       <c r="BW240" s="25"/>
-      <c r="BX240" s="27"/>
-      <c r="BY240" s="25"/>
+      <c r="BX240" s="25"/>
+      <c r="BY240" s="27"/>
       <c r="BZ240" s="25"/>
-      <c r="CA240" s="9"/>
-    </row>
-    <row r="241" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA240" s="25"/>
+      <c r="CB240" s="25"/>
+    </row>
+    <row r="241" spans="1:80" ht="17.25" customHeight="1">
       <c r="A241" s="9"/>
       <c r="B241" s="25"/>
       <c r="C241" s="26"/>
@@ -21891,12 +22397,13 @@
       <c r="BU241" s="25"/>
       <c r="BV241" s="25"/>
       <c r="BW241" s="25"/>
-      <c r="BX241" s="27"/>
-      <c r="BY241" s="25"/>
+      <c r="BX241" s="25"/>
+      <c r="BY241" s="27"/>
       <c r="BZ241" s="25"/>
-      <c r="CA241" s="9"/>
-    </row>
-    <row r="242" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA241" s="25"/>
+      <c r="CB241" s="25"/>
+    </row>
+    <row r="242" spans="1:80" ht="17.25" customHeight="1">
       <c r="A242" s="9"/>
       <c r="B242" s="25"/>
       <c r="C242" s="26"/>
@@ -21972,12 +22479,13 @@
       <c r="BU242" s="25"/>
       <c r="BV242" s="25"/>
       <c r="BW242" s="25"/>
-      <c r="BX242" s="27"/>
-      <c r="BY242" s="25"/>
+      <c r="BX242" s="25"/>
+      <c r="BY242" s="27"/>
       <c r="BZ242" s="25"/>
-      <c r="CA242" s="9"/>
-    </row>
-    <row r="243" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA242" s="25"/>
+      <c r="CB242" s="25"/>
+    </row>
+    <row r="243" spans="1:80" ht="17.25" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="25"/>
       <c r="C243" s="26"/>
@@ -22053,12 +22561,13 @@
       <c r="BU243" s="25"/>
       <c r="BV243" s="25"/>
       <c r="BW243" s="25"/>
-      <c r="BX243" s="27"/>
-      <c r="BY243" s="25"/>
+      <c r="BX243" s="25"/>
+      <c r="BY243" s="27"/>
       <c r="BZ243" s="25"/>
-      <c r="CA243" s="9"/>
-    </row>
-    <row r="244" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA243" s="25"/>
+      <c r="CB243" s="25"/>
+    </row>
+    <row r="244" spans="1:80" ht="17.25" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="25"/>
       <c r="C244" s="26"/>
@@ -22134,12 +22643,13 @@
       <c r="BU244" s="25"/>
       <c r="BV244" s="25"/>
       <c r="BW244" s="25"/>
-      <c r="BX244" s="27"/>
-      <c r="BY244" s="25"/>
+      <c r="BX244" s="25"/>
+      <c r="BY244" s="27"/>
       <c r="BZ244" s="25"/>
-      <c r="CA244" s="9"/>
-    </row>
-    <row r="245" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA244" s="25"/>
+      <c r="CB244" s="25"/>
+    </row>
+    <row r="245" spans="1:80" ht="17.25" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="25"/>
       <c r="C245" s="26"/>
@@ -22215,12 +22725,13 @@
       <c r="BU245" s="25"/>
       <c r="BV245" s="25"/>
       <c r="BW245" s="25"/>
-      <c r="BX245" s="27"/>
-      <c r="BY245" s="25"/>
+      <c r="BX245" s="25"/>
+      <c r="BY245" s="27"/>
       <c r="BZ245" s="25"/>
-      <c r="CA245" s="9"/>
-    </row>
-    <row r="246" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA245" s="25"/>
+      <c r="CB245" s="25"/>
+    </row>
+    <row r="246" spans="1:80" ht="17.25" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="25"/>
       <c r="C246" s="26"/>
@@ -22296,12 +22807,13 @@
       <c r="BU246" s="25"/>
       <c r="BV246" s="25"/>
       <c r="BW246" s="25"/>
-      <c r="BX246" s="27"/>
-      <c r="BY246" s="25"/>
+      <c r="BX246" s="25"/>
+      <c r="BY246" s="27"/>
       <c r="BZ246" s="25"/>
-      <c r="CA246" s="9"/>
-    </row>
-    <row r="247" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA246" s="25"/>
+      <c r="CB246" s="25"/>
+    </row>
+    <row r="247" spans="1:80" ht="17.25" customHeight="1">
       <c r="A247" s="9"/>
       <c r="B247" s="25"/>
       <c r="C247" s="26"/>
@@ -22377,12 +22889,13 @@
       <c r="BU247" s="25"/>
       <c r="BV247" s="25"/>
       <c r="BW247" s="25"/>
-      <c r="BX247" s="27"/>
-      <c r="BY247" s="25"/>
+      <c r="BX247" s="25"/>
+      <c r="BY247" s="27"/>
       <c r="BZ247" s="25"/>
-      <c r="CA247" s="9"/>
-    </row>
-    <row r="248" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA247" s="25"/>
+      <c r="CB247" s="25"/>
+    </row>
+    <row r="248" spans="1:80" ht="17.25" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="25"/>
       <c r="C248" s="26"/>
@@ -22458,12 +22971,13 @@
       <c r="BU248" s="25"/>
       <c r="BV248" s="25"/>
       <c r="BW248" s="25"/>
-      <c r="BX248" s="27"/>
-      <c r="BY248" s="25"/>
+      <c r="BX248" s="25"/>
+      <c r="BY248" s="27"/>
       <c r="BZ248" s="25"/>
-      <c r="CA248" s="9"/>
-    </row>
-    <row r="249" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA248" s="25"/>
+      <c r="CB248" s="25"/>
+    </row>
+    <row r="249" spans="1:80" ht="17.25" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="25"/>
       <c r="C249" s="26"/>
@@ -22539,12 +23053,13 @@
       <c r="BU249" s="25"/>
       <c r="BV249" s="25"/>
       <c r="BW249" s="25"/>
-      <c r="BX249" s="27"/>
-      <c r="BY249" s="25"/>
+      <c r="BX249" s="25"/>
+      <c r="BY249" s="27"/>
       <c r="BZ249" s="25"/>
-      <c r="CA249" s="9"/>
-    </row>
-    <row r="250" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA249" s="25"/>
+      <c r="CB249" s="25"/>
+    </row>
+    <row r="250" spans="1:80" ht="17.25" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="25"/>
       <c r="C250" s="26"/>
@@ -22620,12 +23135,13 @@
       <c r="BU250" s="25"/>
       <c r="BV250" s="25"/>
       <c r="BW250" s="25"/>
-      <c r="BX250" s="27"/>
-      <c r="BY250" s="25"/>
+      <c r="BX250" s="25"/>
+      <c r="BY250" s="27"/>
       <c r="BZ250" s="25"/>
-      <c r="CA250" s="9"/>
-    </row>
-    <row r="251" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA250" s="25"/>
+      <c r="CB250" s="25"/>
+    </row>
+    <row r="251" spans="1:80" ht="17.25" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="25"/>
       <c r="C251" s="26"/>
@@ -22701,12 +23217,13 @@
       <c r="BU251" s="25"/>
       <c r="BV251" s="25"/>
       <c r="BW251" s="25"/>
-      <c r="BX251" s="27"/>
-      <c r="BY251" s="25"/>
+      <c r="BX251" s="25"/>
+      <c r="BY251" s="27"/>
       <c r="BZ251" s="25"/>
-      <c r="CA251" s="9"/>
-    </row>
-    <row r="252" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA251" s="25"/>
+      <c r="CB251" s="25"/>
+    </row>
+    <row r="252" spans="1:80" ht="17.25" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="25"/>
       <c r="C252" s="26"/>
@@ -22782,12 +23299,13 @@
       <c r="BU252" s="25"/>
       <c r="BV252" s="25"/>
       <c r="BW252" s="25"/>
-      <c r="BX252" s="27"/>
-      <c r="BY252" s="25"/>
+      <c r="BX252" s="25"/>
+      <c r="BY252" s="27"/>
       <c r="BZ252" s="25"/>
-      <c r="CA252" s="9"/>
-    </row>
-    <row r="253" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA252" s="25"/>
+      <c r="CB252" s="25"/>
+    </row>
+    <row r="253" spans="1:80" ht="17.25" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="25"/>
       <c r="C253" s="26"/>
@@ -22863,12 +23381,13 @@
       <c r="BU253" s="25"/>
       <c r="BV253" s="25"/>
       <c r="BW253" s="25"/>
-      <c r="BX253" s="27"/>
-      <c r="BY253" s="25"/>
+      <c r="BX253" s="25"/>
+      <c r="BY253" s="27"/>
       <c r="BZ253" s="25"/>
-      <c r="CA253" s="9"/>
-    </row>
-    <row r="254" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA253" s="25"/>
+      <c r="CB253" s="25"/>
+    </row>
+    <row r="254" spans="1:80" ht="17.25" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="25"/>
       <c r="C254" s="26"/>
@@ -22944,12 +23463,13 @@
       <c r="BU254" s="25"/>
       <c r="BV254" s="25"/>
       <c r="BW254" s="25"/>
-      <c r="BX254" s="27"/>
-      <c r="BY254" s="25"/>
+      <c r="BX254" s="25"/>
+      <c r="BY254" s="27"/>
       <c r="BZ254" s="25"/>
-      <c r="CA254" s="9"/>
-    </row>
-    <row r="255" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA254" s="25"/>
+      <c r="CB254" s="25"/>
+    </row>
+    <row r="255" spans="1:80" ht="17.25" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="25"/>
       <c r="C255" s="26"/>
@@ -23025,12 +23545,13 @@
       <c r="BU255" s="25"/>
       <c r="BV255" s="25"/>
       <c r="BW255" s="25"/>
-      <c r="BX255" s="27"/>
-      <c r="BY255" s="25"/>
+      <c r="BX255" s="25"/>
+      <c r="BY255" s="27"/>
       <c r="BZ255" s="25"/>
-      <c r="CA255" s="9"/>
-    </row>
-    <row r="256" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA255" s="25"/>
+      <c r="CB255" s="25"/>
+    </row>
+    <row r="256" spans="1:80" ht="17.25" customHeight="1">
       <c r="A256" s="9"/>
       <c r="B256" s="25"/>
       <c r="C256" s="26"/>
@@ -23106,12 +23627,13 @@
       <c r="BU256" s="25"/>
       <c r="BV256" s="25"/>
       <c r="BW256" s="25"/>
-      <c r="BX256" s="27"/>
-      <c r="BY256" s="25"/>
+      <c r="BX256" s="25"/>
+      <c r="BY256" s="27"/>
       <c r="BZ256" s="25"/>
-      <c r="CA256" s="9"/>
-    </row>
-    <row r="257" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA256" s="25"/>
+      <c r="CB256" s="25"/>
+    </row>
+    <row r="257" spans="1:80" ht="17.25" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="25"/>
       <c r="C257" s="26"/>
@@ -23187,12 +23709,13 @@
       <c r="BU257" s="25"/>
       <c r="BV257" s="25"/>
       <c r="BW257" s="25"/>
-      <c r="BX257" s="27"/>
-      <c r="BY257" s="25"/>
+      <c r="BX257" s="25"/>
+      <c r="BY257" s="27"/>
       <c r="BZ257" s="25"/>
-      <c r="CA257" s="9"/>
-    </row>
-    <row r="258" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA257" s="25"/>
+      <c r="CB257" s="25"/>
+    </row>
+    <row r="258" spans="1:80" ht="17.25" customHeight="1">
       <c r="A258" s="9"/>
       <c r="B258" s="25"/>
       <c r="C258" s="26"/>
@@ -23268,12 +23791,13 @@
       <c r="BU258" s="25"/>
       <c r="BV258" s="25"/>
       <c r="BW258" s="25"/>
-      <c r="BX258" s="27"/>
-      <c r="BY258" s="25"/>
+      <c r="BX258" s="25"/>
+      <c r="BY258" s="27"/>
       <c r="BZ258" s="25"/>
-      <c r="CA258" s="9"/>
-    </row>
-    <row r="259" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA258" s="25"/>
+      <c r="CB258" s="25"/>
+    </row>
+    <row r="259" spans="1:80" ht="17.25" customHeight="1">
       <c r="A259" s="9"/>
       <c r="B259" s="25"/>
       <c r="C259" s="26"/>
@@ -23349,12 +23873,13 @@
       <c r="BU259" s="25"/>
       <c r="BV259" s="25"/>
       <c r="BW259" s="25"/>
-      <c r="BX259" s="27"/>
-      <c r="BY259" s="25"/>
+      <c r="BX259" s="25"/>
+      <c r="BY259" s="27"/>
       <c r="BZ259" s="25"/>
-      <c r="CA259" s="9"/>
-    </row>
-    <row r="260" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA259" s="25"/>
+      <c r="CB259" s="25"/>
+    </row>
+    <row r="260" spans="1:80" ht="17.25" customHeight="1">
       <c r="A260" s="9"/>
       <c r="B260" s="25"/>
       <c r="C260" s="26"/>
@@ -23430,12 +23955,13 @@
       <c r="BU260" s="25"/>
       <c r="BV260" s="25"/>
       <c r="BW260" s="25"/>
-      <c r="BX260" s="27"/>
-      <c r="BY260" s="25"/>
+      <c r="BX260" s="25"/>
+      <c r="BY260" s="27"/>
       <c r="BZ260" s="25"/>
-      <c r="CA260" s="9"/>
-    </row>
-    <row r="261" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA260" s="25"/>
+      <c r="CB260" s="25"/>
+    </row>
+    <row r="261" spans="1:80" ht="17.25" customHeight="1">
       <c r="A261" s="9"/>
       <c r="B261" s="25"/>
       <c r="C261" s="26"/>
@@ -23511,12 +24037,13 @@
       <c r="BU261" s="25"/>
       <c r="BV261" s="25"/>
       <c r="BW261" s="25"/>
-      <c r="BX261" s="27"/>
-      <c r="BY261" s="25"/>
+      <c r="BX261" s="25"/>
+      <c r="BY261" s="27"/>
       <c r="BZ261" s="25"/>
-      <c r="CA261" s="9"/>
-    </row>
-    <row r="262" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA261" s="25"/>
+      <c r="CB261" s="25"/>
+    </row>
+    <row r="262" spans="1:80" ht="17.25" customHeight="1">
       <c r="A262" s="9"/>
       <c r="B262" s="25"/>
       <c r="C262" s="26"/>
@@ -23592,12 +24119,13 @@
       <c r="BU262" s="25"/>
       <c r="BV262" s="25"/>
       <c r="BW262" s="25"/>
-      <c r="BX262" s="27"/>
-      <c r="BY262" s="25"/>
+      <c r="BX262" s="25"/>
+      <c r="BY262" s="27"/>
       <c r="BZ262" s="25"/>
-      <c r="CA262" s="9"/>
-    </row>
-    <row r="263" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA262" s="25"/>
+      <c r="CB262" s="25"/>
+    </row>
+    <row r="263" spans="1:80" ht="17.25" customHeight="1">
       <c r="A263" s="9"/>
       <c r="B263" s="25"/>
       <c r="C263" s="26"/>
@@ -23673,12 +24201,13 @@
       <c r="BU263" s="25"/>
       <c r="BV263" s="25"/>
       <c r="BW263" s="25"/>
-      <c r="BX263" s="27"/>
-      <c r="BY263" s="25"/>
+      <c r="BX263" s="25"/>
+      <c r="BY263" s="27"/>
       <c r="BZ263" s="25"/>
-      <c r="CA263" s="9"/>
-    </row>
-    <row r="264" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA263" s="25"/>
+      <c r="CB263" s="25"/>
+    </row>
+    <row r="264" spans="1:80" ht="17.25" customHeight="1">
       <c r="A264" s="9"/>
       <c r="B264" s="25"/>
       <c r="C264" s="26"/>
@@ -23754,12 +24283,13 @@
       <c r="BU264" s="25"/>
       <c r="BV264" s="25"/>
       <c r="BW264" s="25"/>
-      <c r="BX264" s="27"/>
-      <c r="BY264" s="25"/>
+      <c r="BX264" s="25"/>
+      <c r="BY264" s="27"/>
       <c r="BZ264" s="25"/>
-      <c r="CA264" s="9"/>
-    </row>
-    <row r="265" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA264" s="25"/>
+      <c r="CB264" s="25"/>
+    </row>
+    <row r="265" spans="1:80" ht="17.25" customHeight="1">
       <c r="A265" s="9"/>
       <c r="B265" s="25"/>
       <c r="C265" s="26"/>
@@ -23835,12 +24365,13 @@
       <c r="BU265" s="25"/>
       <c r="BV265" s="25"/>
       <c r="BW265" s="25"/>
-      <c r="BX265" s="27"/>
-      <c r="BY265" s="25"/>
+      <c r="BX265" s="25"/>
+      <c r="BY265" s="27"/>
       <c r="BZ265" s="25"/>
-      <c r="CA265" s="9"/>
-    </row>
-    <row r="266" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA265" s="25"/>
+      <c r="CB265" s="25"/>
+    </row>
+    <row r="266" spans="1:80" ht="17.25" customHeight="1">
       <c r="A266" s="9"/>
       <c r="B266" s="25"/>
       <c r="C266" s="26"/>
@@ -23916,12 +24447,13 @@
       <c r="BU266" s="25"/>
       <c r="BV266" s="25"/>
       <c r="BW266" s="25"/>
-      <c r="BX266" s="27"/>
-      <c r="BY266" s="25"/>
+      <c r="BX266" s="25"/>
+      <c r="BY266" s="27"/>
       <c r="BZ266" s="25"/>
-      <c r="CA266" s="9"/>
-    </row>
-    <row r="267" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA266" s="25"/>
+      <c r="CB266" s="25"/>
+    </row>
+    <row r="267" spans="1:80" ht="17.25" customHeight="1">
       <c r="A267" s="9"/>
       <c r="B267" s="25"/>
       <c r="C267" s="26"/>
@@ -23997,12 +24529,13 @@
       <c r="BU267" s="25"/>
       <c r="BV267" s="25"/>
       <c r="BW267" s="25"/>
-      <c r="BX267" s="27"/>
-      <c r="BY267" s="25"/>
+      <c r="BX267" s="25"/>
+      <c r="BY267" s="27"/>
       <c r="BZ267" s="25"/>
-      <c r="CA267" s="9"/>
-    </row>
-    <row r="268" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA267" s="25"/>
+      <c r="CB267" s="25"/>
+    </row>
+    <row r="268" spans="1:80" ht="17.25" customHeight="1">
       <c r="A268" s="9"/>
       <c r="B268" s="25"/>
       <c r="C268" s="26"/>
@@ -24078,12 +24611,13 @@
       <c r="BU268" s="25"/>
       <c r="BV268" s="25"/>
       <c r="BW268" s="25"/>
-      <c r="BX268" s="27"/>
-      <c r="BY268" s="25"/>
+      <c r="BX268" s="25"/>
+      <c r="BY268" s="27"/>
       <c r="BZ268" s="25"/>
-      <c r="CA268" s="9"/>
-    </row>
-    <row r="269" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA268" s="25"/>
+      <c r="CB268" s="25"/>
+    </row>
+    <row r="269" spans="1:80" ht="17.25" customHeight="1">
       <c r="A269" s="9"/>
       <c r="B269" s="25"/>
       <c r="C269" s="26"/>
@@ -24159,12 +24693,13 @@
       <c r="BU269" s="25"/>
       <c r="BV269" s="25"/>
       <c r="BW269" s="25"/>
-      <c r="BX269" s="27"/>
-      <c r="BY269" s="25"/>
+      <c r="BX269" s="25"/>
+      <c r="BY269" s="27"/>
       <c r="BZ269" s="25"/>
-      <c r="CA269" s="9"/>
-    </row>
-    <row r="270" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA269" s="25"/>
+      <c r="CB269" s="25"/>
+    </row>
+    <row r="270" spans="1:80" ht="17.25" customHeight="1">
       <c r="A270" s="9"/>
       <c r="B270" s="25"/>
       <c r="C270" s="26"/>
@@ -24240,12 +24775,13 @@
       <c r="BU270" s="25"/>
       <c r="BV270" s="25"/>
       <c r="BW270" s="25"/>
-      <c r="BX270" s="27"/>
-      <c r="BY270" s="25"/>
+      <c r="BX270" s="25"/>
+      <c r="BY270" s="27"/>
       <c r="BZ270" s="25"/>
-      <c r="CA270" s="9"/>
-    </row>
-    <row r="271" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA270" s="25"/>
+      <c r="CB270" s="25"/>
+    </row>
+    <row r="271" spans="1:80" ht="17.25" customHeight="1">
       <c r="A271" s="9"/>
       <c r="B271" s="25"/>
       <c r="C271" s="26"/>
@@ -24321,12 +24857,13 @@
       <c r="BU271" s="25"/>
       <c r="BV271" s="25"/>
       <c r="BW271" s="25"/>
-      <c r="BX271" s="27"/>
-      <c r="BY271" s="25"/>
+      <c r="BX271" s="25"/>
+      <c r="BY271" s="27"/>
       <c r="BZ271" s="25"/>
-      <c r="CA271" s="9"/>
-    </row>
-    <row r="272" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA271" s="25"/>
+      <c r="CB271" s="25"/>
+    </row>
+    <row r="272" spans="1:80" ht="17.25" customHeight="1">
       <c r="A272" s="9"/>
       <c r="B272" s="25"/>
       <c r="C272" s="26"/>
@@ -24402,12 +24939,13 @@
       <c r="BU272" s="25"/>
       <c r="BV272" s="25"/>
       <c r="BW272" s="25"/>
-      <c r="BX272" s="27"/>
-      <c r="BY272" s="25"/>
+      <c r="BX272" s="25"/>
+      <c r="BY272" s="27"/>
       <c r="BZ272" s="25"/>
-      <c r="CA272" s="9"/>
-    </row>
-    <row r="273" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA272" s="25"/>
+      <c r="CB272" s="25"/>
+    </row>
+    <row r="273" spans="1:80" ht="17.25" customHeight="1">
       <c r="A273" s="9"/>
       <c r="B273" s="25"/>
       <c r="C273" s="26"/>
@@ -24483,12 +25021,13 @@
       <c r="BU273" s="25"/>
       <c r="BV273" s="25"/>
       <c r="BW273" s="25"/>
-      <c r="BX273" s="27"/>
-      <c r="BY273" s="25"/>
+      <c r="BX273" s="25"/>
+      <c r="BY273" s="27"/>
       <c r="BZ273" s="25"/>
-      <c r="CA273" s="9"/>
-    </row>
-    <row r="274" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA273" s="25"/>
+      <c r="CB273" s="25"/>
+    </row>
+    <row r="274" spans="1:80" ht="17.25" customHeight="1">
       <c r="A274" s="9"/>
       <c r="B274" s="25"/>
       <c r="C274" s="26"/>
@@ -24564,12 +25103,13 @@
       <c r="BU274" s="25"/>
       <c r="BV274" s="25"/>
       <c r="BW274" s="25"/>
-      <c r="BX274" s="27"/>
-      <c r="BY274" s="25"/>
+      <c r="BX274" s="25"/>
+      <c r="BY274" s="27"/>
       <c r="BZ274" s="25"/>
-      <c r="CA274" s="9"/>
-    </row>
-    <row r="275" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA274" s="25"/>
+      <c r="CB274" s="25"/>
+    </row>
+    <row r="275" spans="1:80" ht="17.25" customHeight="1">
       <c r="A275" s="9"/>
       <c r="B275" s="25"/>
       <c r="C275" s="26"/>
@@ -24645,12 +25185,13 @@
       <c r="BU275" s="25"/>
       <c r="BV275" s="25"/>
       <c r="BW275" s="25"/>
-      <c r="BX275" s="27"/>
-      <c r="BY275" s="25"/>
+      <c r="BX275" s="25"/>
+      <c r="BY275" s="27"/>
       <c r="BZ275" s="25"/>
-      <c r="CA275" s="9"/>
-    </row>
-    <row r="276" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA275" s="25"/>
+      <c r="CB275" s="25"/>
+    </row>
+    <row r="276" spans="1:80" ht="17.25" customHeight="1">
       <c r="A276" s="9"/>
       <c r="B276" s="25"/>
       <c r="C276" s="26"/>
@@ -24726,12 +25267,13 @@
       <c r="BU276" s="25"/>
       <c r="BV276" s="25"/>
       <c r="BW276" s="25"/>
-      <c r="BX276" s="27"/>
-      <c r="BY276" s="25"/>
+      <c r="BX276" s="25"/>
+      <c r="BY276" s="27"/>
       <c r="BZ276" s="25"/>
-      <c r="CA276" s="9"/>
-    </row>
-    <row r="277" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA276" s="25"/>
+      <c r="CB276" s="25"/>
+    </row>
+    <row r="277" spans="1:80" ht="17.25" customHeight="1">
       <c r="A277" s="9"/>
       <c r="B277" s="25"/>
       <c r="C277" s="26"/>
@@ -24807,12 +25349,13 @@
       <c r="BU277" s="25"/>
       <c r="BV277" s="25"/>
       <c r="BW277" s="25"/>
-      <c r="BX277" s="27"/>
-      <c r="BY277" s="25"/>
+      <c r="BX277" s="25"/>
+      <c r="BY277" s="27"/>
       <c r="BZ277" s="25"/>
-      <c r="CA277" s="9"/>
-    </row>
-    <row r="278" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA277" s="25"/>
+      <c r="CB277" s="25"/>
+    </row>
+    <row r="278" spans="1:80" ht="17.25" customHeight="1">
       <c r="A278" s="9"/>
       <c r="B278" s="25"/>
       <c r="C278" s="26"/>
@@ -24888,12 +25431,13 @@
       <c r="BU278" s="25"/>
       <c r="BV278" s="25"/>
       <c r="BW278" s="25"/>
-      <c r="BX278" s="27"/>
-      <c r="BY278" s="25"/>
+      <c r="BX278" s="25"/>
+      <c r="BY278" s="27"/>
       <c r="BZ278" s="25"/>
-      <c r="CA278" s="9"/>
-    </row>
-    <row r="279" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA278" s="25"/>
+      <c r="CB278" s="25"/>
+    </row>
+    <row r="279" spans="1:80" ht="17.25" customHeight="1">
       <c r="A279" s="9"/>
       <c r="B279" s="25"/>
       <c r="C279" s="26"/>
@@ -24969,12 +25513,13 @@
       <c r="BU279" s="25"/>
       <c r="BV279" s="25"/>
       <c r="BW279" s="25"/>
-      <c r="BX279" s="27"/>
-      <c r="BY279" s="25"/>
+      <c r="BX279" s="25"/>
+      <c r="BY279" s="27"/>
       <c r="BZ279" s="25"/>
-      <c r="CA279" s="9"/>
-    </row>
-    <row r="280" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA279" s="25"/>
+      <c r="CB279" s="25"/>
+    </row>
+    <row r="280" spans="1:80" ht="17.25" customHeight="1">
       <c r="A280" s="9"/>
       <c r="B280" s="25"/>
       <c r="C280" s="26"/>
@@ -25050,12 +25595,13 @@
       <c r="BU280" s="25"/>
       <c r="BV280" s="25"/>
       <c r="BW280" s="25"/>
-      <c r="BX280" s="27"/>
-      <c r="BY280" s="25"/>
+      <c r="BX280" s="25"/>
+      <c r="BY280" s="27"/>
       <c r="BZ280" s="25"/>
-      <c r="CA280" s="9"/>
-    </row>
-    <row r="281" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA280" s="25"/>
+      <c r="CB280" s="25"/>
+    </row>
+    <row r="281" spans="1:80" ht="17.25" customHeight="1">
       <c r="A281" s="9"/>
       <c r="B281" s="25"/>
       <c r="C281" s="26"/>
@@ -25131,12 +25677,13 @@
       <c r="BU281" s="25"/>
       <c r="BV281" s="25"/>
       <c r="BW281" s="25"/>
-      <c r="BX281" s="27"/>
-      <c r="BY281" s="25"/>
+      <c r="BX281" s="25"/>
+      <c r="BY281" s="27"/>
       <c r="BZ281" s="25"/>
-      <c r="CA281" s="9"/>
-    </row>
-    <row r="282" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA281" s="25"/>
+      <c r="CB281" s="25"/>
+    </row>
+    <row r="282" spans="1:80" ht="17.25" customHeight="1">
       <c r="A282" s="9"/>
       <c r="B282" s="25"/>
       <c r="C282" s="26"/>
@@ -25212,12 +25759,13 @@
       <c r="BU282" s="25"/>
       <c r="BV282" s="25"/>
       <c r="BW282" s="25"/>
-      <c r="BX282" s="27"/>
-      <c r="BY282" s="25"/>
+      <c r="BX282" s="25"/>
+      <c r="BY282" s="27"/>
       <c r="BZ282" s="25"/>
-      <c r="CA282" s="9"/>
-    </row>
-    <row r="283" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA282" s="25"/>
+      <c r="CB282" s="25"/>
+    </row>
+    <row r="283" spans="1:80" ht="17.25" customHeight="1">
       <c r="A283" s="9"/>
       <c r="B283" s="25"/>
       <c r="C283" s="26"/>
@@ -25293,12 +25841,13 @@
       <c r="BU283" s="25"/>
       <c r="BV283" s="25"/>
       <c r="BW283" s="25"/>
-      <c r="BX283" s="27"/>
-      <c r="BY283" s="25"/>
+      <c r="BX283" s="25"/>
+      <c r="BY283" s="27"/>
       <c r="BZ283" s="25"/>
-      <c r="CA283" s="9"/>
-    </row>
-    <row r="284" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA283" s="25"/>
+      <c r="CB283" s="25"/>
+    </row>
+    <row r="284" spans="1:80" ht="17.25" customHeight="1">
       <c r="A284" s="9"/>
       <c r="B284" s="25"/>
       <c r="C284" s="26"/>
@@ -25374,12 +25923,13 @@
       <c r="BU284" s="25"/>
       <c r="BV284" s="25"/>
       <c r="BW284" s="25"/>
-      <c r="BX284" s="27"/>
-      <c r="BY284" s="25"/>
+      <c r="BX284" s="25"/>
+      <c r="BY284" s="27"/>
       <c r="BZ284" s="25"/>
-      <c r="CA284" s="9"/>
-    </row>
-    <row r="285" spans="1:79" ht="17.25" customHeight="1">
+      <c r="CA284" s="25"/>
+      <c r="CB284" s="25"/>
+    </row>
+    <row r="285" spans="1:80" ht="17.25" customHeight="1">
       <c r="A285" s="9"/>
       <c r="B285" s="25"/>
       <c r="C285" s="26"/>
@@ -25455,20 +26005,199 @@
       <c r="BU285" s="25"/>
       <c r="BV285" s="25"/>
       <c r="BW285" s="25"/>
-      <c r="BX285" s="27"/>
-      <c r="BY285" s="25"/>
+      <c r="BX285" s="25"/>
+      <c r="BY285" s="27"/>
       <c r="BZ285" s="25"/>
-      <c r="CA285" s="9"/>
+      <c r="CA285" s="25"/>
+      <c r="CB285" s="25"/>
+    </row>
+    <row r="286" spans="1:80" ht="17.25" customHeight="1">
+      <c r="A286" s="9"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="26"/>
+      <c r="D286" s="25"/>
+      <c r="E286" s="25"/>
+      <c r="F286" s="25"/>
+      <c r="G286" s="25"/>
+      <c r="H286" s="25"/>
+      <c r="I286" s="25"/>
+      <c r="J286" s="25"/>
+      <c r="K286" s="25"/>
+      <c r="L286" s="25"/>
+      <c r="M286" s="25"/>
+      <c r="N286" s="25"/>
+      <c r="O286" s="25"/>
+      <c r="P286" s="25"/>
+      <c r="Q286" s="25"/>
+      <c r="R286" s="25"/>
+      <c r="S286" s="25"/>
+      <c r="T286" s="25"/>
+      <c r="U286" s="25"/>
+      <c r="V286" s="25"/>
+      <c r="W286" s="25"/>
+      <c r="X286" s="25"/>
+      <c r="Y286" s="25"/>
+      <c r="Z286" s="25"/>
+      <c r="AA286" s="25"/>
+      <c r="AB286" s="25"/>
+      <c r="AC286" s="25"/>
+      <c r="AD286" s="25"/>
+      <c r="AE286" s="25"/>
+      <c r="AF286" s="25"/>
+      <c r="AG286" s="25"/>
+      <c r="AH286" s="25"/>
+      <c r="AI286" s="25"/>
+      <c r="AJ286" s="25"/>
+      <c r="AK286" s="25"/>
+      <c r="AL286" s="25"/>
+      <c r="AM286" s="25"/>
+      <c r="AN286" s="25"/>
+      <c r="AO286" s="25"/>
+      <c r="AP286" s="25"/>
+      <c r="AQ286" s="25"/>
+      <c r="AR286" s="25"/>
+      <c r="AS286" s="25"/>
+      <c r="AT286" s="25"/>
+      <c r="AU286" s="25"/>
+      <c r="AV286" s="25"/>
+      <c r="AW286" s="25"/>
+      <c r="AX286" s="25"/>
+      <c r="AY286" s="25"/>
+      <c r="AZ286" s="25"/>
+      <c r="BA286" s="25"/>
+      <c r="BB286" s="25"/>
+      <c r="BC286" s="25"/>
+      <c r="BD286" s="25"/>
+      <c r="BE286" s="25"/>
+      <c r="BF286" s="25"/>
+      <c r="BG286" s="25"/>
+      <c r="BH286" s="25"/>
+      <c r="BI286" s="25"/>
+      <c r="BJ286" s="25"/>
+      <c r="BK286" s="25"/>
+      <c r="BL286" s="25"/>
+      <c r="BM286" s="25"/>
+      <c r="BN286" s="25"/>
+      <c r="BO286" s="25"/>
+      <c r="BP286" s="25"/>
+      <c r="BQ286" s="25"/>
+      <c r="BR286" s="25"/>
+      <c r="BS286" s="25"/>
+      <c r="BT286" s="25"/>
+      <c r="BU286" s="25"/>
+      <c r="BV286" s="25"/>
+      <c r="BW286" s="25"/>
+      <c r="BX286" s="25"/>
+      <c r="BY286" s="27"/>
+      <c r="BZ286" s="25"/>
+      <c r="CA286" s="25"/>
+      <c r="CB286" s="25"/>
+    </row>
+    <row r="287" spans="1:80" ht="17.25" customHeight="1">
+      <c r="A287" s="9"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="25"/>
+      <c r="E287" s="25"/>
+      <c r="F287" s="25"/>
+      <c r="G287" s="25"/>
+      <c r="H287" s="25"/>
+      <c r="I287" s="25"/>
+      <c r="J287" s="25"/>
+      <c r="K287" s="25"/>
+      <c r="L287" s="25"/>
+      <c r="M287" s="25"/>
+      <c r="N287" s="25"/>
+      <c r="O287" s="25"/>
+      <c r="P287" s="25"/>
+      <c r="Q287" s="25"/>
+      <c r="R287" s="25"/>
+      <c r="S287" s="25"/>
+      <c r="T287" s="25"/>
+      <c r="U287" s="25"/>
+      <c r="V287" s="25"/>
+      <c r="W287" s="25"/>
+      <c r="X287" s="25"/>
+      <c r="Y287" s="25"/>
+      <c r="Z287" s="25"/>
+      <c r="AA287" s="25"/>
+      <c r="AB287" s="25"/>
+      <c r="AC287" s="25"/>
+      <c r="AD287" s="25"/>
+      <c r="AE287" s="25"/>
+      <c r="AF287" s="25"/>
+      <c r="AG287" s="25"/>
+      <c r="AH287" s="25"/>
+      <c r="AI287" s="25"/>
+      <c r="AJ287" s="25"/>
+      <c r="AK287" s="25"/>
+      <c r="AL287" s="25"/>
+      <c r="AM287" s="25"/>
+      <c r="AN287" s="25"/>
+      <c r="AO287" s="25"/>
+      <c r="AP287" s="25"/>
+      <c r="AQ287" s="25"/>
+      <c r="AR287" s="25"/>
+      <c r="AS287" s="25"/>
+      <c r="AT287" s="25"/>
+      <c r="AU287" s="25"/>
+      <c r="AV287" s="25"/>
+      <c r="AW287" s="25"/>
+      <c r="AX287" s="25"/>
+      <c r="AY287" s="25"/>
+      <c r="AZ287" s="25"/>
+      <c r="BA287" s="25"/>
+      <c r="BB287" s="25"/>
+      <c r="BC287" s="25"/>
+      <c r="BD287" s="25"/>
+      <c r="BE287" s="25"/>
+      <c r="BF287" s="25"/>
+      <c r="BG287" s="25"/>
+      <c r="BH287" s="25"/>
+      <c r="BI287" s="25"/>
+      <c r="BJ287" s="25"/>
+      <c r="BK287" s="25"/>
+      <c r="BL287" s="25"/>
+      <c r="BM287" s="25"/>
+      <c r="BN287" s="25"/>
+      <c r="BO287" s="25"/>
+      <c r="BP287" s="25"/>
+      <c r="BQ287" s="25"/>
+      <c r="BR287" s="25"/>
+      <c r="BS287" s="25"/>
+      <c r="BT287" s="25"/>
+      <c r="BU287" s="25"/>
+      <c r="BV287" s="25"/>
+      <c r="BW287" s="25"/>
+      <c r="BX287" s="25"/>
+      <c r="BY287" s="27"/>
+      <c r="BZ287" s="25"/>
+      <c r="CA287" s="25"/>
+      <c r="CB287" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BE3:BS3"/>
-    <mergeCell ref="BT3:BZ3"/>
+  <mergeCells count="40">
+    <mergeCell ref="BE3:BT3"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:AH3"/>
+    <mergeCell ref="AI3:BD3"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BU3:CA3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:K4"/>
@@ -25480,27 +26209,14 @@
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BT4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="AI3:BD3"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:AH3"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
+++ b/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C918E4B-26A1-4808-B5AF-8C6225DFD853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B741F82-73D7-460E-90EF-DF365893E4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1052,8 +1052,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,8 +1229,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -1502,7 +1513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1806,34 +1817,21 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1855,33 +1853,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1890,7 +1868,40 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1905,11 +1916,36 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="29" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="29" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="30" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,10 +2274,10 @@
   <dimension ref="A1:DE287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4:Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
@@ -2291,39 +2327,39 @@
   <sheetData>
     <row r="1" spans="1:109" ht="41.4" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
       <c r="O1" s="94"/>
-      <c r="P1" s="121" t="s">
+      <c r="P1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -2517,126 +2553,126 @@
     </row>
     <row r="3" spans="1:109" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="125" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="127"/>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="128" t="s">
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="127"/>
-      <c r="AV3" s="127"/>
-      <c r="AW3" s="127"/>
-      <c r="AX3" s="127"/>
-      <c r="AY3" s="127"/>
-      <c r="AZ3" s="127"/>
-      <c r="BA3" s="127"/>
-      <c r="BB3" s="127"/>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="127"/>
-      <c r="BK3" s="127"/>
-      <c r="BL3" s="127"/>
-      <c r="BM3" s="127"/>
-      <c r="BN3" s="127"/>
-      <c r="BO3" s="127"/>
-      <c r="BP3" s="127"/>
-      <c r="BQ3" s="127"/>
-      <c r="BR3" s="127"/>
-      <c r="BS3" s="127"/>
-      <c r="BT3" s="127"/>
-      <c r="BU3" s="116" t="s">
+      <c r="AS3" s="124"/>
+      <c r="AT3" s="124"/>
+      <c r="AU3" s="124"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="124"/>
+      <c r="AX3" s="124"/>
+      <c r="AY3" s="124"/>
+      <c r="AZ3" s="124"/>
+      <c r="BA3" s="124"/>
+      <c r="BB3" s="124"/>
+      <c r="BC3" s="124"/>
+      <c r="BD3" s="124"/>
+      <c r="BE3" s="124"/>
+      <c r="BF3" s="124"/>
+      <c r="BG3" s="124"/>
+      <c r="BH3" s="124"/>
+      <c r="BI3" s="124"/>
+      <c r="BJ3" s="124"/>
+      <c r="BK3" s="124"/>
+      <c r="BL3" s="124"/>
+      <c r="BM3" s="124"/>
+      <c r="BN3" s="124"/>
+      <c r="BO3" s="124"/>
+      <c r="BP3" s="124"/>
+      <c r="BQ3" s="124"/>
+      <c r="BR3" s="124"/>
+      <c r="BS3" s="124"/>
+      <c r="BT3" s="124"/>
+      <c r="BU3" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="BV3" s="116"/>
-      <c r="BW3" s="116"/>
-      <c r="BX3" s="116"/>
-      <c r="BY3" s="116"/>
-      <c r="BZ3" s="116"/>
-      <c r="CA3" s="116"/>
-      <c r="CB3" s="116"/>
-      <c r="CC3" s="116"/>
-      <c r="CD3" s="116"/>
-      <c r="CE3" s="116"/>
-      <c r="CF3" s="116"/>
-      <c r="CG3" s="116"/>
-      <c r="CH3" s="116"/>
-      <c r="CI3" s="116"/>
-      <c r="CJ3" s="116"/>
-      <c r="CK3" s="116"/>
-      <c r="CL3" s="116"/>
-      <c r="CM3" s="116"/>
-      <c r="CN3" s="116"/>
-      <c r="CO3" s="116"/>
-      <c r="CP3" s="117"/>
-      <c r="CQ3" s="109" t="s">
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
+      <c r="CG3" s="135"/>
+      <c r="CH3" s="135"/>
+      <c r="CI3" s="135"/>
+      <c r="CJ3" s="135"/>
+      <c r="CK3" s="135"/>
+      <c r="CL3" s="135"/>
+      <c r="CM3" s="135"/>
+      <c r="CN3" s="135"/>
+      <c r="CO3" s="135"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="110"/>
-      <c r="CS3" s="110"/>
-      <c r="CT3" s="110"/>
-      <c r="CU3" s="110"/>
-      <c r="CV3" s="110"/>
-      <c r="CW3" s="110"/>
-      <c r="CX3" s="110"/>
-      <c r="CY3" s="110"/>
-      <c r="CZ3" s="110"/>
-      <c r="DA3" s="110"/>
-      <c r="DB3" s="110"/>
-      <c r="DC3" s="110"/>
+      <c r="CR3" s="131"/>
+      <c r="CS3" s="131"/>
+      <c r="CT3" s="131"/>
+      <c r="CU3" s="131"/>
+      <c r="CV3" s="131"/>
+      <c r="CW3" s="131"/>
+      <c r="CX3" s="131"/>
+      <c r="CY3" s="131"/>
+      <c r="CZ3" s="131"/>
+      <c r="DA3" s="131"/>
+      <c r="DB3" s="131"/>
+      <c r="DC3" s="131"/>
       <c r="DD3" s="107"/>
       <c r="DE3" s="88" t="s">
         <v>87</v>
@@ -2644,196 +2680,196 @@
     </row>
     <row r="4" spans="1:109" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="139">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="128">
         <v>19</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="139">
+      <c r="E4" s="114"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="128">
         <v>20</v>
       </c>
-      <c r="H4" s="140"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="99">
         <v>25</v>
       </c>
-      <c r="J4" s="139">
+      <c r="J4" s="128">
         <v>26</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="139">
+      <c r="K4" s="114"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="128">
         <v>27</v>
       </c>
-      <c r="N4" s="130"/>
+      <c r="N4" s="113"/>
       <c r="O4" s="99">
         <v>29</v>
       </c>
       <c r="P4" s="104">
         <v>2</v>
       </c>
-      <c r="Q4" s="114">
+      <c r="Q4" s="126">
         <v>3</v>
       </c>
-      <c r="R4" s="114"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="133">
+      <c r="R4" s="126"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="125">
         <v>4</v>
       </c>
-      <c r="U4" s="115"/>
+      <c r="U4" s="127"/>
       <c r="V4" s="100">
         <v>6</v>
       </c>
-      <c r="W4" s="133">
+      <c r="W4" s="125">
         <v>10</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="133">
+      <c r="X4" s="114"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="125">
         <v>11</v>
       </c>
-      <c r="AA4" s="115"/>
+      <c r="AA4" s="127"/>
       <c r="AB4" s="101">
         <v>16</v>
       </c>
-      <c r="AC4" s="133">
+      <c r="AC4" s="125">
         <v>17</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="133">
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="125">
         <v>18</v>
       </c>
-      <c r="AG4" s="115"/>
+      <c r="AG4" s="127"/>
       <c r="AH4" s="101">
         <v>20</v>
       </c>
       <c r="AI4" s="101">
         <v>23</v>
       </c>
-      <c r="AJ4" s="133">
+      <c r="AJ4" s="125">
         <v>24</v>
       </c>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="115"/>
+      <c r="AK4" s="126"/>
+      <c r="AL4" s="127"/>
       <c r="AM4" s="101">
         <v>27</v>
       </c>
       <c r="AN4" s="101">
         <v>30</v>
       </c>
-      <c r="AO4" s="133">
+      <c r="AO4" s="125">
         <v>31</v>
       </c>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="129">
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="139">
         <v>1</v>
       </c>
-      <c r="AS4" s="131"/>
+      <c r="AS4" s="140"/>
       <c r="AT4" s="97">
         <v>6</v>
       </c>
-      <c r="AU4" s="129">
+      <c r="AU4" s="139">
         <v>7</v>
       </c>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="129">
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="139">
         <v>8</v>
       </c>
-      <c r="AY4" s="130"/>
+      <c r="AY4" s="113"/>
       <c r="AZ4" s="97">
         <v>10</v>
       </c>
       <c r="BA4" s="97">
         <v>13</v>
       </c>
-      <c r="BB4" s="129">
+      <c r="BB4" s="139">
         <v>14</v>
       </c>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="129">
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="139">
         <v>15</v>
       </c>
-      <c r="BF4" s="130"/>
+      <c r="BF4" s="113"/>
       <c r="BG4" s="97">
         <v>17</v>
       </c>
       <c r="BH4" s="97">
         <v>20</v>
       </c>
-      <c r="BI4" s="129">
+      <c r="BI4" s="139">
         <v>21</v>
       </c>
-      <c r="BJ4" s="132"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="129">
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="139">
         <v>22</v>
       </c>
-      <c r="BM4" s="130"/>
+      <c r="BM4" s="113"/>
       <c r="BN4" s="97">
         <v>24</v>
       </c>
       <c r="BO4" s="97">
         <v>27</v>
       </c>
-      <c r="BP4" s="129">
+      <c r="BP4" s="139">
         <v>28</v>
       </c>
-      <c r="BQ4" s="132"/>
-      <c r="BR4" s="130"/>
-      <c r="BS4" s="129">
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="113"/>
+      <c r="BS4" s="139">
         <v>29</v>
       </c>
-      <c r="BT4" s="130"/>
+      <c r="BT4" s="113"/>
       <c r="BU4" s="80">
         <v>1</v>
       </c>
       <c r="BV4" s="80">
         <v>4</v>
       </c>
-      <c r="BW4" s="134">
+      <c r="BW4" s="115">
         <v>5</v>
       </c>
-      <c r="BX4" s="132"/>
-      <c r="BY4" s="132"/>
-      <c r="BZ4" s="134">
+      <c r="BX4" s="114"/>
+      <c r="BY4" s="114"/>
+      <c r="BZ4" s="115">
         <v>6</v>
       </c>
-      <c r="CA4" s="130"/>
+      <c r="CA4" s="113"/>
       <c r="CB4" s="80">
         <v>8</v>
       </c>
       <c r="CC4" s="80">
         <v>11</v>
       </c>
-      <c r="CD4" s="134">
+      <c r="CD4" s="115">
         <v>12</v>
       </c>
-      <c r="CE4" s="132"/>
-      <c r="CF4" s="132"/>
-      <c r="CG4" s="134">
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="114"/>
+      <c r="CG4" s="115">
         <v>13</v>
       </c>
-      <c r="CH4" s="130"/>
+      <c r="CH4" s="113"/>
       <c r="CI4" s="80">
         <v>15</v>
       </c>
       <c r="CJ4" s="80">
         <v>18</v>
       </c>
-      <c r="CK4" s="134">
+      <c r="CK4" s="115">
         <v>19</v>
       </c>
-      <c r="CL4" s="132"/>
-      <c r="CM4" s="132"/>
-      <c r="CN4" s="134">
+      <c r="CL4" s="114"/>
+      <c r="CM4" s="114"/>
+      <c r="CN4" s="115">
         <v>20</v>
       </c>
-      <c r="CO4" s="135"/>
+      <c r="CO4" s="141"/>
       <c r="CP4" s="80" t="s">
         <v>84</v>
       </c>
@@ -2843,15 +2879,15 @@
       <c r="CR4" s="106">
         <v>15</v>
       </c>
-      <c r="CS4" s="136">
+      <c r="CS4" s="110">
         <v>16</v>
       </c>
-      <c r="CT4" s="137"/>
-      <c r="CU4" s="138"/>
-      <c r="CV4" s="136">
+      <c r="CT4" s="111"/>
+      <c r="CU4" s="112"/>
+      <c r="CV4" s="110">
         <v>17</v>
       </c>
-      <c r="CW4" s="130"/>
+      <c r="CW4" s="113"/>
       <c r="CX4" s="106">
         <v>19</v>
       </c>
@@ -2861,22 +2897,22 @@
       <c r="CZ4" s="106">
         <v>23</v>
       </c>
-      <c r="DA4" s="136">
+      <c r="DA4" s="110">
         <v>24</v>
       </c>
-      <c r="DB4" s="132"/>
+      <c r="DB4" s="114"/>
       <c r="DC4" s="98">
         <v>26</v>
       </c>
       <c r="DD4" s="108">
         <v>29</v>
       </c>
-      <c r="DE4" s="118"/>
+      <c r="DE4" s="137"/>
     </row>
     <row r="5" spans="1:109" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -3190,7 +3226,7 @@
       <c r="DD5" s="85">
         <v>104</v>
       </c>
-      <c r="DE5" s="118"/>
+      <c r="DE5" s="137"/>
     </row>
     <row r="6" spans="1:109" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
@@ -3662,8 +3698,8 @@
       <c r="E10" s="52"/>
       <c r="F10" s="53"/>
       <c r="G10" s="74"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
@@ -3878,120 +3914,120 @@
       <c r="DD11" s="45"/>
       <c r="DE11" s="45"/>
     </row>
-    <row r="12" spans="1:109" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="1:109" s="155" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="A12" s="147"/>
+      <c r="B12" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="149">
         <v>5</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
-      <c r="BK12" s="20"/>
-      <c r="BL12" s="20"/>
-      <c r="BM12" s="20"/>
-      <c r="BN12" s="20"/>
-      <c r="BO12" s="20"/>
-      <c r="BP12" s="20"/>
-      <c r="BQ12" s="20"/>
-      <c r="BR12" s="20"/>
-      <c r="BS12" s="20"/>
-      <c r="BT12" s="20"/>
-      <c r="BU12" s="20"/>
-      <c r="BV12" s="20"/>
-      <c r="BW12" s="20"/>
-      <c r="BX12" s="20"/>
-      <c r="BY12" s="20"/>
-      <c r="BZ12" s="20"/>
-      <c r="CA12" s="20"/>
-      <c r="CB12" s="20"/>
-      <c r="CC12" s="20"/>
-      <c r="CD12" s="20"/>
-      <c r="CE12" s="20"/>
-      <c r="CF12" s="20"/>
-      <c r="CG12" s="20"/>
-      <c r="CH12" s="20"/>
-      <c r="CI12" s="20"/>
-      <c r="CJ12" s="20"/>
-      <c r="CK12" s="20"/>
-      <c r="CL12" s="20"/>
-      <c r="CM12" s="20"/>
-      <c r="CN12" s="20"/>
-      <c r="CO12" s="20"/>
-      <c r="CP12" s="20"/>
-      <c r="CQ12" s="20"/>
-      <c r="CR12" s="20"/>
-      <c r="CS12" s="20"/>
-      <c r="CT12" s="20"/>
-      <c r="CU12" s="20"/>
-      <c r="CV12" s="20"/>
-      <c r="CW12" s="21"/>
-      <c r="CX12" s="21"/>
-      <c r="CY12" s="21"/>
-      <c r="CZ12" s="21"/>
-      <c r="DA12" s="20"/>
-      <c r="DB12" s="20"/>
-      <c r="DC12" s="20"/>
-      <c r="DD12" s="20"/>
-      <c r="DE12" s="20"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="152"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="152"/>
+      <c r="AN12" s="152"/>
+      <c r="AO12" s="152"/>
+      <c r="AP12" s="152"/>
+      <c r="AQ12" s="152"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="152"/>
+      <c r="AT12" s="152"/>
+      <c r="AU12" s="152"/>
+      <c r="AV12" s="152"/>
+      <c r="AW12" s="152"/>
+      <c r="AX12" s="152"/>
+      <c r="AY12" s="152"/>
+      <c r="AZ12" s="152"/>
+      <c r="BA12" s="152"/>
+      <c r="BB12" s="152"/>
+      <c r="BC12" s="152"/>
+      <c r="BD12" s="152"/>
+      <c r="BE12" s="152"/>
+      <c r="BF12" s="152"/>
+      <c r="BG12" s="152"/>
+      <c r="BH12" s="152"/>
+      <c r="BI12" s="152"/>
+      <c r="BJ12" s="152"/>
+      <c r="BK12" s="152"/>
+      <c r="BL12" s="152"/>
+      <c r="BM12" s="152"/>
+      <c r="BN12" s="152"/>
+      <c r="BO12" s="152"/>
+      <c r="BP12" s="152"/>
+      <c r="BQ12" s="152"/>
+      <c r="BR12" s="152"/>
+      <c r="BS12" s="152"/>
+      <c r="BT12" s="152"/>
+      <c r="BU12" s="152"/>
+      <c r="BV12" s="152"/>
+      <c r="BW12" s="152"/>
+      <c r="BX12" s="152"/>
+      <c r="BY12" s="152"/>
+      <c r="BZ12" s="152"/>
+      <c r="CA12" s="152"/>
+      <c r="CB12" s="152"/>
+      <c r="CC12" s="152"/>
+      <c r="CD12" s="152"/>
+      <c r="CE12" s="152"/>
+      <c r="CF12" s="152"/>
+      <c r="CG12" s="152"/>
+      <c r="CH12" s="152"/>
+      <c r="CI12" s="152"/>
+      <c r="CJ12" s="152"/>
+      <c r="CK12" s="152"/>
+      <c r="CL12" s="152"/>
+      <c r="CM12" s="152"/>
+      <c r="CN12" s="152"/>
+      <c r="CO12" s="152"/>
+      <c r="CP12" s="152"/>
+      <c r="CQ12" s="152"/>
+      <c r="CR12" s="152"/>
+      <c r="CS12" s="152"/>
+      <c r="CT12" s="152"/>
+      <c r="CU12" s="152"/>
+      <c r="CV12" s="152"/>
+      <c r="CW12" s="154"/>
+      <c r="CX12" s="154"/>
+      <c r="CY12" s="154"/>
+      <c r="CZ12" s="154"/>
+      <c r="DA12" s="152"/>
+      <c r="DB12" s="152"/>
+      <c r="DC12" s="152"/>
+      <c r="DD12" s="152"/>
+      <c r="DE12" s="152"/>
     </row>
     <row r="13" spans="1:109" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A13" s="14"/>
@@ -4013,8 +4049,8 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
@@ -6074,10 +6110,10 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
+      <c r="Q31" s="73"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
-      <c r="T31" s="72"/>
+      <c r="T31" s="156"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
@@ -34812,14 +34848,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CW4"/>
-    <mergeCell ref="DA4:DB4"/>
-    <mergeCell ref="BW4:BY4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="CK4:CM4"/>
+    <mergeCell ref="CQ3:DC3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="BU3:CP3"/>
+    <mergeCell ref="DE4:DE5"/>
+    <mergeCell ref="AR3:BT3"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="CN4:CO4"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="P1:AD1"/>
     <mergeCell ref="B3:B5"/>
@@ -34836,22 +34880,14 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="CQ3:DC3"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="BU3:CP3"/>
-    <mergeCell ref="DE4:DE5"/>
-    <mergeCell ref="AR3:BT3"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="CN4:CO4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CW4"/>
+    <mergeCell ref="DA4:DB4"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="CK4:CM4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34888,34 +34924,34 @@
   <sheetData>
     <row r="1" spans="1:80" ht="41.4" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -35056,71 +35092,71 @@
     </row>
     <row r="3" spans="1:80" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="125" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="128" t="s">
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="127"/>
-      <c r="AV3" s="127"/>
-      <c r="AW3" s="127"/>
-      <c r="AX3" s="127"/>
-      <c r="AY3" s="127"/>
-      <c r="AZ3" s="127"/>
-      <c r="BA3" s="127"/>
-      <c r="BB3" s="127"/>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="124"/>
+      <c r="AS3" s="124"/>
+      <c r="AT3" s="124"/>
+      <c r="AU3" s="124"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="124"/>
+      <c r="AX3" s="124"/>
+      <c r="AY3" s="124"/>
+      <c r="AZ3" s="124"/>
+      <c r="BA3" s="124"/>
+      <c r="BB3" s="124"/>
+      <c r="BC3" s="124"/>
+      <c r="BD3" s="124"/>
       <c r="BE3" s="142" t="s">
         <v>6</v>
       </c>
@@ -35142,164 +35178,164 @@
       <c r="BU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BV3" s="132"/>
-      <c r="BW3" s="132"/>
-      <c r="BX3" s="132"/>
-      <c r="BY3" s="132"/>
-      <c r="BZ3" s="132"/>
-      <c r="CA3" s="130"/>
+      <c r="BV3" s="114"/>
+      <c r="BW3" s="114"/>
+      <c r="BX3" s="114"/>
+      <c r="BY3" s="114"/>
+      <c r="BZ3" s="114"/>
+      <c r="CA3" s="113"/>
       <c r="CB3" s="88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:80" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="139">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="128">
         <v>19</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="139">
+      <c r="E4" s="114"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="128">
         <v>20</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="139">
+      <c r="H4" s="113"/>
+      <c r="I4" s="128">
         <v>26</v>
       </c>
-      <c r="J4" s="132"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="139">
+      <c r="J4" s="114"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="128">
         <v>27</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="133">
+      <c r="M4" s="113"/>
+      <c r="N4" s="125">
         <v>3</v>
       </c>
-      <c r="O4" s="132"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="133">
+      <c r="O4" s="114"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="125">
         <v>4</v>
       </c>
-      <c r="R4" s="130"/>
-      <c r="S4" s="133">
+      <c r="R4" s="113"/>
+      <c r="S4" s="125">
         <v>10</v>
       </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="133">
+      <c r="T4" s="114"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="125">
         <v>11</v>
       </c>
-      <c r="W4" s="130"/>
-      <c r="X4" s="133">
+      <c r="W4" s="113"/>
+      <c r="X4" s="125">
         <v>17</v>
       </c>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="133">
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="125">
         <v>18</v>
       </c>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="133">
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="125">
         <v>24</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="133">
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="125">
         <v>31</v>
       </c>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="129">
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="139">
         <v>1</v>
       </c>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="129">
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="139">
         <v>7</v>
       </c>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="129">
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="139">
         <v>8</v>
       </c>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="129">
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="139">
         <v>14</v>
       </c>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="129">
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="139">
         <v>15</v>
       </c>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="129">
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="139">
         <v>21</v>
       </c>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="129">
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="139">
         <v>22</v>
       </c>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="129">
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="139">
         <v>28</v>
       </c>
-      <c r="BA4" s="132"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="129">
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="139">
         <v>29</v>
       </c>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="134">
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="115">
         <v>5</v>
       </c>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="134">
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="115">
         <v>6</v>
       </c>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="134">
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="115">
         <v>12</v>
       </c>
-      <c r="BK4" s="132"/>
-      <c r="BL4" s="132"/>
-      <c r="BM4" s="134">
+      <c r="BK4" s="114"/>
+      <c r="BL4" s="114"/>
+      <c r="BM4" s="115">
         <v>13</v>
       </c>
-      <c r="BN4" s="130"/>
-      <c r="BO4" s="134">
+      <c r="BN4" s="113"/>
+      <c r="BO4" s="115">
         <v>19</v>
       </c>
-      <c r="BP4" s="132"/>
-      <c r="BQ4" s="132"/>
-      <c r="BR4" s="134">
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="115">
         <v>20</v>
       </c>
-      <c r="BS4" s="135"/>
+      <c r="BS4" s="141"/>
       <c r="BT4" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="BU4" s="136">
+      <c r="BU4" s="110">
         <v>16</v>
       </c>
-      <c r="BV4" s="132"/>
-      <c r="BW4" s="132"/>
-      <c r="BX4" s="136">
+      <c r="BV4" s="114"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="110">
         <v>17</v>
       </c>
-      <c r="BY4" s="130"/>
-      <c r="BZ4" s="136">
+      <c r="BY4" s="113"/>
+      <c r="BZ4" s="110">
         <v>24</v>
       </c>
-      <c r="CA4" s="132"/>
-      <c r="CB4" s="118"/>
+      <c r="CA4" s="114"/>
+      <c r="CB4" s="137"/>
     </row>
     <row r="5" spans="1:80" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -35526,7 +35562,7 @@
       <c r="CA5" s="89">
         <v>75</v>
       </c>
-      <c r="CB5" s="118"/>
+      <c r="CB5" s="137"/>
     </row>
     <row r="6" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
@@ -58970,20 +59006,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:AH3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AI3:BD3"/>
     <mergeCell ref="BE3:BT3"/>
     <mergeCell ref="BU3:CA3"/>
@@ -59000,16 +59032,20 @@
     <mergeCell ref="AK4:AM4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:AH3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
+++ b/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B741F82-73D7-460E-90EF-DF365893E4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A9AACF-F230-43D9-82D1-0DF59D962EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1237,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1513,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1820,105 +1826,6 @@
     <xf numFmtId="9" fontId="20" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1945,6 +1852,111 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2274,10 +2286,10 @@
   <dimension ref="A1:DE287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4:Y37"/>
+      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
@@ -2327,39 +2339,39 @@
   <sheetData>
     <row r="1" spans="1:109" ht="41.4" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
       <c r="O1" s="94"/>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -2553,126 +2565,126 @@
     </row>
     <row r="3" spans="1:109" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="122" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="138" t="s">
+      <c r="Q3" s="145"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="124"/>
-      <c r="AT3" s="124"/>
-      <c r="AU3" s="124"/>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="124"/>
-      <c r="AX3" s="124"/>
-      <c r="AY3" s="124"/>
-      <c r="AZ3" s="124"/>
-      <c r="BA3" s="124"/>
-      <c r="BB3" s="124"/>
-      <c r="BC3" s="124"/>
-      <c r="BD3" s="124"/>
-      <c r="BE3" s="124"/>
-      <c r="BF3" s="124"/>
-      <c r="BG3" s="124"/>
-      <c r="BH3" s="124"/>
-      <c r="BI3" s="124"/>
-      <c r="BJ3" s="124"/>
-      <c r="BK3" s="124"/>
-      <c r="BL3" s="124"/>
-      <c r="BM3" s="124"/>
-      <c r="BN3" s="124"/>
-      <c r="BO3" s="124"/>
-      <c r="BP3" s="124"/>
-      <c r="BQ3" s="124"/>
-      <c r="BR3" s="124"/>
-      <c r="BS3" s="124"/>
-      <c r="BT3" s="124"/>
-      <c r="BU3" s="135" t="s">
+      <c r="AS3" s="131"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="131"/>
+      <c r="BF3" s="131"/>
+      <c r="BG3" s="131"/>
+      <c r="BH3" s="131"/>
+      <c r="BI3" s="131"/>
+      <c r="BJ3" s="131"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
+      <c r="BR3" s="131"/>
+      <c r="BS3" s="131"/>
+      <c r="BT3" s="131"/>
+      <c r="BU3" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="130" t="s">
+      <c r="BV3" s="127"/>
+      <c r="BW3" s="127"/>
+      <c r="BX3" s="127"/>
+      <c r="BY3" s="127"/>
+      <c r="BZ3" s="127"/>
+      <c r="CA3" s="127"/>
+      <c r="CB3" s="127"/>
+      <c r="CC3" s="127"/>
+      <c r="CD3" s="127"/>
+      <c r="CE3" s="127"/>
+      <c r="CF3" s="127"/>
+      <c r="CG3" s="127"/>
+      <c r="CH3" s="127"/>
+      <c r="CI3" s="127"/>
+      <c r="CJ3" s="127"/>
+      <c r="CK3" s="127"/>
+      <c r="CL3" s="127"/>
+      <c r="CM3" s="127"/>
+      <c r="CN3" s="127"/>
+      <c r="CO3" s="127"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="131"/>
-      <c r="CS3" s="131"/>
-      <c r="CT3" s="131"/>
-      <c r="CU3" s="131"/>
-      <c r="CV3" s="131"/>
-      <c r="CW3" s="131"/>
-      <c r="CX3" s="131"/>
-      <c r="CY3" s="131"/>
-      <c r="CZ3" s="131"/>
-      <c r="DA3" s="131"/>
-      <c r="DB3" s="131"/>
-      <c r="DC3" s="131"/>
+      <c r="CR3" s="121"/>
+      <c r="CS3" s="121"/>
+      <c r="CT3" s="121"/>
+      <c r="CU3" s="121"/>
+      <c r="CV3" s="121"/>
+      <c r="CW3" s="121"/>
+      <c r="CX3" s="121"/>
+      <c r="CY3" s="121"/>
+      <c r="CZ3" s="121"/>
+      <c r="DA3" s="121"/>
+      <c r="DB3" s="121"/>
+      <c r="DC3" s="121"/>
       <c r="DD3" s="107"/>
       <c r="DE3" s="88" t="s">
         <v>87</v>
@@ -2680,196 +2692,196 @@
     </row>
     <row r="4" spans="1:109" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="128">
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="147">
         <v>19</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="128">
+      <c r="E4" s="135"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="147">
         <v>20</v>
       </c>
-      <c r="H4" s="129"/>
+      <c r="H4" s="148"/>
       <c r="I4" s="99">
         <v>25</v>
       </c>
-      <c r="J4" s="128">
+      <c r="J4" s="147">
         <v>26</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="128">
+      <c r="K4" s="135"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="147">
         <v>27</v>
       </c>
-      <c r="N4" s="113"/>
+      <c r="N4" s="133"/>
       <c r="O4" s="99">
         <v>29</v>
       </c>
       <c r="P4" s="104">
         <v>2</v>
       </c>
-      <c r="Q4" s="126">
+      <c r="Q4" s="125">
         <v>3</v>
       </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="125">
+      <c r="R4" s="125"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="146">
         <v>4</v>
       </c>
-      <c r="U4" s="127"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="100">
         <v>6</v>
       </c>
-      <c r="W4" s="125">
+      <c r="W4" s="146">
         <v>10</v>
       </c>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="125">
+      <c r="X4" s="135"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="146">
         <v>11</v>
       </c>
-      <c r="AA4" s="127"/>
+      <c r="AA4" s="126"/>
       <c r="AB4" s="101">
         <v>16</v>
       </c>
-      <c r="AC4" s="125">
+      <c r="AC4" s="146">
         <v>17</v>
       </c>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="113"/>
-      <c r="AF4" s="125">
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="146">
         <v>18</v>
       </c>
-      <c r="AG4" s="127"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="101">
         <v>20</v>
       </c>
       <c r="AI4" s="101">
         <v>23</v>
       </c>
-      <c r="AJ4" s="125">
+      <c r="AJ4" s="146">
         <v>24</v>
       </c>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="127"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="126"/>
       <c r="AM4" s="101">
         <v>27</v>
       </c>
       <c r="AN4" s="101">
         <v>30</v>
       </c>
-      <c r="AO4" s="125">
+      <c r="AO4" s="146">
         <v>31</v>
       </c>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="139">
+      <c r="AP4" s="135"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="132">
         <v>1</v>
       </c>
-      <c r="AS4" s="140"/>
+      <c r="AS4" s="134"/>
       <c r="AT4" s="97">
         <v>6</v>
       </c>
-      <c r="AU4" s="139">
+      <c r="AU4" s="132">
         <v>7</v>
       </c>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="113"/>
-      <c r="AX4" s="139">
+      <c r="AV4" s="135"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="132">
         <v>8</v>
       </c>
-      <c r="AY4" s="113"/>
+      <c r="AY4" s="133"/>
       <c r="AZ4" s="97">
         <v>10</v>
       </c>
       <c r="BA4" s="97">
         <v>13</v>
       </c>
-      <c r="BB4" s="139">
+      <c r="BB4" s="132">
         <v>14</v>
       </c>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="113"/>
-      <c r="BE4" s="139">
+      <c r="BC4" s="135"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="132">
         <v>15</v>
       </c>
-      <c r="BF4" s="113"/>
+      <c r="BF4" s="133"/>
       <c r="BG4" s="97">
         <v>17</v>
       </c>
       <c r="BH4" s="97">
         <v>20</v>
       </c>
-      <c r="BI4" s="139">
+      <c r="BI4" s="132">
         <v>21</v>
       </c>
-      <c r="BJ4" s="114"/>
-      <c r="BK4" s="113"/>
-      <c r="BL4" s="139">
+      <c r="BJ4" s="135"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="132">
         <v>22</v>
       </c>
-      <c r="BM4" s="113"/>
+      <c r="BM4" s="133"/>
       <c r="BN4" s="97">
         <v>24</v>
       </c>
       <c r="BO4" s="97">
         <v>27</v>
       </c>
-      <c r="BP4" s="139">
+      <c r="BP4" s="132">
         <v>28</v>
       </c>
-      <c r="BQ4" s="114"/>
-      <c r="BR4" s="113"/>
-      <c r="BS4" s="139">
+      <c r="BQ4" s="135"/>
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="132">
         <v>29</v>
       </c>
-      <c r="BT4" s="113"/>
+      <c r="BT4" s="133"/>
       <c r="BU4" s="80">
         <v>1</v>
       </c>
       <c r="BV4" s="80">
         <v>4</v>
       </c>
-      <c r="BW4" s="115">
+      <c r="BW4" s="136">
         <v>5</v>
       </c>
-      <c r="BX4" s="114"/>
-      <c r="BY4" s="114"/>
-      <c r="BZ4" s="115">
+      <c r="BX4" s="135"/>
+      <c r="BY4" s="135"/>
+      <c r="BZ4" s="136">
         <v>6</v>
       </c>
-      <c r="CA4" s="113"/>
+      <c r="CA4" s="133"/>
       <c r="CB4" s="80">
         <v>8</v>
       </c>
       <c r="CC4" s="80">
         <v>11</v>
       </c>
-      <c r="CD4" s="115">
+      <c r="CD4" s="136">
         <v>12</v>
       </c>
-      <c r="CE4" s="114"/>
-      <c r="CF4" s="114"/>
-      <c r="CG4" s="115">
+      <c r="CE4" s="135"/>
+      <c r="CF4" s="135"/>
+      <c r="CG4" s="136">
         <v>13</v>
       </c>
-      <c r="CH4" s="113"/>
+      <c r="CH4" s="133"/>
       <c r="CI4" s="80">
         <v>15</v>
       </c>
       <c r="CJ4" s="80">
         <v>18</v>
       </c>
-      <c r="CK4" s="115">
+      <c r="CK4" s="136">
         <v>19</v>
       </c>
-      <c r="CL4" s="114"/>
-      <c r="CM4" s="114"/>
-      <c r="CN4" s="115">
+      <c r="CL4" s="135"/>
+      <c r="CM4" s="135"/>
+      <c r="CN4" s="136">
         <v>20</v>
       </c>
-      <c r="CO4" s="141"/>
+      <c r="CO4" s="137"/>
       <c r="CP4" s="80" t="s">
         <v>84</v>
       </c>
@@ -2879,15 +2891,15 @@
       <c r="CR4" s="106">
         <v>15</v>
       </c>
-      <c r="CS4" s="110">
+      <c r="CS4" s="149">
         <v>16</v>
       </c>
-      <c r="CT4" s="111"/>
-      <c r="CU4" s="112"/>
-      <c r="CV4" s="110">
+      <c r="CT4" s="150"/>
+      <c r="CU4" s="151"/>
+      <c r="CV4" s="149">
         <v>17</v>
       </c>
-      <c r="CW4" s="113"/>
+      <c r="CW4" s="133"/>
       <c r="CX4" s="106">
         <v>19</v>
       </c>
@@ -2897,22 +2909,22 @@
       <c r="CZ4" s="106">
         <v>23</v>
       </c>
-      <c r="DA4" s="110">
+      <c r="DA4" s="149">
         <v>24</v>
       </c>
-      <c r="DB4" s="114"/>
+      <c r="DB4" s="135"/>
       <c r="DC4" s="98">
         <v>26</v>
       </c>
       <c r="DD4" s="108">
         <v>29</v>
       </c>
-      <c r="DE4" s="137"/>
+      <c r="DE4" s="129"/>
     </row>
     <row r="5" spans="1:109" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -3226,7 +3238,7 @@
       <c r="DD5" s="85">
         <v>104</v>
       </c>
-      <c r="DE5" s="137"/>
+      <c r="DE5" s="129"/>
     </row>
     <row r="6" spans="1:109" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
@@ -3914,120 +3926,120 @@
       <c r="DD11" s="45"/>
       <c r="DE11" s="45"/>
     </row>
-    <row r="12" spans="1:109" s="155" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
-      <c r="A12" s="147"/>
-      <c r="B12" s="148" t="s">
+    <row r="12" spans="1:109" s="118" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
+      <c r="A12" s="110"/>
+      <c r="B12" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="149">
+      <c r="C12" s="112">
         <v>5</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="152"/>
-      <c r="AE12" s="152"/>
-      <c r="AF12" s="152"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="152"/>
-      <c r="AI12" s="152"/>
-      <c r="AJ12" s="152"/>
-      <c r="AK12" s="152"/>
-      <c r="AL12" s="152"/>
-      <c r="AM12" s="152"/>
-      <c r="AN12" s="152"/>
-      <c r="AO12" s="152"/>
-      <c r="AP12" s="152"/>
-      <c r="AQ12" s="152"/>
-      <c r="AR12" s="152"/>
-      <c r="AS12" s="152"/>
-      <c r="AT12" s="152"/>
-      <c r="AU12" s="152"/>
-      <c r="AV12" s="152"/>
-      <c r="AW12" s="152"/>
-      <c r="AX12" s="152"/>
-      <c r="AY12" s="152"/>
-      <c r="AZ12" s="152"/>
-      <c r="BA12" s="152"/>
-      <c r="BB12" s="152"/>
-      <c r="BC12" s="152"/>
-      <c r="BD12" s="152"/>
-      <c r="BE12" s="152"/>
-      <c r="BF12" s="152"/>
-      <c r="BG12" s="152"/>
-      <c r="BH12" s="152"/>
-      <c r="BI12" s="152"/>
-      <c r="BJ12" s="152"/>
-      <c r="BK12" s="152"/>
-      <c r="BL12" s="152"/>
-      <c r="BM12" s="152"/>
-      <c r="BN12" s="152"/>
-      <c r="BO12" s="152"/>
-      <c r="BP12" s="152"/>
-      <c r="BQ12" s="152"/>
-      <c r="BR12" s="152"/>
-      <c r="BS12" s="152"/>
-      <c r="BT12" s="152"/>
-      <c r="BU12" s="152"/>
-      <c r="BV12" s="152"/>
-      <c r="BW12" s="152"/>
-      <c r="BX12" s="152"/>
-      <c r="BY12" s="152"/>
-      <c r="BZ12" s="152"/>
-      <c r="CA12" s="152"/>
-      <c r="CB12" s="152"/>
-      <c r="CC12" s="152"/>
-      <c r="CD12" s="152"/>
-      <c r="CE12" s="152"/>
-      <c r="CF12" s="152"/>
-      <c r="CG12" s="152"/>
-      <c r="CH12" s="152"/>
-      <c r="CI12" s="152"/>
-      <c r="CJ12" s="152"/>
-      <c r="CK12" s="152"/>
-      <c r="CL12" s="152"/>
-      <c r="CM12" s="152"/>
-      <c r="CN12" s="152"/>
-      <c r="CO12" s="152"/>
-      <c r="CP12" s="152"/>
-      <c r="CQ12" s="152"/>
-      <c r="CR12" s="152"/>
-      <c r="CS12" s="152"/>
-      <c r="CT12" s="152"/>
-      <c r="CU12" s="152"/>
-      <c r="CV12" s="152"/>
-      <c r="CW12" s="154"/>
-      <c r="CX12" s="154"/>
-      <c r="CY12" s="154"/>
-      <c r="CZ12" s="154"/>
-      <c r="DA12" s="152"/>
-      <c r="DB12" s="152"/>
-      <c r="DC12" s="152"/>
-      <c r="DD12" s="152"/>
-      <c r="DE12" s="152"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="115"/>
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="115"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="115"/>
+      <c r="BE12" s="115"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="115"/>
+      <c r="BP12" s="115"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="115"/>
+      <c r="BS12" s="115"/>
+      <c r="BT12" s="115"/>
+      <c r="BU12" s="115"/>
+      <c r="BV12" s="115"/>
+      <c r="BW12" s="115"/>
+      <c r="BX12" s="115"/>
+      <c r="BY12" s="115"/>
+      <c r="BZ12" s="115"/>
+      <c r="CA12" s="115"/>
+      <c r="CB12" s="115"/>
+      <c r="CC12" s="115"/>
+      <c r="CD12" s="115"/>
+      <c r="CE12" s="115"/>
+      <c r="CF12" s="115"/>
+      <c r="CG12" s="115"/>
+      <c r="CH12" s="115"/>
+      <c r="CI12" s="115"/>
+      <c r="CJ12" s="115"/>
+      <c r="CK12" s="115"/>
+      <c r="CL12" s="115"/>
+      <c r="CM12" s="115"/>
+      <c r="CN12" s="115"/>
+      <c r="CO12" s="115"/>
+      <c r="CP12" s="115"/>
+      <c r="CQ12" s="115"/>
+      <c r="CR12" s="115"/>
+      <c r="CS12" s="115"/>
+      <c r="CT12" s="115"/>
+      <c r="CU12" s="115"/>
+      <c r="CV12" s="115"/>
+      <c r="CW12" s="117"/>
+      <c r="CX12" s="117"/>
+      <c r="CY12" s="117"/>
+      <c r="CZ12" s="117"/>
+      <c r="DA12" s="115"/>
+      <c r="DB12" s="115"/>
+      <c r="DC12" s="115"/>
+      <c r="DD12" s="115"/>
+      <c r="DE12" s="115"/>
     </row>
     <row r="13" spans="1:109" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A13" s="14"/>
@@ -4277,9 +4289,9 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
       <c r="S15" s="70"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
@@ -4394,8 +4406,8 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="157"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
@@ -6113,7 +6125,7 @@
       <c r="Q31" s="73"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
-      <c r="T31" s="156"/>
+      <c r="T31" s="119"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
@@ -6461,9 +6473,9 @@
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
       <c r="Z34" s="25"/>
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
@@ -34848,6 +34860,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CW4"/>
+    <mergeCell ref="DA4:DB4"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="CK4:CM4"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="P3:AQ3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="CQ3:DC3"/>
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="Q4:S4"/>
@@ -34864,30 +34900,6 @@
     <mergeCell ref="BL4:BM4"/>
     <mergeCell ref="BP4:BR4"/>
     <mergeCell ref="CN4:CO4"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="P3:AQ3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CW4"/>
-    <mergeCell ref="DA4:DB4"/>
-    <mergeCell ref="BW4:BY4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="CK4:CM4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34924,34 +34936,34 @@
   <sheetData>
     <row r="1" spans="1:80" ht="41.4" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -35092,250 +35104,250 @@
     </row>
     <row r="3" spans="1:80" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="138" t="s">
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="124"/>
-      <c r="AS3" s="124"/>
-      <c r="AT3" s="124"/>
-      <c r="AU3" s="124"/>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="124"/>
-      <c r="AX3" s="124"/>
-      <c r="AY3" s="124"/>
-      <c r="AZ3" s="124"/>
-      <c r="BA3" s="124"/>
-      <c r="BB3" s="124"/>
-      <c r="BC3" s="124"/>
-      <c r="BD3" s="124"/>
-      <c r="BE3" s="142" t="s">
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="BF3" s="143"/>
-      <c r="BG3" s="143"/>
-      <c r="BH3" s="143"/>
-      <c r="BI3" s="143"/>
-      <c r="BJ3" s="143"/>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="143"/>
-      <c r="BN3" s="143"/>
-      <c r="BO3" s="143"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="143"/>
-      <c r="BR3" s="143"/>
-      <c r="BS3" s="143"/>
-      <c r="BT3" s="144"/>
-      <c r="BU3" s="145" t="s">
+      <c r="BF3" s="154"/>
+      <c r="BG3" s="154"/>
+      <c r="BH3" s="154"/>
+      <c r="BI3" s="154"/>
+      <c r="BJ3" s="154"/>
+      <c r="BK3" s="154"/>
+      <c r="BL3" s="154"/>
+      <c r="BM3" s="154"/>
+      <c r="BN3" s="154"/>
+      <c r="BO3" s="154"/>
+      <c r="BP3" s="154"/>
+      <c r="BQ3" s="154"/>
+      <c r="BR3" s="154"/>
+      <c r="BS3" s="154"/>
+      <c r="BT3" s="155"/>
+      <c r="BU3" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="BV3" s="114"/>
-      <c r="BW3" s="114"/>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="114"/>
-      <c r="BZ3" s="114"/>
-      <c r="CA3" s="113"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="133"/>
       <c r="CB3" s="88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:80" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="128">
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="147">
         <v>19</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="128">
+      <c r="E4" s="135"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="147">
         <v>20</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="128">
+      <c r="H4" s="133"/>
+      <c r="I4" s="147">
         <v>26</v>
       </c>
-      <c r="J4" s="114"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="128">
+      <c r="J4" s="135"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="147">
         <v>27</v>
       </c>
-      <c r="M4" s="113"/>
-      <c r="N4" s="125">
+      <c r="M4" s="133"/>
+      <c r="N4" s="146">
         <v>3</v>
       </c>
-      <c r="O4" s="114"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="125">
+      <c r="O4" s="135"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="146">
         <v>4</v>
       </c>
-      <c r="R4" s="113"/>
-      <c r="S4" s="125">
+      <c r="R4" s="133"/>
+      <c r="S4" s="146">
         <v>10</v>
       </c>
-      <c r="T4" s="114"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="125">
+      <c r="T4" s="135"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="146">
         <v>11</v>
       </c>
-      <c r="W4" s="113"/>
-      <c r="X4" s="125">
+      <c r="W4" s="133"/>
+      <c r="X4" s="146">
         <v>17</v>
       </c>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="125">
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="146">
         <v>18</v>
       </c>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="125">
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="146">
         <v>24</v>
       </c>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="113"/>
-      <c r="AF4" s="125">
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="146">
         <v>31</v>
       </c>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="139">
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="132">
         <v>1</v>
       </c>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="139">
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="132">
         <v>7</v>
       </c>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="113"/>
-      <c r="AN4" s="139">
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="132">
         <v>8</v>
       </c>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="139">
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="132">
         <v>14</v>
       </c>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="139">
+      <c r="AQ4" s="135"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="132">
         <v>15</v>
       </c>
-      <c r="AT4" s="113"/>
-      <c r="AU4" s="139">
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="132">
         <v>21</v>
       </c>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="113"/>
-      <c r="AX4" s="139">
+      <c r="AV4" s="135"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="132">
         <v>22</v>
       </c>
-      <c r="AY4" s="113"/>
-      <c r="AZ4" s="139">
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="132">
         <v>28</v>
       </c>
-      <c r="BA4" s="114"/>
-      <c r="BB4" s="113"/>
-      <c r="BC4" s="139">
+      <c r="BA4" s="135"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="132">
         <v>29</v>
       </c>
-      <c r="BD4" s="113"/>
-      <c r="BE4" s="115">
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="136">
         <v>5</v>
       </c>
-      <c r="BF4" s="114"/>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="115">
+      <c r="BF4" s="135"/>
+      <c r="BG4" s="135"/>
+      <c r="BH4" s="136">
         <v>6</v>
       </c>
-      <c r="BI4" s="113"/>
-      <c r="BJ4" s="115">
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="136">
         <v>12</v>
       </c>
-      <c r="BK4" s="114"/>
-      <c r="BL4" s="114"/>
-      <c r="BM4" s="115">
+      <c r="BK4" s="135"/>
+      <c r="BL4" s="135"/>
+      <c r="BM4" s="136">
         <v>13</v>
       </c>
-      <c r="BN4" s="113"/>
-      <c r="BO4" s="115">
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="136">
         <v>19</v>
       </c>
-      <c r="BP4" s="114"/>
-      <c r="BQ4" s="114"/>
-      <c r="BR4" s="115">
+      <c r="BP4" s="135"/>
+      <c r="BQ4" s="135"/>
+      <c r="BR4" s="136">
         <v>20</v>
       </c>
-      <c r="BS4" s="141"/>
+      <c r="BS4" s="137"/>
       <c r="BT4" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="BU4" s="110">
+      <c r="BU4" s="149">
         <v>16</v>
       </c>
-      <c r="BV4" s="114"/>
-      <c r="BW4" s="114"/>
-      <c r="BX4" s="110">
+      <c r="BV4" s="135"/>
+      <c r="BW4" s="135"/>
+      <c r="BX4" s="149">
         <v>17</v>
       </c>
-      <c r="BY4" s="113"/>
-      <c r="BZ4" s="110">
+      <c r="BY4" s="133"/>
+      <c r="BZ4" s="149">
         <v>24</v>
       </c>
-      <c r="CA4" s="114"/>
-      <c r="CB4" s="137"/>
+      <c r="CA4" s="135"/>
+      <c r="CB4" s="129"/>
     </row>
     <row r="5" spans="1:80" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -35562,7 +35574,7 @@
       <c r="CA5" s="89">
         <v>75</v>
       </c>
-      <c r="CB5" s="137"/>
+      <c r="CB5" s="129"/>
     </row>
     <row r="6" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
@@ -59006,16 +59018,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:AH3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
     <mergeCell ref="AI3:BD3"/>
     <mergeCell ref="BE3:BT3"/>
     <mergeCell ref="BU3:CA3"/>
@@ -59032,20 +59048,16 @@
     <mergeCell ref="AK4:AM4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:AH3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
+++ b/3DLv3_2023_vs2019/Plan/スケジュール表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A9AACF-F230-43D9-82D1-0DF59D962EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64473676-F2ED-4CBA-81FB-09FB90719BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1854,52 +1854,24 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,7 +1892,14 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,16 +1908,40 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,11 +1956,8 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2286,10 +2286,10 @@
   <dimension ref="A1:DE287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
+      <selection pane="bottomRight" activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
@@ -2339,39 +2339,39 @@
   <sheetData>
     <row r="1" spans="1:109" ht="41.4" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
       <c r="O1" s="94"/>
-      <c r="P1" s="140" t="s">
+      <c r="P1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -2565,126 +2565,126 @@
     </row>
     <row r="3" spans="1:109" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="144" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="131"/>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="131"/>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="131"/>
-      <c r="AQ3" s="131"/>
-      <c r="AR3" s="130" t="s">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="131"/>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="131"/>
-      <c r="BC3" s="131"/>
-      <c r="BD3" s="131"/>
-      <c r="BE3" s="131"/>
-      <c r="BF3" s="131"/>
-      <c r="BG3" s="131"/>
-      <c r="BH3" s="131"/>
-      <c r="BI3" s="131"/>
-      <c r="BJ3" s="131"/>
-      <c r="BK3" s="131"/>
-      <c r="BL3" s="131"/>
-      <c r="BM3" s="131"/>
-      <c r="BN3" s="131"/>
-      <c r="BO3" s="131"/>
-      <c r="BP3" s="131"/>
-      <c r="BQ3" s="131"/>
-      <c r="BR3" s="131"/>
-      <c r="BS3" s="131"/>
-      <c r="BT3" s="131"/>
-      <c r="BU3" s="127" t="s">
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="BV3" s="127"/>
-      <c r="BW3" s="127"/>
-      <c r="BX3" s="127"/>
-      <c r="BY3" s="127"/>
-      <c r="BZ3" s="127"/>
-      <c r="CA3" s="127"/>
-      <c r="CB3" s="127"/>
-      <c r="CC3" s="127"/>
-      <c r="CD3" s="127"/>
-      <c r="CE3" s="127"/>
-      <c r="CF3" s="127"/>
-      <c r="CG3" s="127"/>
-      <c r="CH3" s="127"/>
-      <c r="CI3" s="127"/>
-      <c r="CJ3" s="127"/>
-      <c r="CK3" s="127"/>
-      <c r="CL3" s="127"/>
-      <c r="CM3" s="127"/>
-      <c r="CN3" s="127"/>
-      <c r="CO3" s="127"/>
-      <c r="CP3" s="128"/>
-      <c r="CQ3" s="120" t="s">
+      <c r="BV3" s="147"/>
+      <c r="BW3" s="147"/>
+      <c r="BX3" s="147"/>
+      <c r="BY3" s="147"/>
+      <c r="BZ3" s="147"/>
+      <c r="CA3" s="147"/>
+      <c r="CB3" s="147"/>
+      <c r="CC3" s="147"/>
+      <c r="CD3" s="147"/>
+      <c r="CE3" s="147"/>
+      <c r="CF3" s="147"/>
+      <c r="CG3" s="147"/>
+      <c r="CH3" s="147"/>
+      <c r="CI3" s="147"/>
+      <c r="CJ3" s="147"/>
+      <c r="CK3" s="147"/>
+      <c r="CL3" s="147"/>
+      <c r="CM3" s="147"/>
+      <c r="CN3" s="147"/>
+      <c r="CO3" s="147"/>
+      <c r="CP3" s="148"/>
+      <c r="CQ3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="121"/>
-      <c r="CS3" s="121"/>
-      <c r="CT3" s="121"/>
-      <c r="CU3" s="121"/>
-      <c r="CV3" s="121"/>
-      <c r="CW3" s="121"/>
-      <c r="CX3" s="121"/>
-      <c r="CY3" s="121"/>
-      <c r="CZ3" s="121"/>
-      <c r="DA3" s="121"/>
-      <c r="DB3" s="121"/>
-      <c r="DC3" s="121"/>
+      <c r="CR3" s="143"/>
+      <c r="CS3" s="143"/>
+      <c r="CT3" s="143"/>
+      <c r="CU3" s="143"/>
+      <c r="CV3" s="143"/>
+      <c r="CW3" s="143"/>
+      <c r="CX3" s="143"/>
+      <c r="CY3" s="143"/>
+      <c r="CZ3" s="143"/>
+      <c r="DA3" s="143"/>
+      <c r="DB3" s="143"/>
+      <c r="DC3" s="143"/>
       <c r="DD3" s="107"/>
       <c r="DE3" s="88" t="s">
         <v>87</v>
@@ -2692,196 +2692,196 @@
     </row>
     <row r="4" spans="1:109" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="147">
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="140">
         <v>19</v>
       </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="147">
+      <c r="E4" s="126"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="140">
         <v>20</v>
       </c>
-      <c r="H4" s="148"/>
+      <c r="H4" s="141"/>
       <c r="I4" s="99">
         <v>25</v>
       </c>
-      <c r="J4" s="147">
+      <c r="J4" s="140">
         <v>26</v>
       </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="147">
+      <c r="K4" s="126"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="140">
         <v>27</v>
       </c>
-      <c r="N4" s="133"/>
+      <c r="N4" s="125"/>
       <c r="O4" s="99">
         <v>29</v>
       </c>
       <c r="P4" s="104">
         <v>2</v>
       </c>
-      <c r="Q4" s="125">
+      <c r="Q4" s="138">
         <v>3</v>
       </c>
-      <c r="R4" s="125"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="146">
+      <c r="R4" s="138"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="137">
         <v>4</v>
       </c>
-      <c r="U4" s="126"/>
+      <c r="U4" s="139"/>
       <c r="V4" s="100">
         <v>6</v>
       </c>
-      <c r="W4" s="146">
+      <c r="W4" s="137">
         <v>10</v>
       </c>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="146">
+      <c r="X4" s="126"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="137">
         <v>11</v>
       </c>
-      <c r="AA4" s="126"/>
+      <c r="AA4" s="139"/>
       <c r="AB4" s="101">
         <v>16</v>
       </c>
-      <c r="AC4" s="146">
+      <c r="AC4" s="137">
         <v>17</v>
       </c>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="146">
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="137">
         <v>18</v>
       </c>
-      <c r="AG4" s="126"/>
+      <c r="AG4" s="139"/>
       <c r="AH4" s="101">
         <v>20</v>
       </c>
       <c r="AI4" s="101">
         <v>23</v>
       </c>
-      <c r="AJ4" s="146">
+      <c r="AJ4" s="137">
         <v>24</v>
       </c>
-      <c r="AK4" s="125"/>
-      <c r="AL4" s="126"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="139"/>
       <c r="AM4" s="101">
         <v>27</v>
       </c>
       <c r="AN4" s="101">
         <v>30</v>
       </c>
-      <c r="AO4" s="146">
+      <c r="AO4" s="137">
         <v>31</v>
       </c>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="132">
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="151">
         <v>1</v>
       </c>
-      <c r="AS4" s="134"/>
+      <c r="AS4" s="152"/>
       <c r="AT4" s="97">
         <v>6</v>
       </c>
-      <c r="AU4" s="132">
+      <c r="AU4" s="151">
         <v>7</v>
       </c>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="132">
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="151">
         <v>8</v>
       </c>
-      <c r="AY4" s="133"/>
+      <c r="AY4" s="125"/>
       <c r="AZ4" s="97">
         <v>10</v>
       </c>
       <c r="BA4" s="97">
         <v>13</v>
       </c>
-      <c r="BB4" s="132">
+      <c r="BB4" s="151">
         <v>14</v>
       </c>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="132">
+      <c r="BC4" s="126"/>
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="151">
         <v>15</v>
       </c>
-      <c r="BF4" s="133"/>
+      <c r="BF4" s="125"/>
       <c r="BG4" s="97">
         <v>17</v>
       </c>
       <c r="BH4" s="97">
         <v>20</v>
       </c>
-      <c r="BI4" s="132">
+      <c r="BI4" s="151">
         <v>21</v>
       </c>
-      <c r="BJ4" s="135"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="132">
+      <c r="BJ4" s="126"/>
+      <c r="BK4" s="125"/>
+      <c r="BL4" s="151">
         <v>22</v>
       </c>
-      <c r="BM4" s="133"/>
+      <c r="BM4" s="125"/>
       <c r="BN4" s="97">
         <v>24</v>
       </c>
       <c r="BO4" s="97">
         <v>27</v>
       </c>
-      <c r="BP4" s="132">
+      <c r="BP4" s="151">
         <v>28</v>
       </c>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="133"/>
-      <c r="BS4" s="132">
+      <c r="BQ4" s="126"/>
+      <c r="BR4" s="125"/>
+      <c r="BS4" s="151">
         <v>29</v>
       </c>
-      <c r="BT4" s="133"/>
+      <c r="BT4" s="125"/>
       <c r="BU4" s="80">
         <v>1</v>
       </c>
       <c r="BV4" s="80">
         <v>4</v>
       </c>
-      <c r="BW4" s="136">
+      <c r="BW4" s="127">
         <v>5</v>
       </c>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="135"/>
-      <c r="BZ4" s="136">
+      <c r="BX4" s="126"/>
+      <c r="BY4" s="126"/>
+      <c r="BZ4" s="127">
         <v>6</v>
       </c>
-      <c r="CA4" s="133"/>
+      <c r="CA4" s="125"/>
       <c r="CB4" s="80">
         <v>8</v>
       </c>
       <c r="CC4" s="80">
         <v>11</v>
       </c>
-      <c r="CD4" s="136">
+      <c r="CD4" s="127">
         <v>12</v>
       </c>
-      <c r="CE4" s="135"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="136">
+      <c r="CE4" s="126"/>
+      <c r="CF4" s="126"/>
+      <c r="CG4" s="127">
         <v>13</v>
       </c>
-      <c r="CH4" s="133"/>
+      <c r="CH4" s="125"/>
       <c r="CI4" s="80">
         <v>15</v>
       </c>
       <c r="CJ4" s="80">
         <v>18</v>
       </c>
-      <c r="CK4" s="136">
+      <c r="CK4" s="127">
         <v>19</v>
       </c>
-      <c r="CL4" s="135"/>
-      <c r="CM4" s="135"/>
-      <c r="CN4" s="136">
+      <c r="CL4" s="126"/>
+      <c r="CM4" s="126"/>
+      <c r="CN4" s="127">
         <v>20</v>
       </c>
-      <c r="CO4" s="137"/>
+      <c r="CO4" s="153"/>
       <c r="CP4" s="80" t="s">
         <v>84</v>
       </c>
@@ -2891,15 +2891,15 @@
       <c r="CR4" s="106">
         <v>15</v>
       </c>
-      <c r="CS4" s="149">
+      <c r="CS4" s="122">
         <v>16</v>
       </c>
-      <c r="CT4" s="150"/>
-      <c r="CU4" s="151"/>
-      <c r="CV4" s="149">
+      <c r="CT4" s="123"/>
+      <c r="CU4" s="124"/>
+      <c r="CV4" s="122">
         <v>17</v>
       </c>
-      <c r="CW4" s="133"/>
+      <c r="CW4" s="125"/>
       <c r="CX4" s="106">
         <v>19</v>
       </c>
@@ -2909,22 +2909,22 @@
       <c r="CZ4" s="106">
         <v>23</v>
       </c>
-      <c r="DA4" s="149">
+      <c r="DA4" s="122">
         <v>24</v>
       </c>
-      <c r="DB4" s="135"/>
+      <c r="DB4" s="126"/>
       <c r="DC4" s="98">
         <v>26</v>
       </c>
       <c r="DD4" s="108">
         <v>29</v>
       </c>
-      <c r="DE4" s="129"/>
+      <c r="DE4" s="149"/>
     </row>
     <row r="5" spans="1:109" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="DD5" s="85">
         <v>104</v>
       </c>
-      <c r="DE5" s="129"/>
+      <c r="DE5" s="149"/>
     </row>
     <row r="6" spans="1:109" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
@@ -4289,9 +4289,9 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="157"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
       <c r="S15" s="70"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
@@ -4406,8 +4406,8 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
@@ -6473,9 +6473,9 @@
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
       <c r="Z34" s="25"/>
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
@@ -9767,7 +9767,7 @@
       <c r="DD62" s="25"/>
       <c r="DE62" s="25"/>
     </row>
-    <row r="63" spans="1:109" s="48" customFormat="1" ht="21" customHeight="1">
+    <row r="63" spans="1:109" s="48" customFormat="1" ht="21" customHeight="1" collapsed="1">
       <c r="A63" s="43"/>
       <c r="B63" s="58" t="s">
         <v>57</v>
@@ -9880,7 +9880,7 @@
       <c r="DD63" s="45"/>
       <c r="DE63" s="45"/>
     </row>
-    <row r="64" spans="1:109" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="64" spans="1:109" s="75" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A64" s="9"/>
       <c r="B64" s="64" t="s">
         <v>81</v>
@@ -9995,7 +9995,7 @@
       <c r="DD64" s="25"/>
       <c r="DE64" s="25"/>
     </row>
-    <row r="65" spans="1:109" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="65" spans="1:109" s="75" customFormat="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A65" s="9"/>
       <c r="B65" s="25" t="s">
         <v>80</v>
@@ -10110,7 +10110,7 @@
       <c r="DD65" s="25"/>
       <c r="DE65" s="73"/>
     </row>
-    <row r="66" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A66" s="9"/>
       <c r="B66" s="25" t="s">
         <v>40</v>
@@ -10223,7 +10223,7 @@
       <c r="DD66" s="25"/>
       <c r="DE66" s="73"/>
     </row>
-    <row r="67" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A67" s="9"/>
       <c r="B67" s="65" t="s">
         <v>18</v>
@@ -10336,7 +10336,7 @@
       <c r="DD67" s="25"/>
       <c r="DE67" s="73"/>
     </row>
-    <row r="68" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="68" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A68" s="9"/>
       <c r="B68" s="25" t="s">
         <v>15</v>
@@ -10449,7 +10449,7 @@
       <c r="DD68" s="25"/>
       <c r="DE68" s="73"/>
     </row>
-    <row r="69" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="69" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A69" s="9"/>
       <c r="B69" s="25" t="s">
         <v>16</v>
@@ -10562,7 +10562,7 @@
       <c r="DD69" s="25"/>
       <c r="DE69" s="73"/>
     </row>
-    <row r="70" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="70" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A70" s="9"/>
       <c r="B70" s="65" t="s">
         <v>19</v>
@@ -10675,7 +10675,7 @@
       <c r="DD70" s="25"/>
       <c r="DE70" s="73"/>
     </row>
-    <row r="71" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="71" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A71" s="9"/>
       <c r="B71" s="64" t="s">
         <v>58</v>
@@ -10788,7 +10788,7 @@
       <c r="DD71" s="25"/>
       <c r="DE71" s="73"/>
     </row>
-    <row r="72" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="72" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A72" s="9"/>
       <c r="B72" s="25" t="s">
         <v>59</v>
@@ -10901,7 +10901,7 @@
       <c r="DD72" s="25"/>
       <c r="DE72" s="73"/>
     </row>
-    <row r="73" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="73" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A73" s="9"/>
       <c r="B73" s="64" t="s">
         <v>60</v>
@@ -11014,7 +11014,7 @@
       <c r="DD73" s="25"/>
       <c r="DE73" s="73"/>
     </row>
-    <row r="74" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="74" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A74" s="9"/>
       <c r="B74" s="25" t="s">
         <v>55</v>
@@ -11127,7 +11127,7 @@
       <c r="DD74" s="25"/>
       <c r="DE74" s="73"/>
     </row>
-    <row r="75" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="75" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A75" s="9"/>
       <c r="B75" s="65" t="s">
         <v>61</v>
@@ -11240,7 +11240,7 @@
       <c r="DD75" s="25"/>
       <c r="DE75" s="73"/>
     </row>
-    <row r="76" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="76" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A76" s="9"/>
       <c r="B76" s="25" t="s">
         <v>53</v>
@@ -11353,7 +11353,7 @@
       <c r="DD76" s="25"/>
       <c r="DE76" s="73"/>
     </row>
-    <row r="77" spans="1:109" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="77" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A77" s="9"/>
       <c r="B77" s="25" t="s">
         <v>54</v>
@@ -11466,7 +11466,7 @@
       <c r="DD77" s="25"/>
       <c r="DE77" s="73"/>
     </row>
-    <row r="78" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="78" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A78" s="9"/>
       <c r="B78" s="25" t="s">
         <v>38</v>
@@ -11579,7 +11579,7 @@
       <c r="DD78" s="25"/>
       <c r="DE78" s="73"/>
     </row>
-    <row r="79" spans="1:109" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="79" spans="1:109" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A79" s="9"/>
       <c r="B79" s="25" t="s">
         <v>37</v>
@@ -34860,14 +34860,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CS4:CU4"/>
-    <mergeCell ref="CV4:CW4"/>
-    <mergeCell ref="DA4:DB4"/>
-    <mergeCell ref="BW4:BY4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="CK4:CM4"/>
+    <mergeCell ref="CQ3:DC3"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="BU3:CP3"/>
+    <mergeCell ref="DE4:DE5"/>
+    <mergeCell ref="AR3:BT3"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="CN4:CO4"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="P1:AD1"/>
     <mergeCell ref="B3:B5"/>
@@ -34884,22 +34892,14 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="CQ3:DC3"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="BU3:CP3"/>
-    <mergeCell ref="DE4:DE5"/>
-    <mergeCell ref="AR3:BT3"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="CN4:CO4"/>
+    <mergeCell ref="CS4:CU4"/>
+    <mergeCell ref="CV4:CW4"/>
+    <mergeCell ref="DA4:DB4"/>
+    <mergeCell ref="BW4:BY4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="CK4:CM4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34936,34 +34936,34 @@
   <sheetData>
     <row r="1" spans="1:80" ht="41.4" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -35104,250 +35104,250 @@
     </row>
     <row r="3" spans="1:80" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="144" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="130" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="131"/>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="131"/>
-      <c r="AQ3" s="131"/>
-      <c r="AR3" s="131"/>
-      <c r="AS3" s="131"/>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="131"/>
-      <c r="BC3" s="131"/>
-      <c r="BD3" s="131"/>
-      <c r="BE3" s="153" t="s">
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="BF3" s="154"/>
-      <c r="BG3" s="154"/>
-      <c r="BH3" s="154"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="154"/>
-      <c r="BK3" s="154"/>
-      <c r="BL3" s="154"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="154"/>
-      <c r="BO3" s="154"/>
-      <c r="BP3" s="154"/>
-      <c r="BQ3" s="154"/>
-      <c r="BR3" s="154"/>
-      <c r="BS3" s="154"/>
-      <c r="BT3" s="155"/>
-      <c r="BU3" s="156" t="s">
+      <c r="BF3" s="155"/>
+      <c r="BG3" s="155"/>
+      <c r="BH3" s="155"/>
+      <c r="BI3" s="155"/>
+      <c r="BJ3" s="155"/>
+      <c r="BK3" s="155"/>
+      <c r="BL3" s="155"/>
+      <c r="BM3" s="155"/>
+      <c r="BN3" s="155"/>
+      <c r="BO3" s="155"/>
+      <c r="BP3" s="155"/>
+      <c r="BQ3" s="155"/>
+      <c r="BR3" s="155"/>
+      <c r="BS3" s="155"/>
+      <c r="BT3" s="156"/>
+      <c r="BU3" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="133"/>
+      <c r="BV3" s="126"/>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="126"/>
+      <c r="BZ3" s="126"/>
+      <c r="CA3" s="125"/>
       <c r="CB3" s="88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:80" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="147">
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="140">
         <v>19</v>
       </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="147">
+      <c r="E4" s="126"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="140">
         <v>20</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="147">
+      <c r="H4" s="125"/>
+      <c r="I4" s="140">
         <v>26</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="147">
+      <c r="J4" s="126"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="140">
         <v>27</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="146">
+      <c r="M4" s="125"/>
+      <c r="N4" s="137">
         <v>3</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="146">
+      <c r="O4" s="126"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="137">
         <v>4</v>
       </c>
-      <c r="R4" s="133"/>
-      <c r="S4" s="146">
+      <c r="R4" s="125"/>
+      <c r="S4" s="137">
         <v>10</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="146">
+      <c r="T4" s="126"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="137">
         <v>11</v>
       </c>
-      <c r="W4" s="133"/>
-      <c r="X4" s="146">
+      <c r="W4" s="125"/>
+      <c r="X4" s="137">
         <v>17</v>
       </c>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="146">
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="137">
         <v>18</v>
       </c>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="146">
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="137">
         <v>24</v>
       </c>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="146">
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="137">
         <v>31</v>
       </c>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="132">
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="151">
         <v>1</v>
       </c>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="132">
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="151">
         <v>7</v>
       </c>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="132">
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="151">
         <v>8</v>
       </c>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="132">
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="151">
         <v>14</v>
       </c>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="132">
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="151">
         <v>15</v>
       </c>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="132">
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="151">
         <v>21</v>
       </c>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="132">
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="151">
         <v>22</v>
       </c>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="132">
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="151">
         <v>28</v>
       </c>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="132">
+      <c r="BA4" s="126"/>
+      <c r="BB4" s="125"/>
+      <c r="BC4" s="151">
         <v>29</v>
       </c>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="136">
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="127">
         <v>5</v>
       </c>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="136">
+      <c r="BF4" s="126"/>
+      <c r="BG4" s="126"/>
+      <c r="BH4" s="127">
         <v>6</v>
       </c>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="136">
+      <c r="BI4" s="125"/>
+      <c r="BJ4" s="127">
         <v>12</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="136">
+      <c r="BK4" s="126"/>
+      <c r="BL4" s="126"/>
+      <c r="BM4" s="127">
         <v>13</v>
       </c>
-      <c r="BN4" s="133"/>
-      <c r="BO4" s="136">
+      <c r="BN4" s="125"/>
+      <c r="BO4" s="127">
         <v>19</v>
       </c>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="136">
+      <c r="BP4" s="126"/>
+      <c r="BQ4" s="126"/>
+      <c r="BR4" s="127">
         <v>20</v>
       </c>
-      <c r="BS4" s="137"/>
+      <c r="BS4" s="153"/>
       <c r="BT4" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="BU4" s="149">
+      <c r="BU4" s="122">
         <v>16</v>
       </c>
-      <c r="BV4" s="135"/>
-      <c r="BW4" s="135"/>
-      <c r="BX4" s="149">
+      <c r="BV4" s="126"/>
+      <c r="BW4" s="126"/>
+      <c r="BX4" s="122">
         <v>17</v>
       </c>
-      <c r="BY4" s="133"/>
-      <c r="BZ4" s="149">
+      <c r="BY4" s="125"/>
+      <c r="BZ4" s="122">
         <v>24</v>
       </c>
-      <c r="CA4" s="135"/>
-      <c r="CB4" s="129"/>
+      <c r="CA4" s="126"/>
+      <c r="CB4" s="149"/>
     </row>
     <row r="5" spans="1:80" ht="17.25" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="34">
         <v>1</v>
       </c>
@@ -35574,7 +35574,7 @@
       <c r="CA5" s="89">
         <v>75</v>
       </c>
-      <c r="CB5" s="129"/>
+      <c r="CB5" s="149"/>
     </row>
     <row r="6" spans="1:80" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="43"/>
@@ -59018,20 +59018,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:AH3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AI3:BD3"/>
     <mergeCell ref="BE3:BT3"/>
     <mergeCell ref="BU3:CA3"/>
@@ -59048,16 +59044,20 @@
     <mergeCell ref="AK4:AM4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:AH3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BG4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
